--- a/Tugas 1/Muhammad Rizki Hakim_383247.xlsx
+++ b/Tugas 1/Muhammad Rizki Hakim_383247.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Alex\Kuliah\Semester 6\Machine Learning\Tugas 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\smt 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -532,35 +532,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +579,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1033,7 +1033,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-740F-47BA-8B98-2ADA443A9F9E}"/>
             </c:ext>
@@ -1048,11 +1048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460217472"/>
-        <c:axId val="460216488"/>
+        <c:axId val="1377450800"/>
+        <c:axId val="1377458416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460217472"/>
+        <c:axId val="1377450800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1095,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460216488"/>
+        <c:crossAx val="1377458416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1103,7 +1103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460216488"/>
+        <c:axId val="1377458416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460217472"/>
+        <c:crossAx val="1377450800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1779,7 +1779,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBA4240-7965-406B-A944-3CD58D5758A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBA4240-7965-406B-A944-3CD58D5758A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2100,7 +2100,7 @@
   <dimension ref="A2:T111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2159,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2167,7 +2167,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2175,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2196,67 +2196,67 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="11" t="s">
+      <c r="K10" s="21"/>
+      <c r="L10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11" t="s">
+      <c r="M10" s="19"/>
+      <c r="N10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11" t="s">
+      <c r="O10" s="19"/>
+      <c r="P10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11" t="s">
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="18" t="s">
+      <c r="S10" s="20"/>
+      <c r="T10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="3" t="s">
         <v>25</v>
       </c>
@@ -2284,10 +2284,10 @@
       <c r="R11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="20"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="5">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="G12" s="7">
         <f>(E2*B12)+(E3*C12)+(E4*D12)+(E5*E12)+E6</f>
-        <v>3.3300000000000005</v>
+        <v>2.21</v>
       </c>
       <c r="H12" s="7">
         <f xml:space="preserve"> 1/(1+$E$7^(-1*G12))</f>
-        <v>0.96544376855060643</v>
+        <v>0.90114392476065208</v>
       </c>
       <c r="I12" s="7">
         <f>IF(H12 &gt; 0.5,1,0)</f>
@@ -2322,47 +2322,47 @@
       </c>
       <c r="J12" s="7">
         <f>2*(H12-F12)*(1-H12)*H12*B12</f>
-        <v>0.32853414524842001</v>
+        <v>0.81882643372238562</v>
       </c>
       <c r="K12" s="7">
         <f>E2-($E$8*J12)</f>
-        <v>0.16714658547515801</v>
+        <v>1.8117356627761441E-2</v>
       </c>
       <c r="L12" s="7">
         <f xml:space="preserve"> 2*(H12-F12)*(1-H12)*H12*C12</f>
-        <v>0.22546460948420982</v>
+        <v>0.56193970941732352</v>
       </c>
       <c r="M12" s="5">
         <f>E3-($E$8*L12)</f>
-        <v>0.27745353905157899</v>
+        <v>0.14380602905826767</v>
       </c>
       <c r="N12" s="5">
         <f xml:space="preserve"> 2*(H12-F12)*(1-H12)*H12*D12</f>
-        <v>9.0185843793683926E-2</v>
+        <v>0.22477588376692939</v>
       </c>
       <c r="O12" s="5">
         <f>E4-($E$8*N12)</f>
-        <v>0.39098141562063166</v>
+        <v>0.27752241162330704</v>
       </c>
       <c r="P12" s="5">
         <f>2*(H12-F12)*(1-H12)*H12*E12</f>
-        <v>1.2883691970526277E-2</v>
+        <v>3.2110840538132776E-2</v>
       </c>
       <c r="Q12" s="5">
         <f>E5-($E$8*P12)</f>
-        <v>0.49871163080294739</v>
+        <v>0.39678891594618676</v>
       </c>
       <c r="R12" s="5">
         <f>2*(H12-F12)*(1-H12)*H12</f>
-        <v>6.441845985263138E-2</v>
+        <v>0.16055420269066387</v>
       </c>
       <c r="S12" s="5">
         <f xml:space="preserve"> E6-($E$8*R12)</f>
-        <v>0.59355815401473688</v>
-      </c>
-      <c r="T12" s="21">
+        <v>0.48394457973093363</v>
+      </c>
+      <c r="T12" s="14">
         <f>(I12-H12)^2</f>
-        <v>1.1941331319840574E-3</v>
+        <v>9.7725236117276165E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -2387,11 +2387,11 @@
       </c>
       <c r="G13" s="10">
         <f>(K12*B13)+(M12*C13)+(O12*D13)+(Q12*E13)+S12</f>
-        <v>2.8920533480272219</v>
+        <v>1.4720268738436348</v>
       </c>
       <c r="H13" s="10">
         <f>1/(1+$E$7^(-1*G13))</f>
-        <v>0.94745220309521339</v>
+        <v>0.81336526306696644</v>
       </c>
       <c r="I13" s="10">
         <f>IF(H13 &gt; 0.5,1,0)</f>
@@ -2399,47 +2399,47 @@
       </c>
       <c r="J13" s="10">
         <f>2*(H13-F13)*(1-H13)*H13*B13</f>
-        <v>0.46226946617449066</v>
+        <v>1.2100123309823518</v>
       </c>
       <c r="K13" s="10">
         <f>K12-($E$8*J13)</f>
-        <v>0.12091963885770894</v>
+        <v>-0.10288387647047374</v>
       </c>
       <c r="L13" s="8">
         <f>2*(H13-F13)*(1-H13)*H13*C13</f>
-        <v>0.28302212214764733</v>
+        <v>0.74082387611164391</v>
       </c>
       <c r="M13" s="8">
         <f>M12-($E$8*L13)</f>
-        <v>0.24915132683681426</v>
+        <v>6.9723641447103274E-2</v>
       </c>
       <c r="N13" s="8">
         <f>2*(H13-F13)*(1-H13)*H13*D13</f>
-        <v>0.13207699033556874</v>
+        <v>0.34571780885210046</v>
       </c>
       <c r="O13" s="8">
         <f>O12-($E$8*N13)</f>
-        <v>0.37777371658707476</v>
+        <v>0.242950630738097</v>
       </c>
       <c r="P13" s="8">
         <f>2*(H13-F13)*(1-H13)*H13*E13</f>
-        <v>1.8868141476509823E-2</v>
+        <v>4.9388258407442931E-2</v>
       </c>
       <c r="Q13" s="8">
         <f>Q12-($E$8*P13)</f>
-        <v>0.49682481665529643</v>
+        <v>0.39185009010544247</v>
       </c>
       <c r="R13" s="8">
         <f>2*(H13-F13)*(1-H13)*H13</f>
-        <v>9.4340707382549113E-2</v>
+        <v>0.24694129203721463</v>
       </c>
       <c r="S13" s="8">
         <f>S12-($E$8*R13)</f>
-        <v>0.58412408327648202</v>
-      </c>
-      <c r="T13" s="21">
+        <v>0.45925045052721214</v>
+      </c>
+      <c r="T13" s="14">
         <f t="shared" ref="T13:T76" si="0">(I13-H13)^2</f>
-        <v>2.7612709595467018E-3</v>
+        <v>3.4832525030062643E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -2464,11 +2464,11 @@
       </c>
       <c r="G14" s="10">
         <f t="shared" ref="G14:G77" si="2">(K13*B14)+(M13*C14)+(O13*D14)+(Q13*E14)+S13</f>
-        <v>2.5402014266797766</v>
+        <v>0.59301772172733058</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" ref="H14:H77" si="3">1/(1+$E$7^(-1*G14))</f>
-        <v>0.92691247174888958</v>
+        <v>0.64405724980817369</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" ref="I14:I77" si="4">IF(H14 &gt; 0.5,1,0)</f>
@@ -2476,47 +2476,47 @@
       </c>
       <c r="J14" s="10">
         <f t="shared" ref="J14:J77" si="5">2*(H14-F14)*(1-H14)*H14*B14</f>
-        <v>0.59026710311698249</v>
+        <v>1.3878960882701947</v>
       </c>
       <c r="K14" s="10">
         <f t="shared" ref="K14:K77" si="6">K13-($E$8*J14)</f>
-        <v>6.1892928546010688E-2</v>
+        <v>-0.24167348529749322</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ref="L14:L77" si="7">2*(H14-F14)*(1-H14)*H14*C14</f>
-        <v>0.40188398510092427</v>
+        <v>0.94495052818396241</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ref="M14:M77" si="8">M13-($E$8*L14)</f>
-        <v>0.20896292832672184</v>
+        <v>-2.4771411371292976E-2</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ref="N14:N77" si="9">2*(H14-F14)*(1-H14)*H14*D14</f>
-        <v>0.16326536894725049</v>
+        <v>0.38388615207473475</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ref="O14:O77" si="10">O13-($E$8*N14)</f>
-        <v>0.36144717969234968</v>
+        <v>0.20456201553062353</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ref="P14:P77" si="11">2*(H14-F14)*(1-H14)*H14*E14</f>
-        <v>2.5117749068807767E-2</v>
+        <v>5.9059408011497651E-2</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" ref="Q14:Q77" si="12">Q13-($E$8*P14)</f>
-        <v>0.49431304174841567</v>
+        <v>0.38594414930429272</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" ref="R14:R77" si="13">2*(H14-F14)*(1-H14)*H14</f>
-        <v>0.12558874534403883</v>
+        <v>0.29529704005748825</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" ref="S14:S77" si="14">S13-($E$8*R14)</f>
-        <v>0.57156520874207817</v>
-      </c>
-      <c r="T14" s="21">
+        <v>0.4297207465214633</v>
+      </c>
+      <c r="T14" s="14">
         <f t="shared" si="0"/>
-        <v>5.3417867858568642E-3</v>
+        <v>0.12669524141412086</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -2541,59 +2541,59 @@
       </c>
       <c r="G15" s="10">
         <f t="shared" si="2"/>
-        <v>2.1450911357547726</v>
+        <v>-0.37473680794121988</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="3"/>
-        <v>0.89520916820721075</v>
+        <v>0.40739694050091546</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="5"/>
-        <v>0.77260970233510273</v>
+        <v>0.90487219429509269</v>
       </c>
       <c r="K15" s="10">
         <f t="shared" si="6"/>
-        <v>-1.5368041687499591E-2</v>
+        <v>-0.33216070472700249</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="7"/>
-        <v>0.52067175592148229</v>
+        <v>0.60980517441625814</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="8"/>
-        <v>0.1568957527345736</v>
+        <v>-8.5751928812918793E-2</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="9"/>
-        <v>0.25193794641362044</v>
+        <v>0.2950670198788346</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="10"/>
-        <v>0.33625338505098762</v>
+        <v>0.17505531354274007</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="11"/>
-        <v>3.3591726188482732E-2</v>
+        <v>3.934226931717795E-2</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="12"/>
-        <v>0.4909538691295674</v>
+        <v>0.38200992237257492</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="13"/>
-        <v>0.16795863094241364</v>
+        <v>0.19671134658588973</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="14"/>
-        <v>0.55476934564783675</v>
-      </c>
-      <c r="T15" s="21">
+        <v>0.41004961186287431</v>
+      </c>
+      <c r="T15" s="14">
         <f t="shared" si="0"/>
-        <v>1.098111842782465E-2</v>
+        <v>0.16597226712950644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -2618,59 +2618,59 @@
       </c>
       <c r="G16" s="10">
         <f t="shared" si="2"/>
-        <v>1.6116993599520999</v>
+        <v>-1.237981432064295</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="3"/>
-        <v>0.83364718420507411</v>
+        <v>0.22478754438754164</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="5"/>
-        <v>1.1560982175971248</v>
+        <v>0.39171051349776398</v>
       </c>
       <c r="K16" s="10">
         <f t="shared" si="6"/>
-        <v>-0.13097786344721207</v>
+        <v>-0.37133175607677887</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="7"/>
-        <v>0.83239071666992992</v>
+        <v>0.28203156971839011</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="8"/>
-        <v>7.3656681067580596E-2</v>
+        <v>-0.1139550857847578</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="9"/>
-        <v>0.32370750092719497</v>
+        <v>0.10967894377937391</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="10"/>
-        <v>0.30388263495826812</v>
+        <v>0.16408741916480268</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="11"/>
-        <v>4.6243928703884996E-2</v>
+        <v>1.566842053991056E-2</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="12"/>
-        <v>0.48632947625917888</v>
+        <v>0.38044308031858387</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="13"/>
-        <v>0.23121964351942498</v>
+        <v>7.8342102699552801E-2</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="14"/>
-        <v>0.53164738129589428</v>
-      </c>
-      <c r="T16" s="21">
+        <v>0.40221540159291902</v>
+      </c>
+      <c r="T16" s="14">
         <f t="shared" si="0"/>
-        <v>2.7673259322900545E-2</v>
+        <v>5.0529440111781003E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -2695,59 +2695,59 @@
       </c>
       <c r="G17" s="10">
         <f t="shared" si="2"/>
-        <v>0.82276024477724063</v>
+        <v>-1.6162750710746443</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="3"/>
-        <v>0.69482194729472391</v>
+        <v>0.16571922660159993</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="5"/>
-        <v>1.5911975779744465</v>
+        <v>0.24744676827977155</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>-0.29009762124465677</v>
+        <v>-0.39607643290475603</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="7"/>
-        <v>1.1491982507593224</v>
+        <v>0.17871155486872387</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="8"/>
-        <v>-4.126314400835164E-2</v>
+        <v>-0.13182624127163017</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="9"/>
-        <v>0.50093257084380716</v>
+        <v>7.789990853252067E-2</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="10"/>
-        <v>0.25378937787388739</v>
+        <v>0.15629742831155061</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="11"/>
-        <v>0.1178664872573664</v>
+        <v>1.8329390242946039E-2</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="12"/>
-        <v>0.47454282753344224</v>
+        <v>0.37861014129428927</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="13"/>
-        <v>0.29466621814341598</v>
+        <v>4.5823475607365098E-2</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="14"/>
-        <v>0.50218075948155272</v>
-      </c>
-      <c r="T17" s="21">
+        <v>0.39763305403218252</v>
+      </c>
+      <c r="T17" s="14">
         <f t="shared" si="0"/>
-        <v>9.3133643852984269E-2</v>
+        <v>2.7462862065432428E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -2772,11 +2772,11 @@
       </c>
       <c r="G18" s="10">
         <f t="shared" si="2"/>
-        <v>-0.47489501058878902</v>
+        <v>-1.5401283156287797</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="3"/>
-        <v>0.38345831774080735</v>
+        <v>0.17651662458084821</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="4"/>
@@ -2784,47 +2784,47 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" si="5"/>
-        <v>0.83403945483186981</v>
+        <v>0.23605537378551958</v>
       </c>
       <c r="K18" s="10">
         <f t="shared" si="6"/>
-        <v>-0.37350156672784374</v>
+        <v>-0.419681970283308</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="7"/>
-        <v>0.61646394487572986</v>
+        <v>0.17447571105886231</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="8"/>
-        <v>-0.10290953849592463</v>
+        <v>-0.14927381237751641</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="9"/>
-        <v>0.25383809494882997</v>
+        <v>7.1842939847766824E-2</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" si="10"/>
-        <v>0.22840556837900439</v>
+        <v>0.14911313432677392</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="11"/>
-        <v>5.4393877489034993E-2</v>
+        <v>1.5394915681664321E-2</v>
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="12"/>
-        <v>0.46910343978453872</v>
+        <v>0.37707064972612286</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="13"/>
-        <v>0.18131292496344997</v>
+        <v>5.1316385605547736E-2</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="14"/>
-        <v>0.48404946698520773</v>
-      </c>
-      <c r="T18" s="21">
+        <v>0.39250141547162776</v>
+      </c>
+      <c r="T18" s="14">
         <f t="shared" si="0"/>
-        <v>0.14704028144460998</v>
+        <v>3.1158118753416109E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -2849,11 +2849,11 @@
       </c>
       <c r="G19" s="10">
         <f t="shared" si="2"/>
-        <v>-1.2969217570147404</v>
+        <v>-1.9143555665930829</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="3"/>
-        <v>0.21468353832003409</v>
+        <v>0.12849231941217409</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" si="4"/>
@@ -2861,47 +2861,47 @@
       </c>
       <c r="J19" s="10">
         <f t="shared" si="5"/>
-        <v>0.36194467385315121</v>
+        <v>0.14388832471538415</v>
       </c>
       <c r="K19" s="10">
         <f t="shared" si="6"/>
-        <v>-0.40969603411315886</v>
+        <v>-0.43407080275484644</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="7"/>
-        <v>0.24612237822014282</v>
+        <v>9.7844060806461214E-2</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="8"/>
-        <v>-0.12752177631793893</v>
+        <v>-0.15905821845816254</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="9"/>
-        <v>0.10858340215594536</v>
+        <v>4.3166497414615243E-2</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" si="10"/>
-        <v>0.21754722816340985</v>
+        <v>0.14479648458531238</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="11"/>
-        <v>1.4477786954126048E-2</v>
+        <v>5.7555329886153665E-3</v>
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="12"/>
-        <v>0.4676556610891261</v>
+        <v>0.37649509642726131</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="13"/>
-        <v>7.2388934770630242E-2</v>
+        <v>2.877766494307683E-2</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="14"/>
-        <v>0.47681057350814471</v>
-      </c>
-      <c r="T19" s="21">
+        <v>0.38962364897732005</v>
+      </c>
+      <c r="T19" s="14">
         <f t="shared" si="0"/>
-        <v>4.6089021625609544E-2</v>
+        <v>1.651027614792017E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2926,11 +2926,11 @@
       </c>
       <c r="G20" s="10">
         <f t="shared" si="2"/>
-        <v>-1.2975678762651783</v>
+        <v>-1.7035426189677865</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="3"/>
-        <v>0.21457462623998275</v>
+        <v>0.15400314717443056</v>
       </c>
       <c r="I20" s="10">
         <f t="shared" si="4"/>
@@ -2938,47 +2938,47 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" si="5"/>
-        <v>0.31823235224913426</v>
+        <v>0.176567436495005</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" si="6"/>
-        <v>-0.44151926933807228</v>
+        <v>-0.45172754640434692</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" si="7"/>
-        <v>0.20974405034602031</v>
+        <v>0.11637399223534418</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="8"/>
-        <v>-0.14849618135254095</v>
+        <v>-0.17069561768169694</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="9"/>
-        <v>0.10125574844290636</v>
+        <v>5.6180547975683399E-2</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" si="10"/>
-        <v>0.20742165331911921</v>
+        <v>0.13917842978774406</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="11"/>
-        <v>1.4465106920415194E-2</v>
+        <v>8.0257925679547721E-3</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="12"/>
-        <v>0.46620915039708455</v>
+        <v>0.37569251717046581</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="13"/>
-        <v>7.2325534602075969E-2</v>
+        <v>4.0128962839773859E-2</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="14"/>
-        <v>0.46957802004793714</v>
-      </c>
-      <c r="T20" s="21">
+        <v>0.38561075269334266</v>
+      </c>
+      <c r="T20" s="14">
         <f t="shared" si="0"/>
-        <v>4.604227022602829E-2</v>
+        <v>2.3716969339629319E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -3003,11 +3003,11 @@
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>-1.7964511668831074</v>
+        <v>-2.1106737431025553</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="3"/>
-        <v>0.14228361362711942</v>
+        <v>0.10806371237619147</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="4"/>
@@ -3015,47 +3015,47 @@
       </c>
       <c r="J21" s="10">
         <f t="shared" si="5"/>
-        <v>0.17016865101168693</v>
+        <v>0.10207506729723544</v>
       </c>
       <c r="K21" s="10">
         <f t="shared" si="6"/>
-        <v>-0.45853613443924096</v>
+        <v>-0.46193505313407046</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" si="7"/>
-        <v>0.1076577179869856</v>
+        <v>6.4578103800291803E-2</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="8"/>
-        <v>-0.1592619531512395</v>
+        <v>-0.17715342806172613</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="9"/>
-        <v>5.2092444187251098E-2</v>
+        <v>3.1247469580786356E-2</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" si="10"/>
-        <v>0.2022124089003941</v>
+        <v>0.13605368282966543</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="11"/>
-        <v>3.4728296124834066E-3</v>
+        <v>2.0831646387190904E-3</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="12"/>
-        <v>0.46586186743583619</v>
+        <v>0.37548420070659388</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="13"/>
-        <v>3.4728296124834065E-2</v>
+        <v>2.0831646387190903E-2</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="14"/>
-        <v>0.46610519043545373</v>
-      </c>
-      <c r="T21" s="21">
+        <v>0.38352758805462356</v>
+      </c>
+      <c r="T21" s="14">
         <f t="shared" si="0"/>
-        <v>2.0244626706791401E-2</v>
+        <v>1.1677765932524238E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -3080,11 +3080,11 @@
       </c>
       <c r="G22" s="10">
         <f t="shared" si="2"/>
-        <v>-2.2027681753582748</v>
+        <v>-2.4872120183119266</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="3"/>
-        <v>9.9502183401910443E-2</v>
+        <v>7.6759543538249139E-2</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="4"/>
@@ -3092,47 +3092,47 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" si="5"/>
-        <v>9.6287883587821074E-2</v>
+        <v>5.8749388354021818E-2</v>
       </c>
       <c r="K22" s="10">
         <f t="shared" si="6"/>
-        <v>-0.46816492279802308</v>
+        <v>-0.46780999196947265</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" si="7"/>
-        <v>6.5975031347210736E-2</v>
+        <v>4.0254210538866797E-2</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="8"/>
-        <v>-0.16585945628596058</v>
+        <v>-0.1811788491156128</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="9"/>
-        <v>2.6746634329950298E-2</v>
+        <v>1.6319274542783837E-2</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="10"/>
-        <v>0.19953774546739908</v>
+        <v>0.13442175537538706</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="11"/>
-        <v>3.56621791066004E-3</v>
+        <v>2.1759032723711784E-3</v>
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="12"/>
-        <v>0.46550524564477019</v>
+        <v>0.37526661037935677</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="13"/>
-        <v>1.7831089553300199E-2</v>
+        <v>1.0879516361855891E-2</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="14"/>
-        <v>0.46432208148012372</v>
-      </c>
-      <c r="T22" s="21">
+        <v>0.38243963641843798</v>
+      </c>
+      <c r="T22" s="14">
         <f t="shared" si="0"/>
-        <v>9.900684501747423E-3</v>
+        <v>5.8920275242003656E-3</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -3157,11 +3157,11 @@
       </c>
       <c r="G23" s="10">
         <f t="shared" si="2"/>
-        <v>-1.9344302574458605</v>
+        <v>-2.1889282813516235</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="3"/>
-        <v>0.12626103020418911</v>
+        <v>0.10074915048072998</v>
       </c>
       <c r="I23" s="10">
         <f t="shared" si="4"/>
@@ -3169,47 +3169,47 @@
       </c>
       <c r="J23" s="10">
         <f t="shared" si="5"/>
-        <v>0.133718530830472</v>
+        <v>8.7626380989993438E-2</v>
       </c>
       <c r="K23" s="10">
         <f t="shared" si="6"/>
-        <v>-0.4815367758810703</v>
+        <v>-0.476572630068472</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="7"/>
-        <v>9.4717292671584324E-2</v>
+        <v>6.2068686534578685E-2</v>
       </c>
       <c r="M23" s="8">
         <f t="shared" si="8"/>
-        <v>-0.175331185553119</v>
+        <v>-0.18738571776907068</v>
       </c>
       <c r="N23" s="8">
         <f t="shared" si="9"/>
-        <v>4.4572843610157335E-2</v>
+        <v>2.9208793663331147E-2</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="10"/>
-        <v>0.19508046110638336</v>
+        <v>0.13150087600905394</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="11"/>
-        <v>5.5716054512696669E-3</v>
+        <v>3.6510992079163934E-3</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="12"/>
-        <v>0.46494808509964325</v>
+        <v>0.37490150045856513</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="13"/>
-        <v>2.7858027256348332E-2</v>
+        <v>1.8255496039581966E-2</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="14"/>
-        <v>0.46153627875448888</v>
-      </c>
-      <c r="T23" s="21">
+        <v>0.38061408681447978</v>
+      </c>
+      <c r="T23" s="14">
         <f t="shared" si="0"/>
-        <v>1.5941847748223152E-2</v>
+        <v>1.0150391322588773E-2</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -3234,11 +3234,11 @@
       </c>
       <c r="G24" s="10">
         <f t="shared" si="2"/>
-        <v>-2.0562263480751044</v>
+        <v>-2.247500314362866</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="3"/>
-        <v>0.11342475586193254</v>
+        <v>9.5565302883186792E-2</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="4"/>
@@ -3246,47 +3246,47 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" si="5"/>
-        <v>0.1094970804610149</v>
+        <v>7.9295570709560906E-2</v>
       </c>
       <c r="K24" s="10">
         <f t="shared" si="6"/>
-        <v>-0.49248648392717181</v>
+        <v>-0.48450218713942811</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" si="7"/>
-        <v>6.8435675288134323E-2</v>
+        <v>4.9559731693475564E-2</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" si="8"/>
-        <v>-0.18217475308193243</v>
+        <v>-0.19234169093841824</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" si="9"/>
-        <v>3.1936648467796015E-2</v>
+        <v>2.3127874790288595E-2</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="10"/>
-        <v>0.19188679625960375</v>
+        <v>0.12918808853002509</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="11"/>
-        <v>2.2811891762711443E-3</v>
+        <v>1.6519910564491856E-3</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="12"/>
-        <v>0.46471996618201611</v>
+        <v>0.37473630135292019</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="13"/>
-        <v>2.281189176271144E-2</v>
+        <v>1.6519910564491855E-2</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="14"/>
-        <v>0.45925508957821776</v>
-      </c>
-      <c r="T24" s="21">
+        <v>0.37896209575803058</v>
+      </c>
+      <c r="T24" s="14">
         <f t="shared" si="0"/>
-        <v>1.2865175242339001E-2</v>
+        <v>9.1327271151552293E-3</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -3311,11 +3311,11 @@
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
-        <v>-1.9474135780506525</v>
+        <v>-2.1018418542384456</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="3"/>
-        <v>0.1248356573673732</v>
+        <v>0.10891793370105773</v>
       </c>
       <c r="I25" s="10">
         <f t="shared" si="4"/>
@@ -3323,47 +3323,47 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" si="5"/>
-        <v>0.11729118417249476</v>
+        <v>9.0910687453821359E-2</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" si="6"/>
-        <v>-0.50421560234442131</v>
+        <v>-0.49359325588481023</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" si="7"/>
-        <v>8.1831058724996353E-2</v>
+        <v>6.3426061014293975E-2</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="8"/>
-        <v>-0.19035785895443205</v>
+        <v>-0.19868429703984763</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" si="9"/>
-        <v>3.0004721532498665E-2</v>
+        <v>2.3256222371907793E-2</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="10"/>
-        <v>0.18888632410635389</v>
+        <v>0.12686246629283432</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="11"/>
-        <v>2.7277019574998788E-3</v>
+        <v>2.1142020338097991E-3</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="12"/>
-        <v>0.4644471959862661</v>
+        <v>0.37452488114953919</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="13"/>
-        <v>2.7277019574998784E-2</v>
+        <v>2.1142020338097992E-2</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="14"/>
-        <v>0.45652738762071787</v>
-      </c>
-      <c r="T25" s="21">
+        <v>0.37684789372422078</v>
+      </c>
+      <c r="T25" s="14">
         <f t="shared" si="0"/>
-        <v>1.55839413503442E-2</v>
+        <v>1.1863116281708008E-2</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -3388,11 +3388,11 @@
       </c>
       <c r="G26" s="10">
         <f t="shared" si="2"/>
-        <v>-2.9098015136697759</v>
+        <v>-3.0535902427857602</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="3"/>
-        <v>5.1671162172068741E-2</v>
+        <v>4.5062726668839745E-2</v>
       </c>
       <c r="I26" s="10">
         <f t="shared" si="4"/>
@@ -3400,47 +3400,47 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="5"/>
-        <v>2.9370639711620114E-2</v>
+        <v>2.2494055771180025E-2</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="6"/>
-        <v>-0.50715266631558331</v>
+        <v>-0.49584266146192824</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" si="7"/>
-        <v>2.0255613594220769E-2</v>
+        <v>1.5513141911158639E-2</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" si="8"/>
-        <v>-0.19238342031385414</v>
+        <v>-0.20023561123096351</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" si="9"/>
-        <v>6.07668407826623E-3</v>
+        <v>4.6539425733475919E-3</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="10"/>
-        <v>0.18827865569852728</v>
+        <v>0.12639707203549955</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="11"/>
-        <v>1.0127806797110386E-3</v>
+        <v>7.7565709555793203E-4</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="12"/>
-        <v>0.46434591791829499</v>
+        <v>0.37444731543998339</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="13"/>
-        <v>5.0639033985551921E-3</v>
+        <v>3.8782854777896598E-3</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="14"/>
-        <v>0.45602099728086237</v>
-      </c>
-      <c r="T26" s="21">
+        <v>0.37646006517644182</v>
+      </c>
+      <c r="T26" s="14">
         <f t="shared" si="0"/>
-        <v>2.6699090002122276E-3</v>
+        <v>2.0306493348305607E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -3465,11 +3465,11 @@
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>-2.813079899383812</v>
+        <v>-2.9915052603435464</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>5.6621443326762742E-2</v>
+        <v>4.7811117315116593E-2</v>
       </c>
       <c r="I27" s="10">
         <f t="shared" si="4"/>
@@ -3477,47 +3477,47 @@
       </c>
       <c r="J27" s="10">
         <f t="shared" si="5"/>
-        <v>3.4478846113189403E-2</v>
+        <v>2.4813369564832401E-2</v>
       </c>
       <c r="K27" s="10">
         <f t="shared" si="6"/>
-        <v>-0.51060055092690226</v>
+        <v>-0.49832399841841146</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="7"/>
-        <v>2.6615249631233927E-2</v>
+        <v>1.9154180014958347E-2</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="8"/>
-        <v>-0.19504494527697752</v>
+        <v>-0.20215102923245934</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" si="9"/>
-        <v>9.0733805561024738E-3</v>
+        <v>6.5298340960085266E-3</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="10"/>
-        <v>0.18737131764291703</v>
+        <v>0.1257440886258987</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="11"/>
-        <v>2.4195681482939934E-3</v>
+        <v>1.7412890922689406E-3</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="12"/>
-        <v>0.46410396110346558</v>
+        <v>0.37427318653075647</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="13"/>
-        <v>6.0489203707349828E-3</v>
+        <v>4.3532227306723511E-3</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="14"/>
-        <v>0.45541610524378889</v>
-      </c>
-      <c r="T27" s="21">
+        <v>0.37602474290337456</v>
+      </c>
+      <c r="T27" s="14">
         <f t="shared" si="0"/>
-        <v>3.2059878444058052E-3</v>
+        <v>2.2859029389198419E-3</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -3542,11 +3542,11 @@
       </c>
       <c r="G28" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6332778589645174</v>
+        <v>-2.790137272736668</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="3"/>
-        <v>6.7027181777514336E-2</v>
+        <v>5.7859473436971058E-2</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="4"/>
@@ -3554,47 +3554,47 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" si="5"/>
-        <v>4.5268350028301804E-2</v>
+        <v>3.4063431413223572E-2</v>
       </c>
       <c r="K28" s="10">
         <f t="shared" si="6"/>
-        <v>-0.5151273859297324</v>
+        <v>-0.50173034155973384</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="7"/>
-        <v>3.2693808353773522E-2</v>
+        <v>2.4601367131772578E-2</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="8"/>
-        <v>-0.19831432611235486</v>
+        <v>-0.20461116594563661</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="9"/>
-        <v>1.0897936117924509E-2</v>
+        <v>8.2004557105908593E-3</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="10"/>
-        <v>0.18628152403112458</v>
+        <v>0.12492404305483962</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="11"/>
-        <v>3.353211113207541E-3</v>
+        <v>2.5232171417202648E-3</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="12"/>
-        <v>0.46376863999214485</v>
+        <v>0.37402086481658448</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="13"/>
-        <v>8.3830277830188524E-3</v>
+        <v>6.3080428543006613E-3</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="14"/>
-        <v>0.45457780246548701</v>
-      </c>
-      <c r="T28" s="21">
+        <v>0.37539393861794451</v>
+      </c>
+      <c r="T28" s="14">
         <f t="shared" si="0"/>
-        <v>4.4926430970359497E-3</v>
+        <v>3.3477186664035595E-3</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -3619,11 +3619,11 @@
       </c>
       <c r="G29" s="10">
         <f t="shared" si="2"/>
-        <v>-2.4667472815281726</v>
+        <v>-2.6124699644246756</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="3"/>
-        <v>7.8222448486839333E-2</v>
+        <v>6.8340175569244002E-2</v>
       </c>
       <c r="I29" s="10">
         <f t="shared" si="4"/>
@@ -3631,47 +3631,47 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" si="5"/>
-        <v>5.7529302819356511E-2</v>
+        <v>4.4382291359166159E-2</v>
       </c>
       <c r="K29" s="10">
         <f t="shared" si="6"/>
-        <v>-0.52088031621166808</v>
+        <v>-0.50616857069565047</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="7"/>
-        <v>3.9480894091715256E-2</v>
+        <v>3.0458435246486584E-2</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="8"/>
-        <v>-0.20226241552152638</v>
+        <v>-0.20765700947028526</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" si="9"/>
-        <v>1.5792357636686103E-2</v>
+        <v>1.2183374098594633E-2</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="10"/>
-        <v>0.18470228826745597</v>
+        <v>0.12370570564498015</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="11"/>
-        <v>3.3840766364327361E-3</v>
+        <v>2.6107230211274211E-3</v>
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="12"/>
-        <v>0.46343023232850156</v>
+        <v>0.37375979251447172</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="13"/>
-        <v>1.1280255454775788E-2</v>
+        <v>8.7024100704247379E-3</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="14"/>
-        <v>0.45344977692000943</v>
-      </c>
-      <c r="T29" s="21">
+        <v>0.37452369761090204</v>
+      </c>
+      <c r="T29" s="14">
         <f t="shared" si="0"/>
-        <v>6.1187514472762329E-3</v>
+        <v>4.6703795968350949E-3</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -3696,11 +3696,11 @@
       </c>
       <c r="G30" s="10">
         <f t="shared" si="2"/>
-        <v>-2.8311422447150738</v>
+        <v>-2.9773061539905825</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="3"/>
-        <v>5.5664325987858816E-2</v>
+        <v>4.8461700926317478E-2</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="4"/>
@@ -3708,47 +3708,47 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" si="5"/>
-        <v>3.3356859612300511E-2</v>
+        <v>2.5475835192352237E-2</v>
       </c>
       <c r="K30" s="10">
         <f t="shared" si="6"/>
-        <v>-0.5242160021728981</v>
+        <v>-0.5087161542148857</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="7"/>
-        <v>2.223790640820034E-2</v>
+        <v>1.6983890128234824E-2</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="8"/>
-        <v>-0.20448620616234642</v>
+        <v>-0.20935539848310875</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="9"/>
-        <v>9.9485370773527843E-3</v>
+        <v>7.5980561099997903E-3</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="10"/>
-        <v>0.18370743455972069</v>
+        <v>0.12294590003398018</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="11"/>
-        <v>1.7556241901210796E-3</v>
+        <v>1.3408334311764336E-3</v>
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="12"/>
-        <v>0.46325466990948944</v>
+        <v>0.37362570917135407</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="13"/>
-        <v>5.8520806337369318E-3</v>
+        <v>4.4694447705881119E-3</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="14"/>
-        <v>0.45286456885663573</v>
-      </c>
-      <c r="T30" s="21">
+        <v>0.37407675313384325</v>
+      </c>
+      <c r="T30" s="14">
         <f t="shared" si="0"/>
-        <v>3.0985171876826145E-3</v>
+        <v>2.3485364566718401E-3</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -3773,11 +3773,11 @@
       </c>
       <c r="G31" s="10">
         <f t="shared" si="2"/>
-        <v>-2.5831470728296333</v>
+        <v>-2.7194195847955105</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="3"/>
-        <v>7.0230955166850101E-2</v>
+        <v>6.1837131153978403E-2</v>
       </c>
       <c r="I31" s="10">
         <f t="shared" si="4"/>
@@ -3785,47 +3785,47 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" si="5"/>
-        <v>4.6777004250937962E-2</v>
+        <v>3.6591235845888498E-2</v>
       </c>
       <c r="K31" s="10">
         <f t="shared" si="6"/>
-        <v>-0.52889370259799184</v>
+        <v>-0.51237527779947456</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" si="7"/>
-        <v>3.4853454147757694E-2</v>
+        <v>2.7264058081250254E-2</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="8"/>
-        <v>-0.20797155157712219</v>
+        <v>-0.21208180429123377</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="9"/>
-        <v>1.375794242674646E-2</v>
+        <v>1.0762128189967206E-2</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="10"/>
-        <v>0.18233164031704605</v>
+        <v>0.12186968721498345</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="11"/>
-        <v>2.7515884853492917E-3</v>
+        <v>2.1524256379934414E-3</v>
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="12"/>
-        <v>0.46297951106095453</v>
+        <v>0.37341046660755473</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="13"/>
-        <v>9.1719616178309732E-3</v>
+        <v>7.1747521266448044E-3</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="14"/>
-        <v>0.45194737269485263</v>
-      </c>
-      <c r="T31" s="21">
+        <v>0.37335927792117879</v>
+      </c>
+      <c r="T31" s="14">
         <f t="shared" si="0"/>
-        <v>4.9323870636481092E-3</v>
+        <v>3.8238307893543265E-3</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -3850,11 +3850,11 @@
       </c>
       <c r="G32" s="10">
         <f t="shared" si="2"/>
-        <v>-2.7086222059453497</v>
+        <v>-2.8326847951991958</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="3"/>
-        <v>6.2466494138229488E-2</v>
+        <v>5.5583296129653521E-2</v>
       </c>
       <c r="I32" s="10">
         <f t="shared" si="4"/>
@@ -3862,47 +3862,47 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" si="5"/>
-        <v>3.9509798773836716E-2</v>
+        <v>3.1512003038613755E-2</v>
       </c>
       <c r="K32" s="10">
         <f t="shared" si="6"/>
-        <v>-0.53284468247537553</v>
+        <v>-0.51552647810333596</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" si="7"/>
-        <v>2.4876539968712006E-2</v>
+        <v>1.9840890802090141E-2</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" si="8"/>
-        <v>-0.21045920557399339</v>
+        <v>-0.21406589337144277</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="9"/>
-        <v>1.2438269984356003E-2</v>
+        <v>9.9204454010450704E-3</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="10"/>
-        <v>0.18108781331861046</v>
+        <v>0.12087764267487895</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="11"/>
-        <v>1.463325880512471E-3</v>
+        <v>1.1671112236523614E-3</v>
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="12"/>
-        <v>0.46283317847290328</v>
+        <v>0.3732937554851895</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="13"/>
-        <v>7.3166294025623548E-3</v>
+        <v>5.8355561182618062E-3</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="14"/>
-        <v>0.45121570975459641</v>
-      </c>
-      <c r="T32" s="21">
+        <v>0.37277572230935263</v>
+      </c>
+      <c r="T32" s="14">
         <f t="shared" si="0"/>
-        <v>3.902062889921459E-3</v>
+        <v>3.0895028086367561E-3</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3927,11 +3927,11 @@
       </c>
       <c r="G33" s="10">
         <f t="shared" si="2"/>
-        <v>-2.588226240126517</v>
+        <v>-2.7178191552856044</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="3"/>
-        <v>6.9900015927100864E-2</v>
+        <v>6.1930042485002584E-2</v>
       </c>
       <c r="I33" s="10">
         <f t="shared" si="4"/>
@@ -3939,47 +3939,47 @@
       </c>
       <c r="J33" s="10">
         <f t="shared" si="5"/>
-        <v>4.6353694920319585E-2</v>
+        <v>3.6697641623516353E-2</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" si="6"/>
-        <v>-0.53748005196740745</v>
+        <v>-0.51919624226568761</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" si="7"/>
-        <v>3.3629151216702451E-2</v>
+        <v>2.6623779217060887E-2</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" si="8"/>
-        <v>-0.21382212069566364</v>
+        <v>-0.21672827129314887</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="9"/>
-        <v>1.3633439682446938E-2</v>
+        <v>1.0793424006916576E-2</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="10"/>
-        <v>0.17972446935036576</v>
+        <v>0.11979830027418729</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="11"/>
-        <v>3.6355839153191837E-3</v>
+        <v>2.8782464018444203E-3</v>
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="12"/>
-        <v>0.46246962008137138</v>
+        <v>0.37300593084500505</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="13"/>
-        <v>9.0889597882979588E-3</v>
+        <v>7.1956160046110504E-3</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="14"/>
-        <v>0.45030681377576659</v>
-      </c>
-      <c r="T33" s="21">
+        <v>0.37205616070889153</v>
+      </c>
+      <c r="T33" s="14">
         <f t="shared" si="0"/>
-        <v>4.8860122266089542E-3</v>
+        <v>3.8353301621942251E-3</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -4004,11 +4004,11 @@
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>-2.5196426664120564</v>
+        <v>-2.6020688439254189</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="3"/>
-        <v>7.4492579043531681E-2</v>
+        <v>6.9005393444433544E-2</v>
       </c>
       <c r="I34" s="10">
         <f t="shared" si="4"/>
@@ -4016,47 +4016,47 @@
       </c>
       <c r="J34" s="10">
         <f t="shared" si="5"/>
-        <v>4.7249123189606716E-2</v>
+        <v>4.0785056211259892E-2</v>
       </c>
       <c r="K34" s="10">
         <f t="shared" si="6"/>
-        <v>-0.54220496428636811</v>
+        <v>-0.52327474788681361</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" si="7"/>
-        <v>3.6977574670127002E-2</v>
+        <v>3.1918739643594707E-2</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="8"/>
-        <v>-0.21751987816267634</v>
+        <v>-0.21992014525750833</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" si="9"/>
-        <v>1.0271548519479722E-2</v>
+        <v>8.8663165676651952E-3</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="10"/>
-        <v>0.1786973144984178</v>
+        <v>0.11891166861742078</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="11"/>
-        <v>2.0543097038959444E-3</v>
+        <v>1.7732633135330391E-3</v>
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="12"/>
-        <v>0.46226418911098177</v>
+        <v>0.37282860451365174</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="13"/>
-        <v>1.0271548519479722E-2</v>
+        <v>8.8663165676651952E-3</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="14"/>
-        <v>0.4492796589238186</v>
-      </c>
-      <c r="T34" s="21">
+        <v>0.37116952905212502</v>
+      </c>
+      <c r="T34" s="14">
         <f t="shared" si="0"/>
-        <v>5.5491443325568152E-3</v>
+        <v>4.7617443244210717E-3</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -4081,11 +4081,11 @@
       </c>
       <c r="G35" s="10">
         <f t="shared" si="2"/>
-        <v>-2.49886372767069</v>
+        <v>-2.6347040256139609</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="3"/>
-        <v>7.5937877170180287E-2</v>
+        <v>6.6938052156823816E-2</v>
       </c>
       <c r="I35" s="10">
         <f t="shared" si="4"/>
@@ -4093,47 +4093,47 @@
       </c>
       <c r="J35" s="10">
         <f t="shared" si="5"/>
-        <v>5.4352339893169697E-2</v>
+        <v>4.2643887731877932E-2</v>
       </c>
       <c r="K35" s="10">
         <f t="shared" si="6"/>
-        <v>-0.54764019827568511</v>
+        <v>-0.52753913666000141</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="7"/>
-        <v>3.5169161107345102E-2</v>
+        <v>2.7593103826509251E-2</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="8"/>
-        <v>-0.22103679427341086</v>
+        <v>-0.22267945564015926</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="9"/>
-        <v>1.8117446631056567E-2</v>
+        <v>1.4214629243959311E-2</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="10"/>
-        <v>0.17688556983531215</v>
+        <v>0.11749020569302485</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="11"/>
-        <v>5.3286607738401671E-3</v>
+        <v>4.1807733070468563E-3</v>
       </c>
       <c r="Q35" s="8">
         <f t="shared" si="12"/>
-        <v>0.46173132303359776</v>
+        <v>0.37241052718294704</v>
       </c>
       <c r="R35" s="8">
         <f t="shared" si="13"/>
-        <v>1.0657321547680334E-2</v>
+        <v>8.3615466140937126E-3</v>
       </c>
       <c r="S35" s="8">
         <f t="shared" si="14"/>
-        <v>0.44821392676905059</v>
-      </c>
-      <c r="T35" s="21">
+        <v>0.37033337439071567</v>
+      </c>
+      <c r="T35" s="14">
         <f t="shared" si="0"/>
-        <v>5.7665611891133889E-3</v>
+        <v>4.4807028265496651E-3</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -4158,11 +4158,11 @@
       </c>
       <c r="G36" s="10">
         <f t="shared" si="2"/>
-        <v>-2.5035552781900225</v>
+        <v>-2.6212511345004956</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="3"/>
-        <v>7.5609319171388245E-2</v>
+        <v>6.778319506947561E-2</v>
       </c>
       <c r="I36" s="10">
         <f t="shared" si="4"/>
@@ -4170,47 +4170,47 @@
       </c>
       <c r="J36" s="10">
         <f t="shared" si="5"/>
-        <v>5.0731469977008031E-2</v>
+        <v>4.1118023741956861E-2</v>
       </c>
       <c r="K36" s="10">
         <f t="shared" si="6"/>
-        <v>-0.55271334527338589</v>
+        <v>-0.53165093903419713</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="7"/>
-        <v>3.5934791233714021E-2</v>
+        <v>2.9125266817219445E-2</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="8"/>
-        <v>-0.22463027339678227</v>
+        <v>-0.22559198232188121</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="9"/>
-        <v>2.0081206865899013E-2</v>
+        <v>1.6275884397857925E-2</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="10"/>
-        <v>0.17487744914872225</v>
+        <v>0.11586261725323906</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="11"/>
-        <v>2.1138112490420016E-3</v>
+        <v>1.7132509892482028E-3</v>
       </c>
       <c r="Q36" s="8">
         <f t="shared" si="12"/>
-        <v>0.46151994190869355</v>
+        <v>0.37223920208402222</v>
       </c>
       <c r="R36" s="8">
         <f t="shared" si="13"/>
-        <v>1.0569056245210007E-2</v>
+        <v>8.5662549462410132E-3</v>
       </c>
       <c r="S36" s="8">
         <f t="shared" si="14"/>
-        <v>0.4471570211445296</v>
-      </c>
-      <c r="T36" s="21">
+        <v>0.36947674889609156</v>
+      </c>
+      <c r="T36" s="14">
         <f t="shared" si="0"/>
-        <v>5.7167691455608577E-3</v>
+        <v>4.5945615338265824E-3</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -4235,11 +4235,11 @@
       </c>
       <c r="G37" s="10">
         <f t="shared" si="2"/>
-        <v>-2.618192618393052</v>
+        <v>-2.7057258652185507</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="3"/>
-        <v>6.7976714191135476E-2</v>
+        <v>6.2636331791195432E-2</v>
       </c>
       <c r="I37" s="10">
         <f t="shared" si="4"/>
@@ -4247,47 +4247,47 @@
       </c>
       <c r="J37" s="10">
         <f t="shared" si="5"/>
-        <v>4.3067245823618192E-2</v>
+        <v>3.6775683096027446E-2</v>
       </c>
       <c r="K37" s="10">
         <f t="shared" si="6"/>
-        <v>-0.5570200698557477</v>
+        <v>-0.53532850734379989</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="7"/>
-        <v>2.5840347494170912E-2</v>
+        <v>2.2065409857616465E-2</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="8"/>
-        <v>-0.22721430814619936</v>
+        <v>-0.22779852330764286</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="9"/>
-        <v>1.3781518663557821E-2</v>
+        <v>1.1768218590728782E-2</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="10"/>
-        <v>0.17349929728236646</v>
+        <v>0.11468579539416618</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="11"/>
-        <v>1.7226898329447276E-3</v>
+        <v>1.4710273238410978E-3</v>
       </c>
       <c r="Q37" s="8">
         <f t="shared" si="12"/>
-        <v>0.46134767292539908</v>
+        <v>0.37209209935163812</v>
       </c>
       <c r="R37" s="8">
         <f t="shared" si="13"/>
-        <v>8.613449164723638E-3</v>
+        <v>7.3551366192054889E-3</v>
       </c>
       <c r="S37" s="8">
         <f t="shared" si="14"/>
-        <v>0.44629567622805721</v>
-      </c>
-      <c r="T37" s="21">
+        <v>0.36874123523417102</v>
+      </c>
+      <c r="T37" s="14">
         <f t="shared" si="0"/>
-        <v>4.6208336722233191E-3</v>
+        <v>3.9233100602567199E-3</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="G38" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6491953759258124</v>
+        <v>-2.7500821683594925</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="3"/>
-        <v>6.6038621094177227E-2</v>
+        <v>6.008201140731885E-2</v>
       </c>
       <c r="I38" s="10">
         <f t="shared" si="4"/>
@@ -4324,47 +4324,47 @@
       </c>
       <c r="J38" s="10">
         <f t="shared" si="5"/>
-        <v>4.073098480169389E-2</v>
+        <v>3.3929611603417828E-2</v>
       </c>
       <c r="K38" s="10">
         <f t="shared" si="6"/>
-        <v>-0.56109316833591705</v>
+        <v>-0.53872146850414171</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="7"/>
-        <v>2.7697069665151848E-2</v>
+        <v>2.3072135890324124E-2</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="8"/>
-        <v>-0.22998401511271455</v>
+        <v>-0.23010573689667527</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" si="9"/>
-        <v>1.3033915136542047E-2</v>
+        <v>1.0857475713093707E-2</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" si="10"/>
-        <v>0.17219590576871224</v>
+        <v>0.11360004782285681</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" si="11"/>
-        <v>3.2584787841355117E-3</v>
+        <v>2.7143689282734269E-3</v>
       </c>
       <c r="Q38" s="8">
         <f t="shared" si="12"/>
-        <v>0.46102182504698552</v>
+        <v>0.37182066245881079</v>
       </c>
       <c r="R38" s="8">
         <f t="shared" si="13"/>
-        <v>8.1461969603387786E-3</v>
+        <v>6.7859223206835663E-3</v>
       </c>
       <c r="S38" s="8">
         <f t="shared" si="14"/>
-        <v>0.44548105653202336</v>
-      </c>
-      <c r="T38" s="21">
+        <v>0.36806264300210267</v>
+      </c>
+      <c r="T38" s="14">
         <f t="shared" si="0"/>
-        <v>4.3610994760203093E-3</v>
+        <v>3.6098480947491926E-3</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -4389,11 +4389,11 @@
       </c>
       <c r="G39" s="10">
         <f t="shared" si="2"/>
-        <v>-2.9266492480467807</v>
+        <v>-2.9938948681317505</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="3"/>
-        <v>5.0851810294957639E-2</v>
+        <v>4.7702447384868139E-2</v>
       </c>
       <c r="I39" s="10">
         <f t="shared" si="4"/>
@@ -4401,47 +4401,47 @@
       </c>
       <c r="J39" s="10">
         <f t="shared" si="5"/>
-        <v>2.5525849210037397E-2</v>
+        <v>2.2536544650027444E-2</v>
       </c>
       <c r="K39" s="10">
         <f t="shared" si="6"/>
-        <v>-0.56364575325692079</v>
+        <v>-0.54097512296914441</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="7"/>
-        <v>1.7180860045217478E-2</v>
+        <v>1.5168828129826164E-2</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="8"/>
-        <v>-0.2317021011172363</v>
+        <v>-0.23162261970965789</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" si="9"/>
-        <v>7.3632257336646335E-3</v>
+        <v>6.5009263413540706E-3</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="10"/>
-        <v>0.17145958319534577</v>
+        <v>0.1129499551887214</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="11"/>
-        <v>9.8176343115528452E-4</v>
+        <v>8.6679017884720938E-4</v>
       </c>
       <c r="Q39" s="8">
         <f t="shared" si="12"/>
-        <v>0.46092364870386998</v>
+        <v>0.37173398344092606</v>
       </c>
       <c r="R39" s="8">
         <f t="shared" si="13"/>
-        <v>4.9088171557764224E-3</v>
+        <v>4.3339508942360468E-3</v>
       </c>
       <c r="S39" s="8">
         <f t="shared" si="14"/>
-        <v>0.4449901748164457</v>
-      </c>
-      <c r="T39" s="21">
+        <v>0.36762924791267909</v>
+      </c>
+      <c r="T39" s="14">
         <f t="shared" si="0"/>
-        <v>2.5859066102743599E-3</v>
+        <v>2.2755234865061134E-3</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -4466,11 +4466,11 @@
       </c>
       <c r="G40" s="10">
         <f t="shared" si="2"/>
-        <v>-2.941526739703888</v>
+        <v>-3.0004815645873135</v>
       </c>
       <c r="H40" s="10">
         <f t="shared" si="3"/>
-        <v>5.0138514265336137E-2</v>
+        <v>4.7404123857463572E-2</v>
       </c>
       <c r="I40" s="10">
         <f t="shared" si="4"/>
@@ -4478,47 +4478,47 @@
       </c>
       <c r="J40" s="10">
         <f t="shared" si="5"/>
-        <v>2.4833420301637755E-2</v>
+        <v>2.2262518057742667E-2</v>
       </c>
       <c r="K40" s="10">
         <f t="shared" si="6"/>
-        <v>-0.56612909528708455</v>
+        <v>-0.5432013747749187</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" si="7"/>
-        <v>1.6237236351070838E-2</v>
+        <v>1.4556261806985589E-2</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="8"/>
-        <v>-0.23332582475234337</v>
+        <v>-0.23307824589035644</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="9"/>
-        <v>6.6859208504409335E-3</v>
+        <v>5.993754861699948E-3</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="10"/>
-        <v>0.17079099111030166</v>
+        <v>0.11235057970255141</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="11"/>
-        <v>9.551315500629905E-4</v>
+        <v>8.5625069452856413E-4</v>
       </c>
       <c r="Q40" s="8">
         <f t="shared" si="12"/>
-        <v>0.4608281355488637</v>
+        <v>0.3716483583714732</v>
       </c>
       <c r="R40" s="8">
         <f t="shared" si="13"/>
-        <v>4.7756577503149525E-3</v>
+        <v>4.2812534726428203E-3</v>
       </c>
       <c r="S40" s="8">
         <f t="shared" si="14"/>
-        <v>0.44451260904141421</v>
-      </c>
-      <c r="T40" s="21">
+        <v>0.36720112256541482</v>
+      </c>
+      <c r="T40" s="14">
         <f t="shared" si="0"/>
-        <v>2.5138706127353153E-3</v>
+        <v>2.2471509586937471E-3</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="G41" s="10">
         <f t="shared" si="2"/>
-        <v>-2.597505565129127</v>
+        <v>-2.677605126527467</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="3"/>
-        <v>6.929913232397647E-2</v>
+        <v>6.4307832943430968E-2</v>
       </c>
       <c r="I41" s="10">
         <f t="shared" si="4"/>
@@ -4555,47 +4555,47 @@
       </c>
       <c r="J41" s="10">
         <f t="shared" si="5"/>
-        <v>4.2013955036328141E-2</v>
+        <v>3.6373793531635765E-2</v>
       </c>
       <c r="K41" s="10">
         <f t="shared" si="6"/>
-        <v>-0.5703304907907174</v>
+        <v>-0.54683875412808225</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="7"/>
-        <v>2.8605245982180862E-2</v>
+        <v>2.4765136021539243E-2</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="8"/>
-        <v>-0.23618634935056146</v>
+        <v>-0.23555475949251037</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="9"/>
-        <v>1.4302622991090431E-2</v>
+        <v>1.2382568010769621E-2</v>
       </c>
       <c r="O41" s="8">
         <f t="shared" si="10"/>
-        <v>0.16936072881119263</v>
+        <v>0.11111232290147445</v>
       </c>
       <c r="P41" s="8">
         <f t="shared" si="11"/>
-        <v>1.7878278738863039E-3</v>
+        <v>1.5478210013462027E-3</v>
       </c>
       <c r="Q41" s="8">
         <f t="shared" si="12"/>
-        <v>0.46064935276147506</v>
+        <v>0.37149357627133855</v>
       </c>
       <c r="R41" s="8">
         <f t="shared" si="13"/>
-        <v>8.9391393694315188E-3</v>
+        <v>7.7391050067310129E-3</v>
       </c>
       <c r="S41" s="8">
         <f t="shared" si="14"/>
-        <v>0.44361869510447105</v>
-      </c>
-      <c r="T41" s="21">
+        <v>0.36642721206474171</v>
+      </c>
+      <c r="T41" s="14">
         <f t="shared" si="0"/>
-        <v>4.8023697408560006E-3</v>
+        <v>4.1354973778802255E-3</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -4620,11 +4620,11 @@
       </c>
       <c r="G42" s="10">
         <f t="shared" si="2"/>
-        <v>-2.6630383070275099</v>
+        <v>-2.736540130280209</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="3"/>
-        <v>6.5189935281445038E-2</v>
+        <v>6.0851330962040963E-2</v>
       </c>
       <c r="I42" s="10">
         <f t="shared" si="4"/>
@@ -4632,47 +4632,47 @@
       </c>
       <c r="J42" s="10">
         <f t="shared" si="5"/>
-        <v>3.8137806631195315E-2</v>
+        <v>3.3384566696200081E-2</v>
       </c>
       <c r="K42" s="10">
         <f t="shared" si="6"/>
-        <v>-0.57414427145383695</v>
+        <v>-0.55017721079770221</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" si="7"/>
-        <v>2.4630666782646974E-2</v>
+        <v>2.1560865991295888E-2</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" si="8"/>
-        <v>-0.23864941602882617</v>
+        <v>-0.23771084609163995</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" si="9"/>
-        <v>1.2712602210398438E-2</v>
+        <v>1.1128188898733363E-2</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" si="10"/>
-        <v>0.16808946859015278</v>
+        <v>0.10999950401160111</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="11"/>
-        <v>1.5890752762998048E-3</v>
+        <v>1.3910236123416703E-3</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" si="12"/>
-        <v>0.46049044523384508</v>
+        <v>0.3713544739101044</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" si="13"/>
-        <v>7.9453763814990239E-3</v>
+        <v>6.9551180617083508E-3</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" si="14"/>
-        <v>0.44282415746632114</v>
-      </c>
-      <c r="T42" s="21">
+        <v>0.36573170025857088</v>
+      </c>
+      <c r="T42" s="14">
         <f t="shared" si="0"/>
-        <v>4.249727661998993E-3</v>
+        <v>3.7028844798518449E-3</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -4697,11 +4697,11 @@
       </c>
       <c r="G43" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0326325419036402</v>
+        <v>-3.0999010691791531</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>4.5973227856699765E-2</v>
+        <v>4.3111337263739433E-2</v>
       </c>
       <c r="I43" s="10">
         <f t="shared" si="4"/>
@@ -4709,47 +4709,47 @@
       </c>
       <c r="J43" s="10">
         <f t="shared" si="5"/>
-        <v>2.1776812526567348E-2</v>
+        <v>1.9207381093958427E-2</v>
       </c>
       <c r="K43" s="10">
         <f t="shared" si="6"/>
-        <v>-0.57632195270649367</v>
+        <v>-0.55209794890709807</v>
       </c>
       <c r="L43" s="8">
         <f t="shared" si="7"/>
-        <v>1.3711326405616477E-2</v>
+        <v>1.2093536244344193E-2</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24002054866938782</v>
+        <v>-0.23892019971607437</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="9"/>
-        <v>6.0491145907131515E-3</v>
+        <v>5.3353836372106739E-3</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="10"/>
-        <v>0.16748455713108146</v>
+        <v>0.10946596564788004</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="11"/>
-        <v>1.613097224190174E-3</v>
+        <v>1.4227689699228465E-3</v>
       </c>
       <c r="Q43" s="8">
         <f t="shared" si="12"/>
-        <v>0.46032913551142607</v>
+        <v>0.37121219701311209</v>
       </c>
       <c r="R43" s="8">
         <f t="shared" si="13"/>
-        <v>4.0327430604754346E-3</v>
+        <v>3.5569224248071158E-3</v>
       </c>
       <c r="S43" s="8">
         <f t="shared" si="14"/>
-        <v>0.44242088316027361</v>
-      </c>
-      <c r="T43" s="21">
+        <v>0.36537600801609016</v>
+      </c>
+      <c r="T43" s="14">
         <f t="shared" si="0"/>
-        <v>2.1135376795640352E-3</v>
+        <v>1.8585874006678883E-3</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -4774,11 +4774,11 @@
       </c>
       <c r="G44" s="10">
         <f t="shared" si="2"/>
-        <v>-3.241277771210219</v>
+        <v>-3.2837859769635935</v>
       </c>
       <c r="H44" s="10">
         <f t="shared" si="3"/>
-        <v>3.7641577518821696E-2</v>
+        <v>3.6131634807932314E-2</v>
       </c>
       <c r="I44" s="10">
         <f t="shared" si="4"/>
@@ -4786,47 +4786,47 @@
       </c>
       <c r="J44" s="10">
         <f t="shared" si="5"/>
-        <v>1.418096622943853E-2</v>
+        <v>1.3086583786489891E-2</v>
       </c>
       <c r="K44" s="10">
         <f t="shared" si="6"/>
-        <v>-0.57774004932943757</v>
+        <v>-0.55340660728574709</v>
       </c>
       <c r="L44" s="8">
         <f t="shared" si="7"/>
-        <v>1.1181146450134224E-2</v>
+        <v>1.0318267985501643E-2</v>
       </c>
       <c r="M44" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24113866331440126</v>
+        <v>-0.23995202651462452</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="9"/>
-        <v>4.090663335414961E-3</v>
+        <v>3.774976092256699E-3</v>
       </c>
       <c r="O44" s="8">
         <f t="shared" si="10"/>
-        <v>0.16707549079753997</v>
+        <v>0.10908846803865437</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="11"/>
-        <v>2.7271088902766405E-4</v>
+        <v>2.5166507281711327E-4</v>
       </c>
       <c r="Q44" s="8">
         <f t="shared" si="12"/>
-        <v>0.4603018644225233</v>
+        <v>0.37118703050583035</v>
       </c>
       <c r="R44" s="8">
         <f t="shared" si="13"/>
-        <v>2.7271088902766404E-3</v>
+        <v>2.5166507281711328E-3</v>
       </c>
       <c r="S44" s="8">
         <f t="shared" si="14"/>
-        <v>0.44214817227124598</v>
-      </c>
-      <c r="T44" s="21">
+        <v>0.36512434294327306</v>
+      </c>
+      <c r="T44" s="14">
         <f t="shared" si="0"/>
-        <v>1.4168883581054629E-3</v>
+        <v>1.305495033893786E-3</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -4851,11 +4851,11 @@
       </c>
       <c r="G45" s="10">
         <f t="shared" si="2"/>
-        <v>-3.422238424960085</v>
+        <v>-3.4594492471344767</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" si="3"/>
-        <v>3.160764254287924E-2</v>
+        <v>3.048830970444694E-2</v>
       </c>
       <c r="I45" s="10">
         <f t="shared" si="4"/>
@@ -4863,47 +4863,47 @@
       </c>
       <c r="J45" s="10">
         <f t="shared" si="5"/>
-        <v>1.0642122380648093E-2</v>
+        <v>9.9131671740587245E-3</v>
       </c>
       <c r="K45" s="10">
         <f t="shared" si="6"/>
-        <v>-0.57880426156750242</v>
+        <v>-0.55439792400315291</v>
       </c>
       <c r="L45" s="8">
         <f t="shared" si="7"/>
-        <v>8.1267116361312727E-3</v>
+        <v>7.5700549329175719E-3</v>
       </c>
       <c r="M45" s="8">
         <f t="shared" si="8"/>
-        <v>-0.2419513344780144</v>
+        <v>-0.24070903200791627</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="9"/>
-        <v>2.7089038787104238E-3</v>
+        <v>2.523351644305857E-3</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="10"/>
-        <v>0.16680460040966893</v>
+        <v>0.10883613287422378</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="11"/>
-        <v>3.8698626838720344E-4</v>
+        <v>3.604788063294082E-4</v>
       </c>
       <c r="Q45" s="8">
         <f t="shared" si="12"/>
-        <v>0.4602631657956846</v>
+        <v>0.37115098262519741</v>
       </c>
       <c r="R45" s="8">
         <f t="shared" si="13"/>
-        <v>1.934931341936017E-3</v>
+        <v>1.8023940316470408E-3</v>
       </c>
       <c r="S45" s="8">
         <f t="shared" si="14"/>
-        <v>0.44195467913705239</v>
-      </c>
-      <c r="T45" s="21">
+        <v>0.36494410354010837</v>
+      </c>
+      <c r="T45" s="14">
         <f t="shared" si="0"/>
-        <v>9.9904306711842954E-4</v>
+        <v>9.2953702863427347E-4</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -4928,11 +4928,11 @@
       </c>
       <c r="G46" s="10">
         <f t="shared" si="2"/>
-        <v>-2.8480021222314829</v>
+        <v>-2.8974344257260261</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
-        <v>5.4784683529113594E-2</v>
+        <v>5.2280535892423353E-2</v>
       </c>
       <c r="I46" s="10">
         <f t="shared" si="4"/>
@@ -4940,47 +4940,47 @@
       </c>
       <c r="J46" s="10">
         <f t="shared" si="5"/>
-        <v>2.780194248610704E-2</v>
+        <v>2.5385512581669632E-2</v>
       </c>
       <c r="K46" s="10">
         <f t="shared" si="6"/>
-        <v>-0.58158445581611318</v>
+        <v>-0.55693647526131984</v>
       </c>
       <c r="L46" s="8">
         <f t="shared" si="7"/>
-        <v>1.758898402182282E-2</v>
+        <v>1.6060222245546093E-2</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24371023288019666</v>
+        <v>-0.24231505423247088</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="9"/>
-        <v>8.5107987202368476E-3</v>
+        <v>7.7710752801029483E-3</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="10"/>
-        <v>0.16595352053764525</v>
+        <v>0.10805902534621348</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="11"/>
-        <v>5.6738658134912327E-4</v>
+        <v>5.1807168534019653E-4</v>
       </c>
       <c r="Q46" s="8">
         <f t="shared" si="12"/>
-        <v>0.46020642713754967</v>
+        <v>0.37109917545666338</v>
       </c>
       <c r="R46" s="8">
         <f t="shared" si="13"/>
-        <v>5.673865813491232E-3</v>
+        <v>5.1807168534019656E-3</v>
       </c>
       <c r="S46" s="8">
         <f t="shared" si="14"/>
-        <v>0.44138729255570325</v>
-      </c>
-      <c r="T46" s="21">
+        <v>0.36442603185476818</v>
+      </c>
+      <c r="T46" s="14">
         <f t="shared" si="0"/>
-        <v>3.0013615493851304E-3</v>
+        <v>2.7332544331989663E-3</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -5005,11 +5005,11 @@
       </c>
       <c r="G47" s="10">
         <f t="shared" si="2"/>
-        <v>-2.9552222216688073</v>
+        <v>-2.991773852488949</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="3"/>
-        <v>4.9490275798646954E-2</v>
+        <v>4.7798891085248069E-2</v>
       </c>
       <c r="I47" s="10">
         <f t="shared" si="4"/>
@@ -5017,47 +5017,47 @@
       </c>
       <c r="J47" s="10">
         <f t="shared" si="5"/>
-        <v>2.328071489757982E-2</v>
+        <v>2.1755262378814162E-2</v>
       </c>
       <c r="K47" s="10">
         <f t="shared" si="6"/>
-        <v>-0.58391252730587118</v>
+        <v>-0.55911200149920126</v>
       </c>
       <c r="L47" s="8">
         <f t="shared" si="7"/>
-        <v>1.4899657534451086E-2</v>
+        <v>1.3923367922441063E-2</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24520019863364179</v>
+        <v>-0.24370739102471498</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="9"/>
-        <v>5.5873715754191566E-3</v>
+        <v>5.2212629709153984E-3</v>
       </c>
       <c r="O47" s="8">
         <f t="shared" si="10"/>
-        <v>0.16539478338010333</v>
+        <v>0.10753689904912193</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="11"/>
-        <v>9.3122859590319287E-4</v>
+        <v>8.7021049515256647E-4</v>
       </c>
       <c r="Q47" s="8">
         <f t="shared" si="12"/>
-        <v>0.46011330427795932</v>
+        <v>0.37101215440714813</v>
       </c>
       <c r="R47" s="8">
         <f t="shared" si="13"/>
-        <v>4.6561429795159643E-3</v>
+        <v>4.3510524757628321E-3</v>
       </c>
       <c r="S47" s="8">
         <f t="shared" si="14"/>
-        <v>0.44092167825775164</v>
-      </c>
-      <c r="T47" s="21">
+        <v>0.3639909266071919</v>
+      </c>
+      <c r="T47" s="14">
         <f t="shared" si="0"/>
-        <v>2.4492873986261404E-3</v>
+        <v>2.2847339889794072E-3</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -5082,11 +5082,11 @@
       </c>
       <c r="G48" s="10">
         <f t="shared" si="2"/>
-        <v>-3.3217620378925599</v>
+        <v>-3.3501005505796293</v>
       </c>
       <c r="H48" s="10">
         <f t="shared" si="3"/>
-        <v>3.4832123442922143E-2</v>
+        <v>3.389187280428585E-2</v>
       </c>
       <c r="I48" s="10">
         <f t="shared" si="4"/>
@@ -5094,47 +5094,47 @@
       </c>
       <c r="J48" s="10">
         <f t="shared" si="5"/>
-        <v>1.2881173970003693E-2</v>
+        <v>1.220701719631646E-2</v>
       </c>
       <c r="K48" s="10">
         <f t="shared" si="6"/>
-        <v>-0.58520064470287159</v>
+        <v>-0.56033270321883288</v>
       </c>
       <c r="L48" s="8">
         <f t="shared" si="7"/>
-        <v>8.1971107081841681E-3</v>
+        <v>7.7681018522013836E-3</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24601990970446019</v>
+        <v>-0.24448420120993511</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="9"/>
-        <v>3.0446411201826913E-3</v>
+        <v>2.8852949736747997E-3</v>
       </c>
       <c r="O48" s="8">
         <f t="shared" si="10"/>
-        <v>0.16509031926808507</v>
+        <v>0.10724836955175446</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="11"/>
-        <v>4.6840632618195253E-4</v>
+        <v>4.4389153441150769E-4</v>
       </c>
       <c r="Q48" s="8">
         <f t="shared" si="12"/>
-        <v>0.46006646364534115</v>
+        <v>0.370967765253707</v>
       </c>
       <c r="R48" s="8">
         <f t="shared" si="13"/>
-        <v>2.3420316309097624E-3</v>
+        <v>2.2194576720575383E-3</v>
       </c>
       <c r="S48" s="8">
         <f t="shared" si="14"/>
-        <v>0.44068747509466066</v>
-      </c>
-      <c r="T48" s="21">
+        <v>0.36376898083998616</v>
+      </c>
+      <c r="T48" s="14">
         <f t="shared" si="0"/>
-        <v>1.2132768235429664E-3</v>
+        <v>1.1486590421818908E-3</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -5159,11 +5159,11 @@
       </c>
       <c r="G49" s="10">
         <f t="shared" si="2"/>
-        <v>-2.895815278766575</v>
+        <v>-2.9417929578300916</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>5.2360818402854503E-2</v>
+        <v>5.0125837240366178E-2</v>
       </c>
       <c r="I49" s="10">
         <f t="shared" si="4"/>
@@ -5171,47 +5171,47 @@
       </c>
       <c r="J49" s="10">
         <f t="shared" si="5"/>
-        <v>2.5461379885637306E-2</v>
+        <v>2.3389203344506282E-2</v>
       </c>
       <c r="K49" s="10">
         <f t="shared" si="6"/>
-        <v>-0.58774678269143532</v>
+        <v>-0.56267162355328348</v>
       </c>
       <c r="L49" s="8">
         <f t="shared" si="7"/>
-        <v>1.610821992764809E-2</v>
+        <v>1.4797251095503974E-2</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24763073169722499</v>
+        <v>-0.24596392631948549</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="9"/>
-        <v>7.7942999649910118E-3</v>
+        <v>7.1599602075019218E-3</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="10"/>
-        <v>0.16431088927158596</v>
+        <v>0.10653237353100427</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="11"/>
-        <v>5.1961999766606752E-4</v>
+        <v>4.7733068050012818E-4</v>
       </c>
       <c r="Q49" s="8">
         <f t="shared" si="12"/>
-        <v>0.46001450164557456</v>
+        <v>0.370920032185657</v>
       </c>
       <c r="R49" s="8">
         <f t="shared" si="13"/>
-        <v>5.1961999766606745E-3</v>
+        <v>4.7733068050012815E-3</v>
       </c>
       <c r="S49" s="8">
         <f t="shared" si="14"/>
-        <v>0.44016785509699458</v>
-      </c>
-      <c r="T49" s="21">
+        <v>0.363291650159486</v>
+      </c>
+      <c r="T49" s="14">
         <f t="shared" si="0"/>
-        <v>2.741655303816707E-3</v>
+        <v>2.5125995590476809E-3</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -5236,11 +5236,11 @@
       </c>
       <c r="G50" s="10">
         <f t="shared" si="2"/>
-        <v>-2.5832031274548193</v>
+        <v>-2.6376791804059811</v>
       </c>
       <c r="H50" s="10">
         <f t="shared" si="3"/>
-        <v>7.0227294968305334E-2</v>
+        <v>6.6752471120992612E-2</v>
       </c>
       <c r="I50" s="10">
         <f t="shared" si="4"/>
@@ -5248,47 +5248,47 @@
       </c>
       <c r="J50" s="10">
         <f t="shared" si="5"/>
-        <v>4.0352583581710268E-2</v>
+        <v>3.6594365033239554E-2</v>
       </c>
       <c r="K50" s="10">
         <f t="shared" si="6"/>
-        <v>-0.5917820410496063</v>
+        <v>-0.56633106005660749</v>
       </c>
       <c r="L50" s="8">
         <f t="shared" si="7"/>
-        <v>2.751312516934791E-2</v>
+        <v>2.4950703431754241E-2</v>
       </c>
       <c r="M50" s="8">
         <f t="shared" si="8"/>
-        <v>-0.25038204421415977</v>
+        <v>-0.24845899666266091</v>
       </c>
       <c r="N50" s="8">
         <f t="shared" si="9"/>
-        <v>1.192235424005076E-2</v>
+        <v>1.0811971487093505E-2</v>
       </c>
       <c r="O50" s="8">
         <f t="shared" si="10"/>
-        <v>0.1631186538475809</v>
+        <v>0.10545117638229491</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="11"/>
-        <v>1.8342083446231941E-3</v>
+        <v>1.6633802287836161E-3</v>
       </c>
       <c r="Q50" s="8">
         <f t="shared" si="12"/>
-        <v>0.45983108081111224</v>
+        <v>0.37075369416277865</v>
       </c>
       <c r="R50" s="8">
         <f t="shared" si="13"/>
-        <v>9.1710417231159694E-3</v>
+        <v>8.3169011439180804E-3</v>
       </c>
       <c r="S50" s="8">
         <f t="shared" si="14"/>
-        <v>0.43925075092468296</v>
-      </c>
-      <c r="T50" s="21">
+        <v>0.36245996004509418</v>
+      </c>
+      <c r="T50" s="14">
         <f t="shared" si="0"/>
-        <v>4.9318729585653637E-3</v>
+        <v>4.4558924007589524E-3</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -5313,11 +5313,11 @@
       </c>
       <c r="G51" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0934924118228584</v>
+        <v>-3.1382615314906532</v>
       </c>
       <c r="H51" s="10">
         <f t="shared" si="3"/>
-        <v>4.3376487463502283E-2</v>
+        <v>4.1556307573904328E-2</v>
       </c>
       <c r="I51" s="10">
         <f t="shared" si="4"/>
@@ -5325,47 +5325,47 @@
       </c>
       <c r="J51" s="10">
         <f t="shared" si="5"/>
-        <v>1.835904069534908E-2</v>
+        <v>1.6882652421505211E-2</v>
       </c>
       <c r="K51" s="10">
         <f t="shared" si="6"/>
-        <v>-0.59361794511914123</v>
+        <v>-0.56801932529875798</v>
       </c>
       <c r="L51" s="8">
         <f t="shared" si="7"/>
-        <v>1.2239360463566055E-2</v>
+        <v>1.1255101614336807E-2</v>
       </c>
       <c r="M51" s="8">
         <f t="shared" si="8"/>
-        <v>-0.25160598026051639</v>
+        <v>-0.24958450682409458</v>
       </c>
       <c r="N51" s="8">
         <f t="shared" si="9"/>
-        <v>5.3997178515732599E-3</v>
+        <v>4.9654860063250619E-3</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="10"/>
-        <v>0.16257868206242357</v>
+        <v>0.10495462778166241</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="11"/>
-        <v>7.1996238020976796E-4</v>
+        <v>6.620648008433417E-4</v>
       </c>
       <c r="Q51" s="8">
         <f t="shared" si="12"/>
-        <v>0.45975908457309128</v>
+        <v>0.37068748768269433</v>
       </c>
       <c r="R51" s="8">
         <f t="shared" si="13"/>
-        <v>3.5998119010488398E-3</v>
+        <v>3.3103240042167081E-3</v>
       </c>
       <c r="S51" s="8">
         <f t="shared" si="14"/>
-        <v>0.43889076973457808</v>
-      </c>
-      <c r="T51" s="21">
+        <v>0.36212892764467253</v>
+      </c>
+      <c r="T51" s="14">
         <f t="shared" si="0"/>
-        <v>1.8815196646713708E-3</v>
+        <v>1.7269266991769381E-3</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -5390,11 +5390,11 @@
       </c>
       <c r="G52" s="10">
         <f t="shared" si="2"/>
-        <v>-3.0605398747198578</v>
+        <v>-3.103866210312479</v>
       </c>
       <c r="H52" s="10">
         <f t="shared" si="3"/>
-        <v>4.4764613302083429E-2</v>
+        <v>4.2948060301150719E-2</v>
       </c>
       <c r="I52" s="10">
         <f t="shared" si="4"/>
@@ -5402,47 +5402,47 @@
       </c>
       <c r="J52" s="10">
         <f t="shared" si="5"/>
-        <v>1.9141681113857844E-2</v>
+        <v>1.7653166452734459E-2</v>
       </c>
       <c r="K52" s="10">
         <f t="shared" si="6"/>
-        <v>-0.59553211323052702</v>
+        <v>-0.56978464194403144</v>
       </c>
       <c r="L52" s="8">
         <f t="shared" si="7"/>
-        <v>1.339917677970049E-2</v>
+        <v>1.2357216516914122E-2</v>
       </c>
       <c r="M52" s="8">
         <f t="shared" si="8"/>
-        <v>-0.25294589793848643</v>
+        <v>-0.250820228475786</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="9"/>
-        <v>4.9768370896030398E-3</v>
+        <v>4.5898232777109591E-3</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="10"/>
-        <v>0.16208099835346326</v>
+        <v>0.10449564545389131</v>
       </c>
       <c r="P52" s="8">
         <f t="shared" si="11"/>
-        <v>1.1485008668314705E-3</v>
+        <v>1.0591899871640674E-3</v>
       </c>
       <c r="Q52" s="8">
         <f t="shared" si="12"/>
-        <v>0.45964423448640812</v>
+        <v>0.3705815686839779</v>
       </c>
       <c r="R52" s="8">
         <f t="shared" si="13"/>
-        <v>3.8283362227715689E-3</v>
+        <v>3.5306332905468917E-3</v>
       </c>
       <c r="S52" s="8">
         <f t="shared" si="14"/>
-        <v>0.43850793611230093</v>
-      </c>
-      <c r="T52" s="21">
+        <v>0.36177586431561781</v>
+      </c>
+      <c r="T52" s="14">
         <f t="shared" si="0"/>
-        <v>2.0038706040850646E-3</v>
+        <v>1.8445358836312784E-3</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -5467,11 +5467,11 @@
       </c>
       <c r="G53" s="10">
         <f t="shared" si="2"/>
-        <v>-2.4745635704781641</v>
+        <v>-2.5321227402315793</v>
       </c>
       <c r="H53" s="10">
         <f t="shared" si="3"/>
-        <v>7.7660719892602925E-2</v>
+        <v>7.3636715951024584E-2</v>
       </c>
       <c r="I53" s="10">
         <f t="shared" si="4"/>
@@ -5479,47 +5479,47 @@
       </c>
       <c r="J53" s="10">
         <f t="shared" si="5"/>
-        <v>5.0065209520564084E-2</v>
+        <v>4.5207726442526824E-2</v>
       </c>
       <c r="K53" s="10">
         <f t="shared" si="6"/>
-        <v>-0.60053863418258346</v>
+        <v>-0.5743054145882841</v>
       </c>
       <c r="L53" s="8">
         <f t="shared" si="7"/>
-        <v>2.5588884866066086E-2</v>
+        <v>2.3106171292847043E-2</v>
       </c>
       <c r="M53" s="8">
         <f t="shared" si="8"/>
-        <v>-0.25550478642509306</v>
+        <v>-0.25313084560507071</v>
       </c>
       <c r="N53" s="8">
         <f t="shared" si="9"/>
-        <v>1.446328275038518E-2</v>
+        <v>1.3060009861174417E-2</v>
       </c>
       <c r="O53" s="8">
         <f t="shared" si="10"/>
-        <v>0.16063467007842475</v>
+        <v>0.10318964446777387</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="11"/>
-        <v>3.3376806347042722E-3</v>
+        <v>3.0138484295017883E-3</v>
       </c>
       <c r="Q53" s="8">
         <f t="shared" si="12"/>
-        <v>0.45931046642293771</v>
+        <v>0.37028018384102773</v>
       </c>
       <c r="R53" s="8">
         <f t="shared" si="13"/>
-        <v>1.1125602115680908E-2</v>
+        <v>1.0046161431672628E-2</v>
       </c>
       <c r="S53" s="8">
         <f t="shared" si="14"/>
-        <v>0.43739537590073285</v>
-      </c>
-      <c r="T53" s="21">
+        <v>0.36077124817245054</v>
+      </c>
+      <c r="T53" s="14">
         <f t="shared" si="0"/>
-        <v>6.0311874142373314E-3</v>
+        <v>5.4223659360518785E-3</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -5544,11 +5544,11 @@
       </c>
       <c r="G54" s="10">
         <f t="shared" si="2"/>
-        <v>-2.7219027666763926</v>
+        <v>-2.7679887073759142</v>
       </c>
       <c r="H54" s="10">
         <f t="shared" si="3"/>
-        <v>6.1693230222808058E-2</v>
+        <v>5.907872056221683E-2</v>
       </c>
       <c r="I54" s="10">
         <f t="shared" si="4"/>
@@ -5556,47 +5556,47 @@
       </c>
       <c r="J54" s="10">
         <f t="shared" si="5"/>
-        <v>3.1426972273249344E-2</v>
+        <v>2.8900018814421759E-2</v>
       </c>
       <c r="K54" s="10">
         <f t="shared" si="6"/>
-        <v>-0.60368133140990843</v>
+        <v>-0.57719541646972627</v>
       </c>
       <c r="L54" s="8">
         <f t="shared" si="7"/>
-        <v>2.2855979835090429E-2</v>
+        <v>2.1018195501397642E-2</v>
       </c>
       <c r="M54" s="8">
         <f t="shared" si="8"/>
-        <v>-0.25779038440860208</v>
+        <v>-0.25523266515521048</v>
       </c>
       <c r="N54" s="8">
         <f t="shared" si="9"/>
-        <v>9.2852418080054868E-3</v>
+        <v>8.5386419224427919E-3</v>
       </c>
       <c r="O54" s="8">
         <f t="shared" si="10"/>
-        <v>0.15970614589762419</v>
+        <v>0.10233578027552959</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="11"/>
-        <v>1.4284987396931518E-3</v>
+        <v>1.3136372188373526E-3</v>
       </c>
       <c r="Q54" s="8">
         <f t="shared" si="12"/>
-        <v>0.45916761654896837</v>
+        <v>0.37014882011914402</v>
       </c>
       <c r="R54" s="8">
         <f t="shared" si="13"/>
-        <v>7.1424936984657589E-3</v>
+        <v>6.5681860941867627E-3</v>
       </c>
       <c r="S54" s="8">
         <f t="shared" si="14"/>
-        <v>0.43668112653088625</v>
-      </c>
-      <c r="T54" s="21">
+        <v>0.36011442956303186</v>
+      </c>
+      <c r="T54" s="14">
         <f t="shared" si="0"/>
-        <v>3.8060546553243977E-3</v>
+        <v>3.4902952232685018E-3</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -5621,11 +5621,11 @@
       </c>
       <c r="G55" s="10">
         <f t="shared" si="2"/>
-        <v>-2.952961472583183</v>
+        <v>-3.0333504403165028</v>
       </c>
       <c r="H55" s="10">
         <f t="shared" si="3"/>
-        <v>4.9596732048270059E-2</v>
+        <v>4.5941751316038532E-2</v>
       </c>
       <c r="I55" s="10">
         <f t="shared" si="4"/>
@@ -5633,47 +5633,47 @@
       </c>
       <c r="J55" s="10">
         <f t="shared" si="5"/>
-        <v>2.3378360113312062E-2</v>
+        <v>2.0136778086066807E-2</v>
       </c>
       <c r="K55" s="10">
         <f t="shared" si="6"/>
-        <v>-0.60601916742123962</v>
+        <v>-0.579209094278333</v>
       </c>
       <c r="L55" s="8">
         <f t="shared" si="7"/>
-        <v>1.6364852079318443E-2</v>
+        <v>1.4095744660246767E-2</v>
       </c>
       <c r="M55" s="8">
         <f t="shared" si="8"/>
-        <v>-0.25942686961653394</v>
+        <v>-0.25664223962123517</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="9"/>
-        <v>7.48107523625986E-3</v>
+        <v>6.4437689875413793E-3</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="10"/>
-        <v>0.15895803837399822</v>
+        <v>0.10169140337677544</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="11"/>
-        <v>2.8054032135974472E-3</v>
+        <v>2.416413370328017E-3</v>
       </c>
       <c r="Q55" s="8">
         <f t="shared" si="12"/>
-        <v>0.4588870762276086</v>
+        <v>0.36990717878211121</v>
       </c>
       <c r="R55" s="8">
         <f t="shared" si="13"/>
-        <v>4.6756720226624124E-3</v>
+        <v>4.0273556172133618E-3</v>
       </c>
       <c r="S55" s="8">
         <f t="shared" si="14"/>
-        <v>0.43621355932861999</v>
-      </c>
-      <c r="T55" s="21">
+        <v>0.35971169400131053</v>
+      </c>
+      <c r="T55" s="14">
         <f t="shared" si="0"/>
-        <v>2.4598358298678984E-3</v>
+        <v>2.1106445139847281E-3</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -5698,11 +5698,11 @@
       </c>
       <c r="G56" s="10">
         <f t="shared" si="2"/>
-        <v>-3.1547311956608914</v>
+        <v>-3.2283186594501636</v>
       </c>
       <c r="H56" s="10">
         <f t="shared" si="3"/>
-        <v>4.0905261437523384E-2</v>
+        <v>3.8113840383068018E-2</v>
       </c>
       <c r="I56" s="10">
         <f t="shared" si="4"/>
@@ -5710,47 +5710,47 @@
       </c>
       <c r="J56" s="10">
         <f t="shared" si="5"/>
-        <v>1.6368919982537991E-2</v>
+        <v>1.4252441571997261E-2</v>
       </c>
       <c r="K56" s="10">
         <f t="shared" si="6"/>
-        <v>-0.60765605941949341</v>
+        <v>-0.58063433843553269</v>
       </c>
       <c r="L56" s="8">
         <f t="shared" si="7"/>
-        <v>1.2196450183067524E-2</v>
+        <v>1.0619466269331293E-2</v>
       </c>
       <c r="M56" s="8">
         <f t="shared" si="8"/>
-        <v>-0.26064651463484068</v>
+        <v>-0.25770418624816832</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="9"/>
-        <v>6.098225091533762E-3</v>
+        <v>5.3097331346656463E-3</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="10"/>
-        <v>0.15834821586484485</v>
+        <v>0.10116043006330888</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="11"/>
-        <v>1.2838368613755291E-3</v>
+        <v>1.117838554666452E-3</v>
       </c>
       <c r="Q56" s="8">
         <f t="shared" si="12"/>
-        <v>0.45875869254147106</v>
+        <v>0.36979539492664459</v>
       </c>
       <c r="R56" s="8">
         <f t="shared" si="13"/>
-        <v>3.2095921534388222E-3</v>
+        <v>2.79459638666613E-3</v>
       </c>
       <c r="S56" s="8">
         <f t="shared" si="14"/>
-        <v>0.43589260011327613</v>
-      </c>
-      <c r="T56" s="21">
+        <v>0.35943223436264393</v>
+      </c>
+      <c r="T56" s="14">
         <f t="shared" si="0"/>
-        <v>1.6732404132721375E-3</v>
+        <v>1.4526648287459863E-3</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -5775,11 +5775,11 @@
       </c>
       <c r="G57" s="10">
         <f t="shared" si="2"/>
-        <v>-2.9034809190315904</v>
+        <v>-2.948161928305792</v>
       </c>
       <c r="H57" s="10">
         <f t="shared" si="3"/>
-        <v>5.1981758330696452E-2</v>
+        <v>4.98234573501493E-2</v>
       </c>
       <c r="I57" s="10">
         <f t="shared" si="4"/>
@@ -5787,47 +5787,47 @@
       </c>
       <c r="J57" s="10">
         <f t="shared" si="5"/>
-        <v>2.4591773987213419E-2</v>
+        <v>2.2643484504982114E-2</v>
       </c>
       <c r="K57" s="10">
         <f t="shared" si="6"/>
-        <v>-0.61011523681821478</v>
+        <v>-0.58289868688603086</v>
       </c>
       <c r="L57" s="8">
         <f t="shared" si="7"/>
-        <v>1.5369858742008389E-2</v>
+        <v>1.4152177815613821E-2</v>
       </c>
       <c r="M57" s="8">
         <f t="shared" si="8"/>
-        <v>-0.26218350050904149</v>
+        <v>-0.25911940402972972</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="9"/>
-        <v>7.1726007462705804E-3</v>
+        <v>6.6043496472864491E-3</v>
       </c>
       <c r="O57" s="8">
         <f t="shared" si="10"/>
-        <v>0.1576309557902178</v>
+        <v>0.10049999509858024</v>
       </c>
       <c r="P57" s="8">
         <f t="shared" si="11"/>
-        <v>1.5369858742008387E-3</v>
+        <v>1.4152177815613821E-3</v>
       </c>
       <c r="Q57" s="8">
         <f t="shared" si="12"/>
-        <v>0.45860499395405097</v>
+        <v>0.36965387314848847</v>
       </c>
       <c r="R57" s="8">
         <f t="shared" si="13"/>
-        <v>5.1232862473361293E-3</v>
+        <v>4.7173926052046069E-3</v>
       </c>
       <c r="S57" s="8">
         <f t="shared" si="14"/>
-        <v>0.43538027148854253</v>
-      </c>
-      <c r="T57" s="21">
+        <v>0.35896049510212347</v>
+      </c>
+      <c r="T57" s="14">
         <f t="shared" si="0"/>
-        <v>2.7021031991509301E-3</v>
+        <v>2.4823769023221464E-3</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="G58" s="10">
         <f t="shared" si="2"/>
-        <v>-3.3285742101635512</v>
+        <v>-3.363745776542181</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>3.4603830369368253E-2</v>
+        <v>3.3447914786752291E-2</v>
       </c>
       <c r="I58" s="10">
         <f t="shared" si="4"/>
@@ -5864,47 +5864,47 @@
       </c>
       <c r="J58" s="10">
         <f t="shared" si="5"/>
-        <v>1.1791093736543332E-2</v>
+        <v>1.1029695682508955E-2</v>
       </c>
       <c r="K58" s="10">
         <f t="shared" si="6"/>
-        <v>-0.61129434619186906</v>
+        <v>-0.5840016564542817</v>
       </c>
       <c r="L58" s="8">
         <f t="shared" si="7"/>
-        <v>8.7855208233067975E-3</v>
+        <v>8.2182046261831433E-3</v>
       </c>
       <c r="M58" s="8">
         <f t="shared" si="8"/>
-        <v>-0.26306205259137216</v>
+        <v>-0.25994122449234802</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="9"/>
-        <v>3.6991666624449672E-3</v>
+        <v>3.4602966847086924E-3</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="10"/>
-        <v>0.1572610391239733</v>
+        <v>0.10015396543010936</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="11"/>
-        <v>4.623958328056209E-4</v>
+        <v>4.3253708558858655E-4</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="12"/>
-        <v>0.45855875437077043</v>
+        <v>0.36961061943992962</v>
       </c>
       <c r="R58" s="8">
         <f t="shared" si="13"/>
-        <v>2.3119791640281045E-3</v>
+        <v>2.1626854279429325E-3</v>
       </c>
       <c r="S58" s="8">
         <f t="shared" si="14"/>
-        <v>0.43514907357213972</v>
-      </c>
-      <c r="T58" s="21">
+        <v>0.35874422655932919</v>
+      </c>
+      <c r="T58" s="14">
         <f t="shared" si="0"/>
-        <v>1.1974250762320127E-3</v>
+        <v>1.1187630035818426E-3</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -5929,11 +5929,11 @@
       </c>
       <c r="G59" s="10">
         <f t="shared" si="2"/>
-        <v>-2.906726281555132</v>
+        <v>-2.9453376360157408</v>
       </c>
       <c r="H59" s="10">
         <f t="shared" si="3"/>
-        <v>5.1822060324562352E-2</v>
+        <v>4.9957332521197113E-2</v>
       </c>
       <c r="I59" s="10">
         <f t="shared" si="4"/>
@@ -5941,47 +5941,47 @@
       </c>
       <c r="J59" s="10">
         <f t="shared" si="5"/>
-        <v>2.3426479332726173E-2</v>
+        <v>2.181370421267087E-2</v>
       </c>
       <c r="K59" s="10">
         <f t="shared" si="6"/>
-        <v>-0.61363699412514172</v>
+        <v>-0.5861830268755488</v>
       </c>
       <c r="L59" s="8">
         <f t="shared" si="7"/>
-        <v>1.629668127493995E-2</v>
+        <v>1.5174750756640607E-2</v>
       </c>
       <c r="M59" s="8">
         <f t="shared" si="8"/>
-        <v>-0.26469172071886615</v>
+        <v>-0.2614586995680121</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" si="9"/>
-        <v>7.1297980577862269E-3</v>
+        <v>6.6389534560302652E-3</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" si="10"/>
-        <v>0.15654805931819468</v>
+        <v>9.9490070084506332E-2</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" si="11"/>
-        <v>1.0185425796837469E-3</v>
+        <v>9.4842192229003793E-4</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" si="12"/>
-        <v>0.45845690011280205</v>
+        <v>0.36951577724770063</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" si="13"/>
-        <v>5.0927128984187336E-3</v>
+        <v>4.7421096114501895E-3</v>
       </c>
       <c r="S59" s="8">
         <f t="shared" si="14"/>
-        <v>0.43463980228229787</v>
-      </c>
-      <c r="T59" s="21">
+        <v>0.35827001559818417</v>
+      </c>
+      <c r="T59" s="14">
         <f t="shared" si="0"/>
-        <v>2.6855259362825795E-3</v>
+        <v>2.4957350726334589E-3</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -6006,11 +6006,11 @@
       </c>
       <c r="G60" s="10">
         <f t="shared" si="2"/>
-        <v>-3.4704821642409054</v>
+        <v>-3.4927589546675697</v>
       </c>
       <c r="H60" s="10">
         <f t="shared" si="3"/>
-        <v>3.0163874113607676E-2</v>
+        <v>2.9518965134715625E-2</v>
       </c>
       <c r="I60" s="10">
         <f t="shared" si="4"/>
@@ -6018,47 +6018,47 @@
       </c>
       <c r="J60" s="10">
         <f t="shared" si="5"/>
-        <v>9.3535928531530282E-3</v>
+        <v>8.9638622551457617E-3</v>
       </c>
       <c r="K60" s="10">
         <f t="shared" si="6"/>
-        <v>-0.61457235341045702</v>
+        <v>-0.58707941310106337</v>
       </c>
       <c r="L60" s="8">
         <f t="shared" si="7"/>
-        <v>6.529866708804944E-3</v>
+        <v>6.2577906309508151E-3</v>
       </c>
       <c r="M60" s="8">
         <f t="shared" si="8"/>
-        <v>-0.26534470738974664</v>
+        <v>-0.26208447863110718</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" si="9"/>
-        <v>2.6472432603263287E-3</v>
+        <v>2.5369421476827627E-3</v>
       </c>
       <c r="O60" s="8">
         <f t="shared" si="10"/>
-        <v>0.15628333499216204</v>
+        <v>9.9236375869738061E-2</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="11"/>
-        <v>3.5296576804351052E-4</v>
+        <v>3.3825895302436838E-4</v>
       </c>
       <c r="Q60" s="8">
         <f t="shared" si="12"/>
-        <v>0.4584216035359977</v>
+        <v>0.3694819513523982</v>
       </c>
       <c r="R60" s="8">
         <f t="shared" si="13"/>
-        <v>1.7648288402175524E-3</v>
+        <v>1.6912947651218418E-3</v>
       </c>
       <c r="S60" s="8">
         <f t="shared" si="14"/>
-        <v>0.43446331939827609</v>
-      </c>
-      <c r="T60" s="21">
+        <v>0.35810088612167196</v>
+      </c>
+      <c r="T60" s="14">
         <f t="shared" si="0"/>
-        <v>9.0985930154157128E-4</v>
+        <v>8.7136930262455669E-4</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -6083,11 +6083,11 @@
       </c>
       <c r="G61" s="10">
         <f t="shared" si="2"/>
-        <v>-3.203554992343947</v>
+        <v>-3.2293476423781855</v>
       </c>
       <c r="H61" s="10">
         <f t="shared" si="3"/>
-        <v>3.9032162354032389E-2</v>
+        <v>3.807613458357053E-2</v>
       </c>
       <c r="I61" s="10">
         <f t="shared" si="4"/>
@@ -6095,47 +6095,47 @@
       </c>
       <c r="J61" s="10">
         <f t="shared" si="5"/>
-        <v>1.4640438201500332E-2</v>
+        <v>1.394589548570707E-2</v>
       </c>
       <c r="K61" s="10">
         <f t="shared" si="6"/>
-        <v>-0.6160363972306071</v>
+        <v>-0.58847400264963412</v>
       </c>
       <c r="L61" s="8">
         <f t="shared" si="7"/>
-        <v>9.6626892129902196E-3</v>
+        <v>9.2042910205666663E-3</v>
       </c>
       <c r="M61" s="8">
         <f t="shared" si="8"/>
-        <v>-0.26631097631104567</v>
+        <v>-0.26300490773316382</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="9"/>
-        <v>4.0993226964200933E-3</v>
+        <v>3.9048507359979792E-3</v>
       </c>
       <c r="O61" s="8">
         <f t="shared" si="10"/>
-        <v>0.15587340272252004</v>
+        <v>9.8845890796138258E-2</v>
       </c>
       <c r="P61" s="8">
         <f t="shared" si="11"/>
-        <v>5.8561752806001333E-4</v>
+        <v>5.5783581942828284E-4</v>
       </c>
       <c r="Q61" s="8">
         <f t="shared" si="12"/>
-        <v>0.4583630417831917</v>
+        <v>0.36942616777045539</v>
       </c>
       <c r="R61" s="8">
         <f t="shared" si="13"/>
-        <v>2.9280876403000667E-3</v>
+        <v>2.789179097141414E-3</v>
       </c>
       <c r="S61" s="8">
         <f t="shared" si="14"/>
-        <v>0.43417051063424611</v>
-      </c>
-      <c r="T61" s="21">
+        <v>0.35782196821195783</v>
+      </c>
+      <c r="T61" s="14">
         <f t="shared" si="0"/>
-        <v>1.5235096980315433E-3</v>
+        <v>1.4497920248261757E-3</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -6160,11 +6160,11 @@
       </c>
       <c r="G62" s="10">
         <f t="shared" si="2"/>
-        <v>-3.3559661428830383</v>
+        <v>-3.6213394334611184</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="3"/>
-        <v>3.3700338667183485E-2</v>
+        <v>2.6050071138339861E-2</v>
       </c>
       <c r="I62" s="10">
         <f t="shared" si="4"/>
@@ -6172,47 +6172,47 @@
       </c>
       <c r="J62" s="10">
         <f t="shared" si="5"/>
-        <v>-0.44054061690089025</v>
+        <v>-0.34594751051929717</v>
       </c>
       <c r="K62" s="10">
         <f t="shared" si="6"/>
-        <v>-0.57198233554051803</v>
+        <v>-0.55387925159770446</v>
       </c>
       <c r="L62" s="8">
         <f t="shared" si="7"/>
-        <v>-0.20138999629754983</v>
+        <v>-0.15814743338025017</v>
       </c>
       <c r="M62" s="8">
         <f t="shared" si="8"/>
-        <v>-0.24617197668129068</v>
+        <v>-0.2471901643951388</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="9"/>
-        <v>-0.29579155706202631</v>
+        <v>-0.2322790427772424</v>
       </c>
       <c r="O62" s="8">
         <f t="shared" si="10"/>
-        <v>0.18545255842872266</v>
+        <v>0.1220737950738625</v>
       </c>
       <c r="P62" s="8">
         <f t="shared" si="11"/>
-        <v>-8.8108123380178052E-2</v>
+        <v>-6.9189502103859435E-2</v>
       </c>
       <c r="Q62" s="8">
         <f t="shared" si="12"/>
-        <v>0.46717385412120949</v>
+        <v>0.37634511798084136</v>
       </c>
       <c r="R62" s="8">
         <f t="shared" si="13"/>
-        <v>-6.2934373842984323E-2</v>
+        <v>-4.9421072931328171E-2</v>
       </c>
       <c r="S62" s="8">
         <f t="shared" si="14"/>
-        <v>0.44046394801854455</v>
-      </c>
-      <c r="T62" s="21">
+        <v>0.36276407550509066</v>
+      </c>
+      <c r="T62" s="14">
         <f t="shared" si="0"/>
-        <v>1.1357128262828623E-3</v>
+        <v>6.786062063125674E-4</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -6237,11 +6237,11 @@
       </c>
       <c r="G63" s="10">
         <f t="shared" si="2"/>
-        <v>-2.472676030709835</v>
+        <v>-2.8592219059810193</v>
       </c>
       <c r="H63" s="10">
         <f t="shared" si="3"/>
-        <v>7.7796031310003608E-2</v>
+        <v>5.4206579680846328E-2</v>
       </c>
       <c r="I63" s="10">
         <f t="shared" si="4"/>
@@ -6249,47 +6249,47 @@
       </c>
       <c r="J63" s="10">
         <f t="shared" si="5"/>
-        <v>-0.84687904287960236</v>
+        <v>-0.62066113536889567</v>
       </c>
       <c r="K63" s="10">
         <f t="shared" si="6"/>
-        <v>-0.48729443125255778</v>
+        <v>-0.49181313806081489</v>
       </c>
       <c r="L63" s="8">
         <f t="shared" si="7"/>
-        <v>-0.42343952143980118</v>
+        <v>-0.31033056768444783</v>
       </c>
       <c r="M63" s="8">
         <f t="shared" si="8"/>
-        <v>-0.20382802453731055</v>
+        <v>-0.21615710762669402</v>
       </c>
       <c r="N63" s="8">
         <f t="shared" si="9"/>
-        <v>-0.59546182702472039</v>
+        <v>-0.43640236080625472</v>
       </c>
       <c r="O63" s="8">
         <f t="shared" si="10"/>
-        <v>0.24499874113119469</v>
+        <v>0.16571403115448796</v>
       </c>
       <c r="P63" s="8">
         <f t="shared" si="11"/>
-        <v>-0.19848727567490679</v>
+        <v>-0.14546745360208491</v>
       </c>
       <c r="Q63" s="8">
         <f t="shared" si="12"/>
-        <v>0.48702258168870016</v>
+        <v>0.39089186334104986</v>
       </c>
       <c r="R63" s="8">
         <f t="shared" si="13"/>
-        <v>-0.13232485044993786</v>
+        <v>-9.6978302401389938E-2</v>
       </c>
       <c r="S63" s="8">
         <f t="shared" si="14"/>
-        <v>0.45369643306353835</v>
-      </c>
-      <c r="T63" s="21">
+        <v>0.37246190574522964</v>
+      </c>
+      <c r="T63" s="14">
         <f t="shared" si="0"/>
-        <v>6.0522224875870613E-3</v>
+        <v>2.9383532806959421E-3</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -6314,11 +6314,11 @@
       </c>
       <c r="G64" s="10">
         <f t="shared" si="2"/>
-        <v>-1.6094743145688692</v>
+        <v>-2.2927992328485791</v>
       </c>
       <c r="H64" s="10">
         <f t="shared" si="3"/>
-        <v>0.16666161321623801</v>
+        <v>9.1721085857902687E-2</v>
       </c>
       <c r="I64" s="10">
         <f t="shared" si="4"/>
@@ -6326,47 +6326,47 @@
       </c>
       <c r="J64" s="10">
         <f t="shared" si="5"/>
-        <v>-1.5971931643536326</v>
+        <v>-1.0442073315347216</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" si="6"/>
-        <v>-0.32757511481719448</v>
+        <v>-0.38739240490734272</v>
       </c>
       <c r="L64" s="8">
         <f t="shared" si="7"/>
-        <v>-0.71757953760815374</v>
+        <v>-0.46913662721125171</v>
       </c>
       <c r="M64" s="8">
         <f t="shared" si="8"/>
-        <v>-0.13207007077649519</v>
+        <v>-0.16924344490556884</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" si="9"/>
-        <v>-1.1342386239612754</v>
+        <v>-0.74153853978552697</v>
       </c>
       <c r="O64" s="8">
         <f t="shared" si="10"/>
-        <v>0.35842260352732225</v>
+        <v>0.23986788513304066</v>
       </c>
       <c r="P64" s="8">
         <f t="shared" si="11"/>
-        <v>-0.34721590529426793</v>
+        <v>-0.227001593811896</v>
       </c>
       <c r="Q64" s="8">
         <f t="shared" si="12"/>
-        <v>0.52174417221812697</v>
+        <v>0.41359202272223944</v>
       </c>
       <c r="R64" s="8">
         <f t="shared" si="13"/>
-        <v>-0.23147727019617861</v>
+        <v>-0.15133439587459732</v>
       </c>
       <c r="S64" s="8">
         <f t="shared" si="14"/>
-        <v>0.47684416008315622</v>
-      </c>
-      <c r="T64" s="21">
+        <v>0.38759534533268936</v>
+      </c>
+      <c r="T64" s="14">
         <f t="shared" si="0"/>
-        <v>2.7776093319838921E-2</v>
+        <v>8.4127575909527571E-3</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -6391,59 +6391,59 @@
       </c>
       <c r="G65" s="10">
         <f t="shared" si="2"/>
-        <v>0.48337770379550171</v>
+        <v>-0.63518163486943002</v>
       </c>
       <c r="H65" s="10">
         <f t="shared" si="3"/>
-        <v>0.61854515129107002</v>
+        <v>0.34633654958646731</v>
       </c>
       <c r="I65" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="10">
         <f t="shared" si="5"/>
-        <v>-0.99003459672590532</v>
+        <v>-1.6277938946089279</v>
       </c>
       <c r="K65" s="10">
         <f t="shared" si="6"/>
-        <v>-0.22857165514460392</v>
+        <v>-0.22461301544644993</v>
       </c>
       <c r="L65" s="8">
         <f t="shared" si="7"/>
-        <v>-0.41401446772174222</v>
+        <v>-0.68071381047282431</v>
       </c>
       <c r="M65" s="8">
         <f t="shared" si="8"/>
-        <v>-9.0668624004320963E-2</v>
+        <v>-0.10117206385828641</v>
       </c>
       <c r="N65" s="8">
         <f t="shared" si="9"/>
-        <v>-0.72002516125520388</v>
+        <v>-1.1838501051701293</v>
       </c>
       <c r="O65" s="8">
         <f t="shared" si="10"/>
-        <v>0.43042511965284264</v>
+        <v>0.35825289565005358</v>
       </c>
       <c r="P65" s="8">
         <f t="shared" si="11"/>
-        <v>-0.23400817740794128</v>
+        <v>-0.38475128418029203</v>
       </c>
       <c r="Q65" s="8">
         <f t="shared" si="12"/>
-        <v>0.54514498995892113</v>
+        <v>0.45206715114026863</v>
       </c>
       <c r="R65" s="8">
         <f t="shared" si="13"/>
-        <v>-0.18000629031380097</v>
+        <v>-0.29596252629253234</v>
       </c>
       <c r="S65" s="8">
         <f t="shared" si="14"/>
-        <v>0.49484478911453633</v>
-      </c>
-      <c r="T65" s="21">
+        <v>0.41719159796194261</v>
+      </c>
+      <c r="T65" s="14">
         <f t="shared" si="0"/>
-        <v>0.14550780160355267</v>
+        <v>0.11994900557945953</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -6468,11 +6468,11 @@
       </c>
       <c r="G66" s="10">
         <f t="shared" si="2"/>
-        <v>1.55292991880397</v>
+        <v>0.99998926545746525</v>
       </c>
       <c r="H66" s="10">
         <f t="shared" si="3"/>
-        <v>0.82533649802513964</v>
+        <v>0.73105646602719354</v>
       </c>
       <c r="I66" s="10">
         <f t="shared" si="4"/>
@@ -6480,47 +6480,47 @@
       </c>
       <c r="J66" s="10">
         <f t="shared" si="5"/>
-        <v>-0.3273246635106532</v>
+        <v>-0.68741101919743142</v>
       </c>
       <c r="K66" s="10">
         <f t="shared" si="6"/>
-        <v>-0.19583918879353859</v>
+        <v>-0.15587191352670679</v>
       </c>
       <c r="L66" s="8">
         <f t="shared" si="7"/>
-        <v>-0.14100139351228139</v>
+        <v>-0.29611551596197044</v>
       </c>
       <c r="M66" s="8">
         <f t="shared" si="8"/>
-        <v>-7.6568484653092822E-2</v>
+        <v>-7.1560512262089357E-2</v>
       </c>
       <c r="N66" s="8">
         <f t="shared" si="9"/>
-        <v>-0.23164514648446224</v>
+        <v>-0.48647549050895145</v>
       </c>
       <c r="O66" s="8">
         <f t="shared" si="10"/>
-        <v>0.45358963430128885</v>
+        <v>0.40690044470094872</v>
       </c>
       <c r="P66" s="8">
         <f t="shared" si="11"/>
-        <v>-7.5536460810150738E-2</v>
+        <v>-0.15863331212248419</v>
       </c>
       <c r="Q66" s="8">
         <f t="shared" si="12"/>
-        <v>0.55269863603993619</v>
+        <v>0.46793048235251705</v>
       </c>
       <c r="R66" s="8">
         <f t="shared" si="13"/>
-        <v>-5.0357640540100494E-2</v>
+        <v>-0.10575554141498945</v>
       </c>
       <c r="S66" s="8">
         <f t="shared" si="14"/>
-        <v>0.4998805531685464</v>
-      </c>
-      <c r="T66" s="21">
+        <v>0.42776715210344157</v>
+      </c>
+      <c r="T66" s="14">
         <f t="shared" si="0"/>
-        <v>3.0507338922122047E-2</v>
+        <v>7.2330624465782103E-2</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -6545,11 +6545,11 @@
       </c>
       <c r="G67" s="10">
         <f t="shared" si="2"/>
-        <v>1.9288670012244331</v>
+        <v>1.7782894388799042</v>
       </c>
       <c r="H67" s="10">
         <f t="shared" si="3"/>
-        <v>0.87312395877592797</v>
+        <v>0.85548551542469908</v>
       </c>
       <c r="I67" s="10">
         <f t="shared" si="4"/>
@@ -6557,47 +6557,47 @@
       </c>
       <c r="J67" s="10">
         <f t="shared" si="5"/>
-        <v>-0.16022858434380222</v>
+        <v>-0.20367619291055281</v>
       </c>
       <c r="K67" s="10">
         <f t="shared" si="6"/>
-        <v>-0.17981633035915837</v>
+        <v>-0.13550429423565152</v>
       </c>
       <c r="L67" s="8">
         <f t="shared" si="7"/>
-        <v>-7.8708778274148447E-2</v>
+        <v>-0.10005146318413119</v>
       </c>
       <c r="M67" s="8">
         <f t="shared" si="8"/>
-        <v>-6.8697606825677979E-2</v>
+        <v>-6.1555365943676235E-2</v>
       </c>
       <c r="N67" s="8">
         <f t="shared" si="9"/>
-        <v>-0.12649625079773857</v>
+        <v>-0.16079699440306799</v>
       </c>
       <c r="O67" s="8">
         <f t="shared" si="10"/>
-        <v>0.4662392593810627</v>
+        <v>0.42298014414125551</v>
       </c>
       <c r="P67" s="8">
         <f t="shared" si="11"/>
-        <v>-3.6543361341568922E-2</v>
+        <v>-4.6452465049775203E-2</v>
       </c>
       <c r="Q67" s="8">
         <f t="shared" si="12"/>
-        <v>0.55635297217409307</v>
+        <v>0.47257572885749455</v>
       </c>
       <c r="R67" s="8">
         <f t="shared" si="13"/>
-        <v>-2.8110277955053019E-2</v>
+        <v>-3.5732665422904E-2</v>
       </c>
       <c r="S67" s="8">
         <f t="shared" si="14"/>
-        <v>0.50269158096405175</v>
-      </c>
-      <c r="T67" s="21">
+        <v>0.43134041864573197</v>
+      </c>
+      <c r="T67" s="14">
         <f t="shared" si="0"/>
-        <v>1.6097529836692426E-2</v>
+        <v>2.0884436252064886E-2</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -6622,11 +6622,11 @@
       </c>
       <c r="G68" s="10">
         <f t="shared" si="2"/>
-        <v>2.2246358717461607</v>
+        <v>2.118658500982888</v>
       </c>
       <c r="H68" s="10">
         <f t="shared" si="3"/>
-        <v>0.90244010704151245</v>
+        <v>0.89270350097822726</v>
       </c>
       <c r="I68" s="10">
         <f t="shared" si="4"/>
@@ -6634,47 +6634,47 @@
       </c>
       <c r="J68" s="10">
         <f t="shared" si="5"/>
-        <v>-0.10822598913798807</v>
+        <v>-0.12949377341943022</v>
       </c>
       <c r="K68" s="10">
         <f t="shared" si="6"/>
-        <v>-0.16899373144535956</v>
+        <v>-0.1225549168937085</v>
       </c>
       <c r="L68" s="8">
         <f t="shared" si="7"/>
-        <v>-5.6689803834184233E-2</v>
+        <v>-6.7830071791130112E-2</v>
       </c>
       <c r="M68" s="8">
         <f t="shared" si="8"/>
-        <v>-6.3028626442259553E-2</v>
+        <v>-5.4772358764563225E-2</v>
       </c>
       <c r="N68" s="8">
         <f t="shared" si="9"/>
-        <v>-8.074002364262603E-2</v>
+        <v>-9.6606465884336842E-2</v>
       </c>
       <c r="O68" s="8">
         <f t="shared" si="10"/>
-        <v>0.47431326174532529</v>
+        <v>0.4326407907296892</v>
       </c>
       <c r="P68" s="8">
         <f t="shared" si="11"/>
-        <v>-2.7485965495362055E-2</v>
+        <v>-3.2887307535093391E-2</v>
       </c>
       <c r="Q68" s="8">
         <f t="shared" si="12"/>
-        <v>0.55910156872362926</v>
+        <v>0.47586445961100388</v>
       </c>
       <c r="R68" s="8">
         <f t="shared" si="13"/>
-        <v>-1.7178728434601283E-2</v>
+        <v>-2.0554567209433369E-2</v>
       </c>
       <c r="S68" s="8">
         <f t="shared" si="14"/>
-        <v>0.5044094538075119</v>
-      </c>
-      <c r="T68" s="21">
+        <v>0.43339587536667529</v>
+      </c>
+      <c r="T68" s="14">
         <f t="shared" si="0"/>
-        <v>9.5179327140715482E-3</v>
+        <v>1.1512538702329279E-2</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -6699,11 +6699,11 @@
       </c>
       <c r="G69" s="10">
         <f t="shared" si="2"/>
-        <v>1.6494067987470298</v>
+        <v>1.6050021905715302</v>
       </c>
       <c r="H69" s="10">
         <f t="shared" si="3"/>
-        <v>0.83881085912702358</v>
+        <v>0.83271634726724852</v>
       </c>
       <c r="I69" s="10">
         <f t="shared" si="4"/>
@@ -6711,47 +6711,47 @@
       </c>
       <c r="J69" s="10">
         <f t="shared" si="5"/>
-        <v>-0.21358054034165785</v>
+        <v>-0.22836533070388965</v>
       </c>
       <c r="K69" s="10">
         <f t="shared" si="6"/>
-        <v>-0.14763567741119377</v>
+        <v>-9.9718383823319531E-2</v>
       </c>
       <c r="L69" s="8">
         <f t="shared" si="7"/>
-        <v>-0.10461087690203648</v>
+        <v>-0.11185240687537451</v>
       </c>
       <c r="M69" s="8">
         <f t="shared" si="8"/>
-        <v>-5.2567538752055901E-2</v>
+        <v>-4.3587118077025776E-2</v>
       </c>
       <c r="N69" s="8">
         <f t="shared" si="9"/>
-        <v>-0.14383995574030017</v>
+        <v>-0.15379705945363994</v>
       </c>
       <c r="O69" s="8">
         <f t="shared" si="10"/>
-        <v>0.48869725731935532</v>
+        <v>0.44802049667505317</v>
       </c>
       <c r="P69" s="8">
         <f t="shared" si="11"/>
-        <v>-4.3587865375848536E-2</v>
+        <v>-4.6605169531406046E-2</v>
       </c>
       <c r="Q69" s="8">
         <f t="shared" si="12"/>
-        <v>0.56346035526121407</v>
+        <v>0.4805249765641445</v>
       </c>
       <c r="R69" s="8">
         <f t="shared" si="13"/>
-        <v>-4.3587865375848536E-2</v>
+        <v>-4.6605169531406046E-2</v>
       </c>
       <c r="S69" s="8">
         <f t="shared" si="14"/>
-        <v>0.50876824034509671</v>
-      </c>
-      <c r="T69" s="21">
+        <v>0.43805639231981591</v>
+      </c>
+      <c r="T69" s="14">
         <f t="shared" si="0"/>
-        <v>2.5981939135368236E-2</v>
+        <v>2.7983820471611791E-2</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -6776,11 +6776,11 @@
       </c>
       <c r="G70" s="10">
         <f t="shared" si="2"/>
-        <v>2.3624327525588682</v>
+        <v>2.3390891709011647</v>
       </c>
       <c r="H70" s="10">
         <f t="shared" si="3"/>
-        <v>0.91391738685105617</v>
+        <v>0.91206305845097269</v>
       </c>
       <c r="I70" s="10">
         <f t="shared" si="4"/>
@@ -6788,47 +6788,47 @@
       </c>
       <c r="J70" s="10">
         <f t="shared" si="5"/>
-        <v>-8.9394696660793513E-2</v>
+        <v>-9.3098248497138339E-2</v>
       </c>
       <c r="K70" s="10">
         <f t="shared" si="6"/>
-        <v>-0.1386962077451144</v>
+        <v>-9.0408558973605696E-2</v>
       </c>
       <c r="L70" s="8">
         <f t="shared" si="7"/>
-        <v>-3.9279487926712299E-2</v>
+        <v>-4.0906806157833514E-2</v>
       </c>
       <c r="M70" s="8">
         <f t="shared" si="8"/>
-        <v>-4.8639589959384673E-2</v>
+        <v>-3.9496437461242422E-2</v>
       </c>
       <c r="N70" s="8">
         <f t="shared" si="9"/>
-        <v>-6.2305394642371233E-2</v>
+        <v>-6.4886658043460055E-2</v>
       </c>
       <c r="O70" s="8">
         <f t="shared" si="10"/>
-        <v>0.49492779678359244</v>
+        <v>0.45450916247939915</v>
       </c>
       <c r="P70" s="8">
         <f t="shared" si="11"/>
-        <v>-1.760804631197448E-2</v>
+        <v>-1.8337533794890889E-2</v>
       </c>
       <c r="Q70" s="8">
         <f t="shared" si="12"/>
-        <v>0.56522115989241151</v>
+        <v>0.4823587299436336</v>
       </c>
       <c r="R70" s="8">
         <f t="shared" si="13"/>
-        <v>-1.3544651009211138E-2</v>
+        <v>-1.4105795226839144E-2</v>
       </c>
       <c r="S70" s="8">
         <f t="shared" si="14"/>
-        <v>0.51012270544601779</v>
-      </c>
-      <c r="T70" s="21">
+        <v>0.43946697184249983</v>
+      </c>
+      <c r="T70" s="14">
         <f t="shared" si="0"/>
-        <v>7.4102162865507179E-3</v>
+        <v>7.732905688997046E-3</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -6853,11 +6853,11 @@
       </c>
       <c r="G71" s="10">
         <f t="shared" si="2"/>
-        <v>2.3791035635864706</v>
+        <v>2.3105900396251391</v>
       </c>
       <c r="H71" s="10">
         <f t="shared" si="3"/>
-        <v>0.9152199015406336</v>
+        <v>0.90975031004050233</v>
       </c>
       <c r="I71" s="10">
         <f t="shared" si="4"/>
@@ -6865,47 +6865,47 @@
       </c>
       <c r="J71" s="10">
         <f t="shared" si="5"/>
-        <v>-6.8414259059655341E-2</v>
+        <v>-7.706319111953526E-2</v>
       </c>
       <c r="K71" s="10">
         <f t="shared" si="6"/>
-        <v>-0.13185478183914887</v>
+        <v>-8.2702239861652177E-2</v>
       </c>
       <c r="L71" s="8">
         <f t="shared" si="7"/>
-        <v>-3.5522788357897968E-2</v>
+        <v>-4.0013580004374077E-2</v>
       </c>
       <c r="M71" s="8">
         <f t="shared" si="8"/>
-        <v>-4.5087311123594875E-2</v>
+        <v>-3.5495079460805011E-2</v>
       </c>
       <c r="N71" s="8">
         <f t="shared" si="9"/>
-        <v>-5.1310694294741499E-2</v>
+        <v>-5.7797393339651441E-2</v>
       </c>
       <c r="O71" s="8">
         <f t="shared" si="10"/>
-        <v>0.50005886621306661</v>
+        <v>0.46028890181336429</v>
       </c>
       <c r="P71" s="8">
         <f t="shared" si="11"/>
-        <v>-1.8419223592984129E-2</v>
+        <v>-2.0747782224490259E-2</v>
       </c>
       <c r="Q71" s="8">
         <f t="shared" si="12"/>
-        <v>0.56706308225170987</v>
+        <v>0.4844335081660826</v>
       </c>
       <c r="R71" s="8">
         <f t="shared" si="13"/>
-        <v>-1.3156588280702949E-2</v>
+        <v>-1.4819844446064472E-2</v>
       </c>
       <c r="S71" s="8">
         <f t="shared" si="14"/>
-        <v>0.51143836427408806</v>
-      </c>
-      <c r="T71" s="21">
+        <v>0.44094895628710629</v>
+      </c>
+      <c r="T71" s="14">
         <f t="shared" si="0"/>
-        <v>7.1876650947798621E-3</v>
+        <v>8.1450065377854548E-3</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -6930,11 +6930,11 @@
       </c>
       <c r="G72" s="10">
         <f t="shared" si="2"/>
-        <v>2.0792589468285971</v>
+        <v>2.0518922625700933</v>
       </c>
       <c r="H72" s="10">
         <f t="shared" si="3"/>
-        <v>0.88887085139857402</v>
+        <v>0.88613867956307646</v>
       </c>
       <c r="I72" s="10">
         <f t="shared" si="4"/>
@@ -6942,47 +6942,47 @@
       </c>
       <c r="J72" s="10">
         <f t="shared" si="5"/>
-        <v>-0.10977277392741897</v>
+        <v>-0.11488256555760841</v>
       </c>
       <c r="K72" s="10">
         <f t="shared" si="6"/>
-        <v>-0.12087750444640696</v>
+        <v>-7.1213983305891335E-2</v>
       </c>
       <c r="L72" s="8">
         <f t="shared" si="7"/>
-        <v>-4.3909109570967587E-2</v>
+        <v>-4.5953026223043363E-2</v>
       </c>
       <c r="M72" s="8">
         <f t="shared" si="8"/>
-        <v>-4.0696400166498115E-2</v>
+        <v>-3.0899776838500675E-2</v>
       </c>
       <c r="N72" s="8">
         <f t="shared" si="9"/>
-        <v>-7.6840941749193273E-2</v>
+        <v>-8.0417795890325883E-2</v>
       </c>
       <c r="O72" s="8">
         <f t="shared" si="10"/>
-        <v>0.50774296038798594</v>
+        <v>0.46833068140239686</v>
       </c>
       <c r="P72" s="8">
         <f t="shared" si="11"/>
-        <v>-2.1954554785483794E-2</v>
+        <v>-2.2976513111521681E-2</v>
       </c>
       <c r="Q72" s="8">
         <f t="shared" si="12"/>
-        <v>0.56925853773025825</v>
+        <v>0.48673115947723478</v>
       </c>
       <c r="R72" s="8">
         <f t="shared" si="13"/>
-        <v>-2.1954554785483794E-2</v>
+        <v>-2.2976513111521681E-2</v>
       </c>
       <c r="S72" s="8">
         <f t="shared" si="14"/>
-        <v>0.51363381975263644</v>
-      </c>
-      <c r="T72" s="21">
+        <v>0.44324660759825846</v>
+      </c>
+      <c r="T72" s="14">
         <f t="shared" si="0"/>
-        <v>1.2349687668877818E-2</v>
+        <v>1.2964400291639783E-2</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -7007,11 +7007,11 @@
       </c>
       <c r="G73" s="10">
         <f t="shared" si="2"/>
-        <v>2.6647755832442699</v>
+        <v>2.6274703766839167</v>
       </c>
       <c r="H73" s="10">
         <f t="shared" si="3"/>
-        <v>0.93491585475195793</v>
+        <v>0.93260873554493651</v>
       </c>
       <c r="I73" s="10">
         <f t="shared" si="4"/>
@@ -7019,47 +7019,47 @@
       </c>
       <c r="J73" s="10">
         <f t="shared" si="5"/>
-        <v>-4.673098587637875E-2</v>
+        <v>-4.9979130523330764E-2</v>
       </c>
       <c r="K73" s="10">
         <f t="shared" si="6"/>
-        <v>-0.11620440585876909</v>
+        <v>-6.621607025355826E-2</v>
       </c>
       <c r="L73" s="8">
         <f t="shared" si="7"/>
-        <v>-2.3761518242226481E-2</v>
+        <v>-2.5413117215252929E-2</v>
       </c>
       <c r="M73" s="8">
         <f t="shared" si="8"/>
-        <v>-3.8320248342275466E-2</v>
+        <v>-2.8358465116975384E-2</v>
       </c>
       <c r="N73" s="8">
         <f t="shared" si="9"/>
-        <v>-3.3266125539117078E-2</v>
+        <v>-3.55783641013541E-2</v>
       </c>
       <c r="O73" s="8">
         <f t="shared" si="10"/>
-        <v>0.5110695729418977</v>
+        <v>0.47188851781253227</v>
       </c>
       <c r="P73" s="8">
         <f t="shared" si="11"/>
-        <v>-1.188075912111324E-2</v>
+        <v>-1.2706558607626465E-2</v>
       </c>
       <c r="Q73" s="8">
         <f t="shared" si="12"/>
-        <v>0.57044661364236959</v>
+        <v>0.48800181533799741</v>
       </c>
       <c r="R73" s="8">
         <f t="shared" si="13"/>
-        <v>-7.9205060807421603E-3</v>
+        <v>-8.4710390717509763E-3</v>
       </c>
       <c r="S73" s="8">
         <f t="shared" si="14"/>
-        <v>0.51442587036071064</v>
-      </c>
-      <c r="T73" s="21">
+        <v>0.44409371150543353</v>
+      </c>
+      <c r="T73" s="14">
         <f t="shared" si="0"/>
-        <v>4.2359459626682373E-3</v>
+        <v>4.5415825248523046E-3</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -7084,11 +7084,11 @@
       </c>
       <c r="G74" s="10">
         <f t="shared" si="2"/>
-        <v>2.3476197942650505</v>
+        <v>2.3599645533148648</v>
       </c>
       <c r="H74" s="10">
         <f t="shared" si="3"/>
-        <v>0.91274484813520207</v>
+        <v>0.9137230092191776</v>
       </c>
       <c r="I74" s="10">
         <f t="shared" si="4"/>
@@ -7096,47 +7096,47 @@
       </c>
       <c r="J74" s="10">
         <f t="shared" si="5"/>
-        <v>-8.3389773422378674E-2</v>
+        <v>-8.1617969408797314E-2</v>
       </c>
       <c r="K74" s="10">
         <f t="shared" si="6"/>
-        <v>-0.10786542851653122</v>
+        <v>-5.8054273312678525E-2</v>
       </c>
       <c r="L74" s="8">
         <f t="shared" si="7"/>
-        <v>-3.0576250254872182E-2</v>
+        <v>-2.9926588783225683E-2</v>
       </c>
       <c r="M74" s="8">
         <f t="shared" si="8"/>
-        <v>-3.5262623316788248E-2</v>
+        <v>-2.5365806238652814E-2</v>
       </c>
       <c r="N74" s="8">
         <f t="shared" si="9"/>
-        <v>-5.559318228158578E-2</v>
+        <v>-5.4411979605864871E-2</v>
       </c>
       <c r="O74" s="8">
         <f t="shared" si="10"/>
-        <v>0.51662889117005628</v>
+        <v>0.47732971577311878</v>
       </c>
       <c r="P74" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3898295570396445E-2</v>
+        <v>-1.3602994901466218E-2</v>
       </c>
       <c r="Q74" s="8">
         <f t="shared" si="12"/>
-        <v>0.57183644319940918</v>
+        <v>0.48936211482814401</v>
       </c>
       <c r="R74" s="8">
         <f t="shared" si="13"/>
-        <v>-1.3898295570396445E-2</v>
+        <v>-1.3602994901466218E-2</v>
       </c>
       <c r="S74" s="8">
         <f t="shared" si="14"/>
-        <v>0.51581569991775023</v>
-      </c>
-      <c r="T74" s="21">
+        <v>0.44545401099558013</v>
+      </c>
+      <c r="T74" s="14">
         <f t="shared" si="0"/>
-        <v>7.6134615269489499E-3</v>
+        <v>7.4437191381941138E-3</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -7161,11 +7161,11 @@
       </c>
       <c r="G75" s="10">
         <f t="shared" si="2"/>
-        <v>2.9843017873266615</v>
+        <v>2.946318730589208</v>
       </c>
       <c r="H75" s="10">
         <f t="shared" si="3"/>
-        <v>0.95185987276365103</v>
+        <v>0.95008921123961465</v>
       </c>
       <c r="I75" s="10">
         <f t="shared" si="4"/>
@@ -7173,47 +7173,47 @@
       </c>
       <c r="J75" s="10">
         <f t="shared" si="5"/>
-        <v>-2.6912083219200862E-2</v>
+        <v>-2.8874407655908364E-2</v>
       </c>
       <c r="K75" s="10">
         <f t="shared" si="6"/>
-        <v>-0.10517422019461113</v>
+        <v>-5.5166832547087687E-2</v>
       </c>
       <c r="L75" s="8">
         <f t="shared" si="7"/>
-        <v>-1.2794269071423361E-2</v>
+        <v>-1.3727177410185943E-2</v>
       </c>
       <c r="M75" s="8">
         <f t="shared" si="8"/>
-        <v>-3.3983196409645915E-2</v>
+        <v>-2.3993088497634221E-2</v>
       </c>
       <c r="N75" s="8">
         <f t="shared" si="9"/>
-        <v>-2.0735539529548208E-2</v>
+        <v>-2.2247494423404807E-2</v>
       </c>
       <c r="O75" s="8">
         <f t="shared" si="10"/>
-        <v>0.51870244512301111</v>
+        <v>0.47955446521545925</v>
       </c>
       <c r="P75" s="8">
         <f t="shared" si="11"/>
-        <v>-6.1765436896526566E-3</v>
+        <v>-6.6269132325035588E-3</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="12"/>
-        <v>0.5724540975683744</v>
+        <v>0.49002480615139438</v>
       </c>
       <c r="R75" s="8">
         <f t="shared" si="13"/>
-        <v>-4.4118169211804694E-3</v>
+        <v>-4.7335094517882564E-3</v>
       </c>
       <c r="S75" s="8">
         <f t="shared" si="14"/>
-        <v>0.51625688160986827</v>
-      </c>
-      <c r="T75" s="21">
+        <v>0.44592736194075894</v>
+      </c>
+      <c r="T75" s="14">
         <f t="shared" si="0"/>
-        <v>2.3174718503318681E-3</v>
+        <v>2.4910868346838086E-3</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -7238,11 +7238,11 @@
       </c>
       <c r="G76" s="10">
         <f t="shared" si="2"/>
-        <v>2.4402491082137994</v>
+        <v>2.4308414658063948</v>
       </c>
       <c r="H76" s="10">
         <f t="shared" si="3"/>
-        <v>0.91984545456151212</v>
+        <v>0.91914908567822939</v>
       </c>
       <c r="I76" s="10">
         <f t="shared" si="4"/>
@@ -7250,47 +7250,47 @@
       </c>
       <c r="J76" s="10">
         <f t="shared" si="5"/>
-        <v>-6.6189515236434557E-2</v>
+        <v>-6.7293614106157057E-2</v>
       </c>
       <c r="K76" s="10">
         <f t="shared" si="6"/>
-        <v>-9.8555268670967672E-2</v>
+        <v>-4.8437471136471982E-2</v>
       </c>
       <c r="L76" s="8">
         <f t="shared" si="7"/>
-        <v>-3.4276713247439326E-2</v>
+        <v>-3.4848478733545622E-2</v>
       </c>
       <c r="M76" s="8">
         <f t="shared" si="8"/>
-        <v>-3.0555525084901981E-2</v>
+        <v>-2.050824062427966E-2</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" si="9"/>
-        <v>-4.2550402651993648E-2</v>
+        <v>-4.3260180496815258E-2</v>
       </c>
       <c r="O76" s="8">
         <f t="shared" si="10"/>
-        <v>0.52295748538821052</v>
+        <v>0.48388048326514077</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5365423179886597E-2</v>
+        <v>-1.5621731846072177E-2</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" si="12"/>
-        <v>0.57399063988636301</v>
+        <v>0.49158697933600159</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" si="13"/>
-        <v>-1.1819556292220458E-2</v>
+        <v>-1.2016716804670905E-2</v>
       </c>
       <c r="S76" s="8">
         <f t="shared" si="14"/>
-        <v>0.51743883723909034</v>
-      </c>
-      <c r="T76" s="21">
+        <v>0.44712903362122602</v>
+      </c>
+      <c r="T76" s="14">
         <f t="shared" si="0"/>
-        <v>6.4247511544506183E-3</v>
+        <v>6.5368703466662913E-3</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -7315,11 +7315,11 @@
       </c>
       <c r="G77" s="10">
         <f t="shared" si="2"/>
-        <v>2.8669962409294456</v>
+        <v>2.8763183285086189</v>
       </c>
       <c r="H77" s="10">
         <f t="shared" si="3"/>
-        <v>0.9461906180915477</v>
+        <v>0.94666327282654938</v>
       </c>
       <c r="I77" s="10">
         <f t="shared" si="4"/>
@@ -7327,47 +7327,47 @@
       </c>
       <c r="J77" s="10">
         <f t="shared" si="5"/>
-        <v>-3.6711272869257738E-2</v>
+        <v>-3.6087188910076735E-2</v>
       </c>
       <c r="K77" s="10">
         <f t="shared" si="6"/>
-        <v>-9.4884141384041901E-2</v>
+        <v>-4.4828752245464308E-2</v>
       </c>
       <c r="L77" s="8">
         <f t="shared" si="7"/>
-        <v>-1.6985812820104328E-2</v>
+        <v>-1.669705755540864E-2</v>
       </c>
       <c r="M77" s="8">
         <f t="shared" si="8"/>
-        <v>-2.8856943802891548E-2</v>
+        <v>-1.8838534868738797E-2</v>
       </c>
       <c r="N77" s="8">
         <f t="shared" si="9"/>
-        <v>-2.410889561563195E-2</v>
+        <v>-2.3699049433483232E-2</v>
       </c>
       <c r="O77" s="8">
         <f t="shared" si="10"/>
-        <v>0.52536837494977373</v>
+        <v>0.48625038820848909</v>
       </c>
       <c r="P77" s="8">
         <f t="shared" si="11"/>
-        <v>-7.6710122413374366E-3</v>
+        <v>-7.5406066379264816E-3</v>
       </c>
       <c r="Q77" s="8">
         <f t="shared" si="12"/>
-        <v>0.57475774111049671</v>
+        <v>0.49234103999979423</v>
       </c>
       <c r="R77" s="8">
         <f t="shared" si="13"/>
-        <v>-5.4792944580981696E-3</v>
+        <v>-5.3861475985189158E-3</v>
       </c>
       <c r="S77" s="8">
         <f t="shared" si="14"/>
-        <v>0.51798676668490018</v>
-      </c>
-      <c r="T77" s="21">
+        <v>0.44766764838107792</v>
+      </c>
+      <c r="T77" s="14">
         <f t="shared" ref="T77:T111" si="15">(I77-H77)^2</f>
-        <v>2.8954495813696738E-3</v>
+        <v>2.8448064655751054E-3</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -7392,11 +7392,11 @@
       </c>
       <c r="G78" s="10">
         <f t="shared" ref="G78:G111" si="17">(K77*B78)+(M77*C78)+(O77*D78)+(Q77*E78)+S77</f>
-        <v>3.1263590424653178</v>
+        <v>3.0667493381381536</v>
       </c>
       <c r="H78" s="10">
         <f t="shared" ref="H78:H111" si="18">1/(1+$E$7^(-1*G78))</f>
-        <v>0.95796702831430158</v>
+        <v>0.95550015866314242</v>
       </c>
       <c r="I78" s="10">
         <f t="shared" ref="I78:I110" si="19">IF(H78 &gt; 0.5,1,0)</f>
@@ -7404,47 +7404,47 @@
       </c>
       <c r="J78" s="10">
         <f t="shared" ref="J78:J111" si="20">2*(H78-F78)*(1-H78)*H78*B78</f>
-        <v>-1.895609055822188E-2</v>
+        <v>-2.1191695801698256E-2</v>
       </c>
       <c r="K78" s="10">
         <f t="shared" ref="K78:K111" si="21">K77-($E$8*J78)</f>
-        <v>-9.2988532328219714E-2</v>
+        <v>-4.2709582665294482E-2</v>
       </c>
       <c r="L78" s="8">
         <f t="shared" ref="L78:L111" si="22">2*(H78-F78)*(1-H78)*H78*C78</f>
-        <v>-1.015504851333315E-2</v>
+        <v>-1.1352694179481209E-2</v>
       </c>
       <c r="M78" s="8">
         <f t="shared" ref="M78:M111" si="23">M77-($E$8*L78)</f>
-        <v>-2.7841438951558231E-2</v>
+        <v>-1.7703265450790675E-2</v>
       </c>
       <c r="N78" s="8">
         <f t="shared" ref="N78:N111" si="24">2*(H78-F78)*(1-H78)*H78*D78</f>
-        <v>-1.5232572769999725E-2</v>
+        <v>-1.7029041269221813E-2</v>
       </c>
       <c r="O78" s="8">
         <f t="shared" ref="O78:O111" si="25">O77-($E$8*N78)</f>
-        <v>0.52689163222677371</v>
+        <v>0.48795329233541129</v>
       </c>
       <c r="P78" s="8">
         <f t="shared" ref="P78:P111" si="26">2*(H78-F78)*(1-H78)*H78*E78</f>
-        <v>-5.0775242566665751E-3</v>
+        <v>-5.6763470897406047E-3</v>
       </c>
       <c r="Q78" s="8">
         <f t="shared" ref="Q78:Q111" si="27">Q77-($E$8*P78)</f>
-        <v>0.57526549353616341</v>
+        <v>0.49290867470876831</v>
       </c>
       <c r="R78" s="8">
         <f t="shared" ref="R78:R111" si="28">2*(H78-F78)*(1-H78)*H78</f>
-        <v>-3.38501617111105E-3</v>
+        <v>-3.784231393160403E-3</v>
       </c>
       <c r="S78" s="8">
         <f t="shared" ref="S78:S111" si="29">S77-($E$8*R78)</f>
-        <v>0.51832526830201131</v>
-      </c>
-      <c r="T78" s="21">
+        <v>0.44804607152039394</v>
+      </c>
+      <c r="T78" s="14">
         <f t="shared" si="15"/>
-        <v>1.7667707087307249E-3</v>
+        <v>1.9802358790054989E-3</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -7469,11 +7469,11 @@
       </c>
       <c r="G79" s="10">
         <f t="shared" si="17"/>
-        <v>2.6393410812950648</v>
+        <v>2.6460488486285056</v>
       </c>
       <c r="H79" s="10">
         <f t="shared" si="18"/>
-        <v>0.93335098510369774</v>
+        <v>0.93376704370364649</v>
       </c>
       <c r="I79" s="10">
         <f t="shared" si="19"/>
@@ -7481,47 +7481,47 @@
       </c>
       <c r="J79" s="10">
         <f t="shared" si="20"/>
-        <v>-4.8093950145743837E-2</v>
+        <v>-4.7516540240884593E-2</v>
       </c>
       <c r="K79" s="10">
         <f t="shared" si="21"/>
-        <v>-8.8179137313645323E-2</v>
+        <v>-3.7957928641206021E-2</v>
       </c>
       <c r="L79" s="8">
         <f t="shared" si="22"/>
-        <v>-2.2388562998880753E-2</v>
+        <v>-2.2119768732825586E-2</v>
       </c>
       <c r="M79" s="8">
         <f t="shared" si="23"/>
-        <v>-2.5602582651670154E-2</v>
+        <v>-1.5491288577508117E-2</v>
       </c>
       <c r="N79" s="8">
         <f t="shared" si="24"/>
-        <v>-3.3997447516818914E-2</v>
+        <v>-3.3589278446142554E-2</v>
       </c>
       <c r="O79" s="8">
         <f t="shared" si="25"/>
-        <v>0.53029137697845563</v>
+        <v>0.49131222018002557</v>
       </c>
       <c r="P79" s="8">
         <f t="shared" si="26"/>
-        <v>-8.2920603699558337E-3</v>
+        <v>-8.1925069380835505E-3</v>
       </c>
       <c r="Q79" s="8">
         <f t="shared" si="27"/>
-        <v>0.57609469957315895</v>
+        <v>0.49372792540257665</v>
       </c>
       <c r="R79" s="8">
         <f t="shared" si="28"/>
-        <v>-8.2920603699558337E-3</v>
+        <v>-8.1925069380835505E-3</v>
       </c>
       <c r="S79" s="8">
         <f t="shared" si="29"/>
-        <v>0.51915447433900686</v>
-      </c>
-      <c r="T79" s="21">
+        <v>0.44886532221420228</v>
+      </c>
+      <c r="T79" s="14">
         <f t="shared" si="15"/>
-        <v>4.4420911866475208E-3</v>
+        <v>4.3868044997546736E-3</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -7546,11 +7546,11 @@
       </c>
       <c r="G80" s="10">
         <f t="shared" si="17"/>
-        <v>3.1665713869235201</v>
+        <v>3.1309422086821872</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="18"/>
-        <v>0.95955673647871564</v>
+        <v>0.95815118814176392</v>
       </c>
       <c r="I80" s="10">
         <f t="shared" si="19"/>
@@ -7558,47 +7558,47 @@
       </c>
       <c r="J80" s="10">
         <f t="shared" si="20"/>
-        <v>-1.9461877305945233E-2</v>
+        <v>-2.0807600085484924E-2</v>
       </c>
       <c r="K80" s="10">
         <f t="shared" si="21"/>
-        <v>-8.6232949583050805E-2</v>
+        <v>-3.5877168632657531E-2</v>
       </c>
       <c r="L80" s="8">
         <f t="shared" si="22"/>
-        <v>-6.9058274311418581E-3</v>
+        <v>-7.3833419658172316E-3</v>
       </c>
       <c r="M80" s="8">
         <f t="shared" si="23"/>
-        <v>-2.4911999908555967E-2</v>
+        <v>-1.4752954380926393E-2</v>
       </c>
       <c r="N80" s="8">
         <f t="shared" si="24"/>
-        <v>-1.41255561091538E-2</v>
+        <v>-1.5102290384626153E-2</v>
       </c>
       <c r="O80" s="8">
         <f t="shared" si="25"/>
-        <v>0.53170393258937099</v>
+        <v>0.49282244921848817</v>
       </c>
       <c r="P80" s="8">
         <f t="shared" si="26"/>
-        <v>-4.7085187030512666E-3</v>
+        <v>-5.0340967948753843E-3</v>
       </c>
       <c r="Q80" s="8">
         <f t="shared" si="27"/>
-        <v>0.57656555144346411</v>
+        <v>0.49423133508206418</v>
       </c>
       <c r="R80" s="8">
         <f t="shared" si="28"/>
-        <v>-3.1390124687008442E-3</v>
+        <v>-3.356064529916923E-3</v>
       </c>
       <c r="S80" s="8">
         <f t="shared" si="29"/>
-        <v>0.51946837558587688</v>
-      </c>
-      <c r="T80" s="21">
+        <v>0.44920092866719397</v>
+      </c>
+      <c r="T80" s="14">
         <f t="shared" si="15"/>
-        <v>1.6356575642520498E-3</v>
+        <v>1.7513230539460407E-3</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -7623,11 +7623,11 @@
       </c>
       <c r="G81" s="10">
         <f t="shared" si="17"/>
-        <v>2.6821513018357597</v>
+        <v>2.6770684189143705</v>
       </c>
       <c r="H81" s="10">
         <f t="shared" si="18"/>
-        <v>0.93596517980433769</v>
+        <v>0.93565986455349193</v>
       </c>
       <c r="I81" s="10">
         <f t="shared" si="19"/>
@@ -7635,47 +7635,47 @@
       </c>
       <c r="J81" s="10">
         <f t="shared" si="20"/>
-        <v>-4.2984324253860062E-2</v>
+        <v>-4.3381040557902914E-2</v>
       </c>
       <c r="K81" s="10">
         <f t="shared" si="21"/>
-        <v>-8.1934517157664796E-2</v>
+        <v>-3.153906457686724E-2</v>
       </c>
       <c r="L81" s="8">
         <f t="shared" si="22"/>
-        <v>-1.9189430470473244E-2</v>
+        <v>-1.9366535963349515E-2</v>
       </c>
       <c r="M81" s="8">
         <f t="shared" si="23"/>
-        <v>-2.2993056861508644E-2</v>
+        <v>-1.2816300784591441E-2</v>
       </c>
       <c r="N81" s="8">
         <f t="shared" si="24"/>
-        <v>-2.993551153393826E-2</v>
+        <v>-3.0211796102825244E-2</v>
       </c>
       <c r="O81" s="8">
         <f t="shared" si="25"/>
-        <v>0.53469748374276482</v>
+        <v>0.4958436288287707</v>
       </c>
       <c r="P81" s="8">
         <f t="shared" si="26"/>
-        <v>-8.4433494070082285E-3</v>
+        <v>-8.5212758238737887E-3</v>
       </c>
       <c r="Q81" s="8">
         <f t="shared" si="27"/>
-        <v>0.57740988638416491</v>
+        <v>0.49508346266445158</v>
       </c>
       <c r="R81" s="8">
         <f t="shared" si="28"/>
-        <v>-7.6757721881892975E-3</v>
+        <v>-7.7466143853398067E-3</v>
       </c>
       <c r="S81" s="8">
         <f t="shared" si="29"/>
-        <v>0.52023595280469581</v>
-      </c>
-      <c r="T81" s="21">
+        <v>0.44997559010572796</v>
+      </c>
+      <c r="T81" s="14">
         <f t="shared" si="15"/>
-        <v>4.1004581974908019E-3</v>
+        <v>4.1396530292750044E-3</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -7700,11 +7700,11 @@
       </c>
       <c r="G82" s="10">
         <f t="shared" si="17"/>
-        <v>3.5691302370744138</v>
+        <v>3.4940825977656309</v>
       </c>
       <c r="H82" s="10">
         <f t="shared" si="18"/>
-        <v>0.97259201249480243</v>
+        <v>0.97051893045241588</v>
       </c>
       <c r="I82" s="10">
         <f t="shared" si="19"/>
@@ -7712,47 +7712,47 @@
       </c>
       <c r="J82" s="10">
         <f t="shared" si="20"/>
-        <v>-8.6211857249552538E-3</v>
+        <v>-9.9534236361505917E-3</v>
       </c>
       <c r="K82" s="10">
         <f t="shared" si="21"/>
-        <v>-8.1072398585169264E-2</v>
+        <v>-3.0543722213252182E-2</v>
       </c>
       <c r="L82" s="8">
         <f t="shared" si="22"/>
-        <v>-4.6758973423486122E-3</v>
+        <v>-5.3984670568952365E-3</v>
       </c>
       <c r="M82" s="8">
         <f t="shared" si="23"/>
-        <v>-2.2525467127273782E-2</v>
+        <v>-1.2276454078901917E-2</v>
       </c>
       <c r="N82" s="8">
         <f t="shared" si="24"/>
-        <v>-7.0138460135229187E-3</v>
+        <v>-8.0977005853428534E-3</v>
       </c>
       <c r="O82" s="8">
         <f t="shared" si="25"/>
-        <v>0.5353988683441171</v>
+        <v>0.49665339888730498</v>
       </c>
       <c r="P82" s="8">
         <f t="shared" si="26"/>
-        <v>-2.6301922550710944E-3</v>
+        <v>-3.0366377195035705E-3</v>
       </c>
       <c r="Q82" s="8">
         <f t="shared" si="27"/>
-        <v>0.57767290560967199</v>
+        <v>0.49538712643640193</v>
       </c>
       <c r="R82" s="8">
         <f t="shared" si="28"/>
-        <v>-1.4612179194839414E-3</v>
+        <v>-1.6870209552797613E-3</v>
       </c>
       <c r="S82" s="8">
         <f t="shared" si="29"/>
-        <v>0.52038207459664421</v>
-      </c>
-      <c r="T82" s="21">
+        <v>0.45014429220125596</v>
+      </c>
+      <c r="T82" s="14">
         <f t="shared" si="15"/>
-        <v>7.5119777908506631E-4</v>
+        <v>8.691334616694915E-4</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -7777,11 +7777,11 @@
       </c>
       <c r="G83" s="10">
         <f t="shared" si="17"/>
-        <v>2.8553393859397871</v>
+        <v>2.8600703751960346</v>
       </c>
       <c r="H83" s="10">
         <f t="shared" si="18"/>
-        <v>0.94559402554238048</v>
+        <v>0.94583690338077886</v>
       </c>
       <c r="I83" s="10">
         <f t="shared" si="19"/>
@@ -7789,47 +7789,47 @@
       </c>
       <c r="J83" s="10">
         <f t="shared" si="20"/>
-        <v>-3.4147407466768358E-2</v>
+        <v>-3.385190062095772E-2</v>
       </c>
       <c r="K83" s="10">
         <f t="shared" si="21"/>
-        <v>-7.7657657838492433E-2</v>
+        <v>-2.7158532151156409E-2</v>
       </c>
       <c r="L83" s="8">
         <f t="shared" si="22"/>
-        <v>-1.5674219820811706E-2</v>
+        <v>-1.5538577334210102E-2</v>
       </c>
       <c r="M83" s="8">
         <f t="shared" si="23"/>
-        <v>-2.0958045145192613E-2</v>
+        <v>-1.0722596345480907E-2</v>
       </c>
       <c r="N83" s="8">
         <f t="shared" si="24"/>
-        <v>-2.239174260115958E-2</v>
+        <v>-2.2197967620300147E-2</v>
       </c>
       <c r="O83" s="8">
         <f t="shared" si="25"/>
-        <v>0.53763804260423309</v>
+        <v>0.49887319564933497</v>
       </c>
       <c r="P83" s="8">
         <f t="shared" si="26"/>
-        <v>-7.2773163453768632E-3</v>
+        <v>-7.2143394765975481E-3</v>
       </c>
       <c r="Q83" s="8">
         <f t="shared" si="27"/>
-        <v>0.57840063724420965</v>
+        <v>0.4961085603840617</v>
       </c>
       <c r="R83" s="8">
         <f t="shared" si="28"/>
-        <v>-5.5979356502898949E-3</v>
+        <v>-5.5494919050750368E-3</v>
       </c>
       <c r="S83" s="8">
         <f t="shared" si="29"/>
-        <v>0.5209418681616732</v>
-      </c>
-      <c r="T83" s="21">
+        <v>0.45069924139176348</v>
+      </c>
+      <c r="T83" s="14">
         <f t="shared" si="15"/>
-        <v>2.9600100566831477E-3</v>
+        <v>2.9336410353830843E-3</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -7854,11 +7854,11 @@
       </c>
       <c r="G84" s="10">
         <f t="shared" si="17"/>
-        <v>3.4813308755432466</v>
+        <v>3.4414354972336096</v>
       </c>
       <c r="H84" s="10">
         <f t="shared" si="18"/>
-        <v>0.97015188170314848</v>
+        <v>0.96897469878877007</v>
       </c>
       <c r="I84" s="10">
         <f t="shared" si="19"/>
@@ -7866,47 +7866,47 @@
       </c>
       <c r="J84" s="10">
         <f t="shared" si="20"/>
-        <v>-1.089040899038779E-2</v>
+        <v>-1.1752086935046814E-2</v>
       </c>
       <c r="K84" s="10">
         <f t="shared" si="21"/>
-        <v>-7.656861693945366E-2</v>
+        <v>-2.5983323457651728E-2</v>
       </c>
       <c r="L84" s="8">
         <f t="shared" si="22"/>
-        <v>-4.3215908692015043E-3</v>
+        <v>-4.663526561526514E-3</v>
       </c>
       <c r="M84" s="8">
         <f t="shared" si="23"/>
-        <v>-2.0525886058272463E-2</v>
+        <v>-1.0256243689328256E-2</v>
       </c>
       <c r="N84" s="8">
         <f t="shared" si="24"/>
-        <v>-8.4703181036349488E-3</v>
+        <v>-9.1405120605919672E-3</v>
       </c>
       <c r="O84" s="8">
         <f t="shared" si="25"/>
-        <v>0.53848507441459659</v>
+        <v>0.49978724685539416</v>
       </c>
       <c r="P84" s="8">
         <f t="shared" si="26"/>
-        <v>-2.5929545215209026E-3</v>
+        <v>-2.798115936915908E-3</v>
       </c>
       <c r="Q84" s="8">
         <f t="shared" si="27"/>
-        <v>0.57865993269636173</v>
+        <v>0.49638837197775332</v>
       </c>
       <c r="R84" s="8">
         <f t="shared" si="28"/>
-        <v>-1.7286363476806017E-3</v>
+        <v>-1.8654106246106055E-3</v>
       </c>
       <c r="S84" s="8">
         <f t="shared" si="29"/>
-        <v>0.5211147317964413</v>
-      </c>
-      <c r="T84" s="21">
+        <v>0.45088578245422456</v>
+      </c>
+      <c r="T84" s="14">
         <f t="shared" si="15"/>
-        <v>8.9091016586284263E-4</v>
+        <v>9.6256931524754522E-4</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -7931,11 +7931,11 @@
       </c>
       <c r="G85" s="10">
         <f t="shared" si="17"/>
-        <v>3.2218454564868493</v>
+        <v>3.2083361336260863</v>
       </c>
       <c r="H85" s="10">
         <f t="shared" si="18"/>
-        <v>0.96164813355028467</v>
+        <v>0.96114677709685115</v>
       </c>
       <c r="I85" s="10">
         <f t="shared" si="19"/>
@@ -7943,47 +7943,47 @@
       </c>
       <c r="J85" s="10">
         <f t="shared" si="20"/>
-        <v>-1.7256353645109176E-2</v>
+        <v>-1.7701238108389958E-2</v>
       </c>
       <c r="K85" s="10">
         <f t="shared" si="21"/>
-        <v>-7.4842981574942735E-2</v>
+        <v>-2.4213199646812733E-2</v>
       </c>
       <c r="L85" s="8">
         <f t="shared" si="22"/>
-        <v>-7.920949214148475E-3</v>
+        <v>-8.1251584759822765E-3</v>
       </c>
       <c r="M85" s="8">
         <f t="shared" si="23"/>
-        <v>-1.9733791136857616E-2</v>
+        <v>-9.4437278417300284E-3</v>
       </c>
       <c r="N85" s="8">
         <f t="shared" si="24"/>
-        <v>-1.3295879038034942E-2</v>
+        <v>-1.363865887039882E-2</v>
       </c>
       <c r="O85" s="8">
         <f t="shared" si="25"/>
-        <v>0.53981466231840003</v>
+        <v>0.50115111274243407</v>
       </c>
       <c r="P85" s="8">
         <f t="shared" si="26"/>
-        <v>-3.3946925203493464E-3</v>
+        <v>-3.4822107754209756E-3</v>
       </c>
       <c r="Q85" s="8">
         <f t="shared" si="27"/>
-        <v>0.57899940194839672</v>
+        <v>0.49673659305529544</v>
       </c>
       <c r="R85" s="8">
         <f t="shared" si="28"/>
-        <v>-2.8289104336244554E-3</v>
+        <v>-2.9018423128508129E-3</v>
       </c>
       <c r="S85" s="8">
         <f t="shared" si="29"/>
-        <v>0.52139762283980373</v>
-      </c>
-      <c r="T85" s="21">
+        <v>0.45117596668550963</v>
+      </c>
+      <c r="T85" s="14">
         <f t="shared" si="15"/>
-        <v>1.4708656601768006E-3</v>
+        <v>1.5095729299617706E-3</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -8008,11 +8008,11 @@
       </c>
       <c r="G86" s="10">
         <f t="shared" si="17"/>
-        <v>3.0590768169653186</v>
+        <v>3.0695320339692413</v>
       </c>
       <c r="H86" s="10">
         <f t="shared" si="18"/>
-        <v>0.95517278357763413</v>
+        <v>0.9556183279327769</v>
       </c>
       <c r="I86" s="10">
         <f t="shared" si="19"/>
@@ -8020,47 +8020,47 @@
       </c>
       <c r="J86" s="10">
         <f t="shared" si="20"/>
-        <v>-2.4568319580900229E-2</v>
+        <v>-2.4093603578953439E-2</v>
       </c>
       <c r="K86" s="10">
         <f t="shared" si="21"/>
-        <v>-7.2386149616852719E-2</v>
+        <v>-2.1803839288917388E-2</v>
       </c>
       <c r="L86" s="8">
         <f t="shared" si="22"/>
-        <v>-1.1132519810095415E-2</v>
+        <v>-1.0917414121713277E-2</v>
       </c>
       <c r="M86" s="8">
         <f t="shared" si="23"/>
-        <v>-1.8620539155848076E-2</v>
+        <v>-8.3519864295586999E-3</v>
       </c>
       <c r="N86" s="8">
         <f t="shared" si="24"/>
-        <v>-1.6506839718417338E-2</v>
+        <v>-1.6187889904609339E-2</v>
       </c>
       <c r="O86" s="8">
         <f t="shared" si="25"/>
-        <v>0.54146534629024179</v>
+        <v>0.50276990173289504</v>
       </c>
       <c r="P86" s="8">
         <f t="shared" si="26"/>
-        <v>-4.9904399148703584E-3</v>
+        <v>-4.8940132269749172E-3</v>
       </c>
       <c r="Q86" s="8">
         <f t="shared" si="27"/>
-        <v>0.57949844593988376</v>
+        <v>0.49722599437799292</v>
       </c>
       <c r="R86" s="8">
         <f t="shared" si="28"/>
-        <v>-3.8387999345156605E-3</v>
+        <v>-3.7646255592114746E-3</v>
       </c>
       <c r="S86" s="8">
         <f t="shared" si="29"/>
-        <v>0.52178150283325531</v>
-      </c>
-      <c r="T86" s="21">
+        <v>0.4515524292414308</v>
+      </c>
+      <c r="T86" s="14">
         <f t="shared" si="15"/>
-        <v>2.0094793321776281E-3</v>
+        <v>1.969732815482531E-3</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -8085,11 +8085,11 @@
       </c>
       <c r="G87" s="10">
         <f t="shared" si="17"/>
-        <v>3.1819166458873842</v>
+        <v>3.1908950903998283</v>
       </c>
       <c r="H87" s="10">
         <f t="shared" si="18"/>
-        <v>0.9601480675551306</v>
+        <v>0.96049020076870284</v>
       </c>
       <c r="I87" s="10">
         <f t="shared" si="19"/>
@@ -8097,47 +8097,47 @@
       </c>
       <c r="J87" s="10">
         <f t="shared" si="20"/>
-        <v>-2.0128476934119687E-2</v>
+        <v>-1.9791399951386183E-2</v>
       </c>
       <c r="K87" s="10">
         <f t="shared" si="21"/>
-        <v>-7.0373301923440754E-2</v>
+        <v>-1.982469929377877E-2</v>
       </c>
       <c r="L87" s="8">
         <f t="shared" si="22"/>
-        <v>-9.1493076973271307E-3</v>
+        <v>-8.9960908869937198E-3</v>
       </c>
       <c r="M87" s="8">
         <f t="shared" si="23"/>
-        <v>-1.7705608386115363E-2</v>
+        <v>-7.4523773408593282E-3</v>
       </c>
       <c r="N87" s="8">
         <f t="shared" si="24"/>
-        <v>-1.3418984622746459E-2</v>
+        <v>-1.3194266634257457E-2</v>
       </c>
       <c r="O87" s="8">
         <f t="shared" si="25"/>
-        <v>0.5428072447525164</v>
+        <v>0.50408932839632081</v>
       </c>
       <c r="P87" s="8">
         <f t="shared" si="26"/>
-        <v>-4.2696769254193271E-3</v>
+        <v>-4.1981757472637354E-3</v>
       </c>
       <c r="Q87" s="8">
         <f t="shared" si="27"/>
-        <v>0.57992541363242567</v>
+        <v>0.49764581195271929</v>
       </c>
       <c r="R87" s="8">
         <f t="shared" si="28"/>
-        <v>-3.0497692324423769E-3</v>
+        <v>-2.9986969623312398E-3</v>
       </c>
       <c r="S87" s="8">
         <f t="shared" si="29"/>
-        <v>0.52208647975649958</v>
-      </c>
-      <c r="T87" s="21">
+        <v>0.45185229893766393</v>
+      </c>
+      <c r="T87" s="14">
         <f t="shared" si="15"/>
-        <v>1.5881765195904342E-3</v>
+        <v>1.5610242352974096E-3</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -8162,11 +8162,11 @@
       </c>
       <c r="G88" s="10">
         <f t="shared" si="17"/>
-        <v>3.4113426770934541</v>
+        <v>3.4125106002217089</v>
       </c>
       <c r="H88" s="10">
         <f t="shared" si="18"/>
-        <v>0.96805714645010854</v>
+        <v>0.96809324182579459</v>
       </c>
       <c r="I88" s="10">
         <f t="shared" si="19"/>
@@ -8174,47 +8174,47 @@
       </c>
       <c r="J88" s="10">
         <f t="shared" si="20"/>
-        <v>-1.3433442615360123E-2</v>
+        <v>-1.3403599982723178E-2</v>
       </c>
       <c r="K88" s="10">
         <f t="shared" si="21"/>
-        <v>-6.9029957661904742E-2</v>
+        <v>-1.8484339295506452E-2</v>
       </c>
       <c r="L88" s="8">
         <f t="shared" si="22"/>
-        <v>-5.5314175475012269E-3</v>
+        <v>-5.5191294046507194E-3</v>
       </c>
       <c r="M88" s="8">
         <f t="shared" si="23"/>
-        <v>-1.7152466631365239E-2</v>
+        <v>-6.9004644003942562E-3</v>
       </c>
       <c r="N88" s="8">
         <f t="shared" si="24"/>
-        <v>-9.4824300814306747E-3</v>
+        <v>-9.461364693686948E-3</v>
       </c>
       <c r="O88" s="8">
         <f t="shared" si="25"/>
-        <v>0.54375548776065952</v>
+        <v>0.50503546486568951</v>
       </c>
       <c r="P88" s="8">
         <f t="shared" si="26"/>
-        <v>-2.7657087737506135E-3</v>
+        <v>-2.7595647023253597E-3</v>
       </c>
       <c r="Q88" s="8">
         <f t="shared" si="27"/>
-        <v>0.58020198450980076</v>
+        <v>0.49792176842295183</v>
       </c>
       <c r="R88" s="8">
         <f t="shared" si="28"/>
-        <v>-1.9755062669647239E-3</v>
+        <v>-1.9711176445181143E-3</v>
       </c>
       <c r="S88" s="8">
         <f t="shared" si="29"/>
-        <v>0.52228403038319604</v>
-      </c>
-      <c r="T88" s="21">
+        <v>0.45204941070211574</v>
+      </c>
+      <c r="T88" s="14">
         <f t="shared" si="15"/>
-        <v>1.0203458929098133E-3</v>
+        <v>1.0180412171872236E-3</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -8239,11 +8239,11 @@
       </c>
       <c r="G89" s="10">
         <f t="shared" si="17"/>
-        <v>3.713446726624297</v>
+        <v>3.6791472748685052</v>
       </c>
       <c r="H89" s="10">
         <f t="shared" si="18"/>
-        <v>0.9761875618797059</v>
+        <v>0.97537709940272754</v>
       </c>
       <c r="I89" s="10">
         <f t="shared" si="19"/>
@@ -8251,47 +8251,47 @@
       </c>
       <c r="J89" s="10">
         <f t="shared" si="20"/>
-        <v>-7.4172991838327507E-3</v>
+        <v>-7.9242063593199207E-3</v>
       </c>
       <c r="K89" s="10">
         <f t="shared" si="21"/>
-        <v>-6.8288227743521474E-2</v>
+        <v>-1.7691918659574458E-2</v>
       </c>
       <c r="L89" s="8">
         <f t="shared" si="22"/>
-        <v>-3.3211787390295898E-3</v>
+        <v>-3.5481521011880243E-3</v>
       </c>
       <c r="M89" s="8">
         <f t="shared" si="23"/>
-        <v>-1.6820348757462279E-2</v>
+        <v>-6.545649190275454E-3</v>
       </c>
       <c r="N89" s="8">
         <f t="shared" si="24"/>
-        <v>-5.5352978983826493E-3</v>
+        <v>-5.9135868353133742E-3</v>
       </c>
       <c r="O89" s="8">
         <f t="shared" si="25"/>
-        <v>0.54430901755049776</v>
+        <v>0.50562682354922084</v>
       </c>
       <c r="P89" s="8">
         <f t="shared" si="26"/>
-        <v>-1.882001285450101E-3</v>
+        <v>-2.0106195240065469E-3</v>
       </c>
       <c r="Q89" s="8">
         <f t="shared" si="27"/>
-        <v>0.5803901846383458</v>
+        <v>0.49812283037535249</v>
       </c>
       <c r="R89" s="8">
         <f t="shared" si="28"/>
-        <v>-1.1070595796765299E-3</v>
+        <v>-1.1827173670626748E-3</v>
       </c>
       <c r="S89" s="8">
         <f t="shared" si="29"/>
-        <v>0.52239473634116373</v>
-      </c>
-      <c r="T89" s="21">
+        <v>0.45216768243882199</v>
+      </c>
+      <c r="T89" s="14">
         <f t="shared" si="15"/>
-        <v>5.6703220923283557E-4</v>
+        <v>6.0628723382316033E-4</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -8316,11 +8316,11 @@
       </c>
       <c r="G90" s="10">
         <f t="shared" si="17"/>
-        <v>3.3838622144181532</v>
+        <v>3.3495387393640992</v>
       </c>
       <c r="H90" s="10">
         <f t="shared" si="18"/>
-        <v>0.96719636406051501</v>
+        <v>0.96608972687327033</v>
       </c>
       <c r="I90" s="10">
         <f t="shared" si="19"/>
@@ -8328,47 +8328,47 @@
       </c>
       <c r="J90" s="10">
         <f t="shared" si="20"/>
-        <v>-1.2489350909783557E-2</v>
+        <v>-1.3330955710263444E-2</v>
       </c>
       <c r="K90" s="10">
         <f t="shared" si="21"/>
-        <v>-6.7039292652543117E-2</v>
+        <v>-1.6358823088548115E-2</v>
       </c>
       <c r="L90" s="8">
         <f t="shared" si="22"/>
-        <v>-6.036519606395385E-3</v>
+        <v>-6.443295259960664E-3</v>
       </c>
       <c r="M90" s="8">
         <f t="shared" si="23"/>
-        <v>-1.6216696796822742E-2</v>
+        <v>-5.9013196642793871E-3</v>
       </c>
       <c r="N90" s="8">
         <f t="shared" si="24"/>
-        <v>-9.367013182337668E-3</v>
+        <v>-9.9982167826975828E-3</v>
       </c>
       <c r="O90" s="8">
         <f t="shared" si="25"/>
-        <v>0.54524571886873152</v>
+        <v>0.50662664522749057</v>
       </c>
       <c r="P90" s="8">
         <f t="shared" si="26"/>
-        <v>-3.1223377274458893E-3</v>
+        <v>-3.3327389275658609E-3</v>
       </c>
       <c r="Q90" s="8">
         <f t="shared" si="27"/>
-        <v>0.58070241841109038</v>
+        <v>0.4984561042681091</v>
       </c>
       <c r="R90" s="8">
         <f t="shared" si="28"/>
-        <v>-2.0815584849639261E-3</v>
+        <v>-2.2218259517105738E-3</v>
       </c>
       <c r="S90" s="8">
         <f t="shared" si="29"/>
-        <v>0.52260289218966016</v>
-      </c>
-      <c r="T90" s="21">
+        <v>0.45238986503399303</v>
+      </c>
+      <c r="T90" s="14">
         <f t="shared" si="15"/>
-        <v>1.0760785308502711E-3</v>
+        <v>1.1499066235294046E-3</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -8393,11 +8393,11 @@
       </c>
       <c r="G91" s="10">
         <f t="shared" si="17"/>
-        <v>2.5873779468500757</v>
+        <v>2.6154505048664682</v>
       </c>
       <c r="H91" s="10">
         <f t="shared" si="18"/>
-        <v>0.93004481300535646</v>
+        <v>0.9318493508494643</v>
       </c>
       <c r="I91" s="10">
         <f t="shared" si="19"/>
@@ -8405,47 +8405,47 @@
       </c>
       <c r="J91" s="10">
         <f t="shared" si="20"/>
-        <v>-5.1885806293812925E-2</v>
+        <v>-4.9339023771848234E-2</v>
       </c>
       <c r="K91" s="10">
         <f t="shared" si="21"/>
-        <v>-6.1850712023161822E-2</v>
+        <v>-1.1424920711363291E-2</v>
       </c>
       <c r="L91" s="8">
         <f t="shared" si="22"/>
-        <v>-2.3667209888405896E-2</v>
+        <v>-2.2505519615229019E-2</v>
       </c>
       <c r="M91" s="8">
         <f t="shared" si="23"/>
-        <v>-1.3849975807982152E-2</v>
+        <v>-3.650767702756485E-3</v>
       </c>
       <c r="N91" s="8">
         <f t="shared" si="24"/>
-        <v>-3.1859705619007937E-2</v>
+        <v>-3.0295891789731369E-2</v>
       </c>
       <c r="O91" s="8">
         <f t="shared" si="25"/>
-        <v>0.54843168943063236</v>
+        <v>0.50965623440646368</v>
       </c>
       <c r="P91" s="8">
         <f t="shared" si="26"/>
-        <v>-9.1027730340022678E-3</v>
+        <v>-8.6559690827803914E-3</v>
       </c>
       <c r="Q91" s="8">
         <f t="shared" si="27"/>
-        <v>0.58161269571449059</v>
+        <v>0.49932170117638713</v>
       </c>
       <c r="R91" s="8">
         <f t="shared" si="28"/>
-        <v>-9.1027730340022678E-3</v>
+        <v>-8.6559690827803914E-3</v>
       </c>
       <c r="S91" s="8">
         <f t="shared" si="29"/>
-        <v>0.52351316949306037</v>
-      </c>
-      <c r="T91" s="21">
+        <v>0.45325546194227107</v>
+      </c>
+      <c r="T91" s="14">
         <f t="shared" si="15"/>
-        <v>4.8937281874555441E-3</v>
+        <v>4.6445109796394123E-3</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -8470,11 +8470,11 @@
       </c>
       <c r="G92" s="10">
         <f t="shared" si="17"/>
-        <v>2.8739086965488556</v>
+        <v>2.8676041175817453</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="18"/>
-        <v>0.94654147485046758</v>
+        <v>0.94622155908891792</v>
       </c>
       <c r="I92" s="10">
         <f t="shared" si="19"/>
@@ -8482,47 +8482,47 @@
       </c>
       <c r="J92" s="10">
         <f t="shared" si="20"/>
-        <v>-2.9755433337526484E-2</v>
+        <v>-3.0102456607156429E-2</v>
       </c>
       <c r="K92" s="10">
         <f t="shared" si="21"/>
-        <v>-5.8875168689409174E-2</v>
+        <v>-8.4146750506476475E-3</v>
       </c>
       <c r="L92" s="8">
         <f t="shared" si="22"/>
-        <v>-1.2984189092738829E-2</v>
+        <v>-1.3135617428577351E-2</v>
       </c>
       <c r="M92" s="8">
         <f t="shared" si="23"/>
-        <v>-1.2551556898708269E-2</v>
+        <v>-2.3372059598987501E-3</v>
       </c>
       <c r="N92" s="8">
         <f t="shared" si="24"/>
-        <v>-2.0558299396836479E-2</v>
+        <v>-2.0798060928580806E-2</v>
       </c>
       <c r="O92" s="8">
         <f t="shared" si="25"/>
-        <v>0.55048751937031604</v>
+        <v>0.51173604049932175</v>
       </c>
       <c r="P92" s="8">
         <f t="shared" si="26"/>
-        <v>-5.9510866675052971E-3</v>
+        <v>-6.0204913214312863E-3</v>
       </c>
       <c r="Q92" s="8">
         <f t="shared" si="27"/>
-        <v>0.58220780438124109</v>
+        <v>0.49992375030853026</v>
       </c>
       <c r="R92" s="8">
         <f t="shared" si="28"/>
-        <v>-5.4100787886411789E-3</v>
+        <v>-5.4731739285738962E-3</v>
       </c>
       <c r="S92" s="8">
         <f t="shared" si="29"/>
-        <v>0.5240541773719245</v>
-      </c>
-      <c r="T92" s="21">
+        <v>0.45380277933512847</v>
+      </c>
+      <c r="T92" s="14">
         <f t="shared" si="15"/>
-        <v>2.8578139111631903E-3</v>
+        <v>2.8921207068267471E-3</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -8547,11 +8547,11 @@
       </c>
       <c r="G93" s="10">
         <f t="shared" si="17"/>
-        <v>2.7891286390746846</v>
+        <v>2.7952598724088302</v>
       </c>
       <c r="H93" s="10">
         <f t="shared" si="18"/>
-        <v>0.94208551964666842</v>
+        <v>0.94241913682111955</v>
       </c>
       <c r="I93" s="10">
         <f t="shared" si="19"/>
@@ -8559,47 +8559,47 @@
       </c>
       <c r="J93" s="10">
         <f t="shared" si="20"/>
-        <v>-3.475820509620723E-2</v>
+        <v>-3.4371075632172558E-2</v>
       </c>
       <c r="K93" s="10">
         <f t="shared" si="21"/>
-        <v>-5.5399348179788449E-2</v>
+        <v>-4.9775674874303916E-3</v>
       </c>
       <c r="L93" s="8">
         <f t="shared" si="22"/>
-        <v>-1.5167216769254062E-2</v>
+        <v>-1.4998287548584389E-2</v>
       </c>
       <c r="M93" s="8">
         <f t="shared" si="23"/>
-        <v>-1.1034835221782863E-2</v>
+        <v>-8.3737720504031116E-4</v>
       </c>
       <c r="N93" s="8">
         <f t="shared" si="24"/>
-        <v>-2.3382792519266681E-2</v>
+        <v>-2.3122359970734269E-2</v>
       </c>
       <c r="O93" s="8">
         <f t="shared" si="25"/>
-        <v>0.55282579862224268</v>
+        <v>0.51404827649639517</v>
       </c>
       <c r="P93" s="8">
         <f t="shared" si="26"/>
-        <v>-6.3196736538558597E-3</v>
+        <v>-6.2492864785768289E-3</v>
       </c>
       <c r="Q93" s="8">
         <f t="shared" si="27"/>
-        <v>0.58283977174662671</v>
+        <v>0.50054867895638799</v>
       </c>
       <c r="R93" s="8">
         <f t="shared" si="28"/>
-        <v>-6.3196736538558597E-3</v>
+        <v>-6.2492864785768289E-3</v>
       </c>
       <c r="S93" s="8">
         <f t="shared" si="29"/>
-        <v>0.52468614473731012</v>
-      </c>
-      <c r="T93" s="21">
+        <v>0.45442770798298615</v>
+      </c>
+      <c r="T93" s="14">
         <f t="shared" si="15"/>
-        <v>3.354087034596429E-3</v>
+        <v>3.3155558044249502E-3</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -8624,11 +8624,11 @@
       </c>
       <c r="G94" s="10">
         <f t="shared" si="17"/>
-        <v>3.0290042109184219</v>
+        <v>3.0287435911858873</v>
       </c>
       <c r="H94" s="10">
         <f t="shared" si="18"/>
-        <v>0.95386737225806928</v>
+        <v>0.9538559024843839</v>
       </c>
       <c r="I94" s="10">
         <f t="shared" si="19"/>
@@ -8636,47 +8636,47 @@
       </c>
       <c r="J94" s="10">
         <f t="shared" si="20"/>
-        <v>-2.354845230372659E-2</v>
+        <v>-2.3559879978348547E-2</v>
       </c>
       <c r="K94" s="10">
         <f t="shared" si="21"/>
-        <v>-5.3044502949415789E-2</v>
+        <v>-2.6215794895955366E-3</v>
       </c>
       <c r="L94" s="8">
         <f t="shared" si="22"/>
-        <v>-1.0962210555183068E-2</v>
+        <v>-1.0967530334748463E-2</v>
       </c>
       <c r="M94" s="8">
         <f t="shared" si="23"/>
-        <v>-9.9386141662645561E-3</v>
+        <v>2.5937582843453522E-4</v>
       </c>
       <c r="N94" s="8">
         <f t="shared" si="24"/>
-        <v>-1.5834304135264432E-2</v>
+        <v>-1.5841988261303334E-2</v>
       </c>
       <c r="O94" s="8">
         <f t="shared" si="25"/>
-        <v>0.55440922903576917</v>
+        <v>0.51563247532252554</v>
       </c>
       <c r="P94" s="8">
         <f t="shared" si="26"/>
-        <v>-4.8720935800813632E-3</v>
+        <v>-4.8744579265548723E-3</v>
       </c>
       <c r="Q94" s="8">
         <f t="shared" si="27"/>
-        <v>0.58332698110463488</v>
+        <v>0.50103612474904347</v>
       </c>
       <c r="R94" s="8">
         <f t="shared" si="28"/>
-        <v>-4.0600779834011362E-3</v>
+        <v>-4.0620482721290601E-3</v>
       </c>
       <c r="S94" s="8">
         <f t="shared" si="29"/>
-        <v>0.52509215253565023</v>
-      </c>
-      <c r="T94" s="21">
+        <v>0.45483391281019908</v>
+      </c>
+      <c r="T94" s="14">
         <f t="shared" si="15"/>
-        <v>2.1282193423755561E-3</v>
+        <v>2.1292777355306882E-3</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -8701,11 +8701,11 @@
       </c>
       <c r="G95" s="10">
         <f t="shared" si="17"/>
-        <v>3.9408011144400796</v>
+        <v>3.8711881743527488</v>
       </c>
       <c r="H95" s="10">
         <f t="shared" si="18"/>
-        <v>0.98093778759995198</v>
+        <v>0.97959157929867768</v>
       </c>
       <c r="I95" s="10">
         <f t="shared" si="19"/>
@@ -8713,47 +8713,47 @@
       </c>
       <c r="J95" s="10">
         <f t="shared" si="20"/>
-        <v>-4.2772961364322985E-3</v>
+        <v>-4.8960414492575377E-3</v>
       </c>
       <c r="K95" s="10">
         <f t="shared" si="21"/>
-        <v>-5.2616773335772561E-2</v>
+        <v>-2.1319753446697827E-3</v>
       </c>
       <c r="L95" s="8">
         <f t="shared" si="22"/>
-        <v>-1.9247832613945345E-3</v>
+        <v>-2.2032186521658919E-3</v>
       </c>
       <c r="M95" s="8">
         <f t="shared" si="23"/>
-        <v>-9.7461358401251027E-3</v>
+        <v>4.7969769365112445E-4</v>
       </c>
       <c r="N95" s="8">
         <f t="shared" si="24"/>
-        <v>-3.6357017159674536E-3</v>
+        <v>-4.1616352318689064E-3</v>
       </c>
       <c r="O95" s="8">
         <f t="shared" si="25"/>
-        <v>0.55477279920736589</v>
+        <v>0.51604863884571239</v>
       </c>
       <c r="P95" s="8">
         <f t="shared" si="26"/>
-        <v>-1.1406123030486129E-3</v>
+        <v>-1.3056110531353433E-3</v>
       </c>
       <c r="Q95" s="8">
         <f t="shared" si="27"/>
-        <v>0.58344104233493976</v>
+        <v>0.50116668585435697</v>
       </c>
       <c r="R95" s="8">
         <f t="shared" si="28"/>
-        <v>-7.1288268940538312E-4</v>
+        <v>-8.1600690820958954E-4</v>
       </c>
       <c r="S95" s="8">
         <f t="shared" si="29"/>
-        <v>0.52516344080459076</v>
-      </c>
-      <c r="T95" s="21">
+        <v>0.45491551350102005</v>
+      </c>
+      <c r="T95" s="14">
         <f t="shared" si="15"/>
-        <v>3.633679415845444E-4</v>
+        <v>4.1650363552216124E-4</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -8778,11 +8778,11 @@
       </c>
       <c r="G96" s="10">
         <f t="shared" si="17"/>
-        <v>3.5834336172065995</v>
+        <v>3.5188108433079979</v>
       </c>
       <c r="H96" s="10">
         <f t="shared" si="18"/>
-        <v>0.97297072823984698</v>
+        <v>0.97121828077325023</v>
       </c>
       <c r="I96" s="10">
         <f t="shared" si="19"/>
@@ -8790,47 +8790,47 @@
       </c>
       <c r="J96" s="10">
         <f t="shared" si="20"/>
-        <v>-7.6770120072523502E-3</v>
+        <v>-8.6890854512901485E-3</v>
       </c>
       <c r="K96" s="10">
         <f t="shared" si="21"/>
-        <v>-5.1849072135047324E-2</v>
+        <v>-1.2630667995407678E-3</v>
       </c>
       <c r="L96" s="8">
         <f t="shared" si="22"/>
-        <v>-4.2650066706957498E-3</v>
+        <v>-4.8272696951611929E-3</v>
       </c>
       <c r="M96" s="8">
         <f t="shared" si="23"/>
-        <v>-9.319635173055528E-3</v>
+        <v>9.6242466316724369E-4</v>
       </c>
       <c r="N96" s="8">
         <f t="shared" si="24"/>
-        <v>-6.3975100060436252E-3</v>
+        <v>-7.2409045427417893E-3</v>
       </c>
       <c r="O96" s="8">
         <f t="shared" si="25"/>
-        <v>0.5554125502079702</v>
+        <v>0.51677272929998652</v>
       </c>
       <c r="P96" s="8">
         <f t="shared" si="26"/>
-        <v>-2.1325033353478749E-3</v>
+        <v>-2.4136348475805964E-3</v>
       </c>
       <c r="Q96" s="8">
         <f t="shared" si="27"/>
-        <v>0.58365429266847457</v>
+        <v>0.50140804933911498</v>
       </c>
       <c r="R96" s="8">
         <f t="shared" si="28"/>
-        <v>-1.4216688902319167E-3</v>
+        <v>-1.6090898983870644E-3</v>
       </c>
       <c r="S96" s="8">
         <f t="shared" si="29"/>
-        <v>0.52530560769361401</v>
-      </c>
-      <c r="T96" s="21">
+        <v>0.45507642249085878</v>
+      </c>
+      <c r="T96" s="14">
         <f t="shared" si="15"/>
-        <v>7.3058153188420541E-4</v>
+        <v>8.283873616474573E-4</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -8855,11 +8855,11 @@
       </c>
       <c r="G97" s="10">
         <f t="shared" si="17"/>
-        <v>3.6157277595003667</v>
+        <v>3.5785004263409061</v>
       </c>
       <c r="H97" s="10">
         <f t="shared" si="18"/>
-        <v>0.97380717316814114</v>
+        <v>0.97284068863096729</v>
       </c>
       <c r="I97" s="10">
         <f t="shared" si="19"/>
@@ -8867,47 +8867,47 @@
       </c>
       <c r="J97" s="10">
         <f t="shared" si="20"/>
-        <v>-8.0171306069810374E-3</v>
+        <v>-8.6111366429226961E-3</v>
       </c>
       <c r="K97" s="10">
         <f t="shared" si="21"/>
-        <v>-5.1047359074349222E-2</v>
+        <v>-4.0195313524849809E-4</v>
       </c>
       <c r="L97" s="8">
         <f t="shared" si="22"/>
-        <v>-4.543040677289255E-3</v>
+        <v>-4.8796440976561946E-3</v>
       </c>
       <c r="M97" s="8">
         <f t="shared" si="23"/>
-        <v>-8.8653311053266022E-3</v>
+        <v>1.4503890729328632E-3</v>
       </c>
       <c r="N97" s="8">
         <f t="shared" si="24"/>
-        <v>-6.0128479552357785E-3</v>
+        <v>-6.4583524821920221E-3</v>
       </c>
       <c r="O97" s="8">
         <f t="shared" si="25"/>
-        <v>0.55601383500349377</v>
+        <v>0.51741856454820567</v>
       </c>
       <c r="P97" s="8">
         <f t="shared" si="26"/>
-        <v>-2.1379014951949434E-3</v>
+        <v>-2.2963031047793857E-3</v>
       </c>
       <c r="Q97" s="8">
         <f t="shared" si="27"/>
-        <v>0.58386808281799407</v>
+        <v>0.50163767964959294</v>
       </c>
       <c r="R97" s="8">
         <f t="shared" si="28"/>
-        <v>-1.3361884344968396E-3</v>
+        <v>-1.4351894404871161E-3</v>
       </c>
       <c r="S97" s="8">
         <f t="shared" si="29"/>
-        <v>0.52543922653706365</v>
-      </c>
-      <c r="T97" s="21">
+        <v>0.45521994143490752</v>
+      </c>
+      <c r="T97" s="14">
         <f t="shared" si="15"/>
-        <v>6.8606417744374558E-4</v>
+        <v>7.3762819404006954E-4</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -8932,11 +8932,11 @@
       </c>
       <c r="G98" s="10">
         <f t="shared" si="17"/>
-        <v>3.6450065430558234</v>
+        <v>3.6413468344057907</v>
       </c>
       <c r="H98" s="10">
         <f t="shared" si="18"/>
-        <v>0.97454370992354722</v>
+        <v>0.97445276104515177</v>
       </c>
       <c r="I98" s="10">
         <f t="shared" si="19"/>
@@ -8944,47 +8944,47 @@
       </c>
       <c r="J98" s="10">
         <f t="shared" si="20"/>
-        <v>-8.4624544369108629E-3</v>
+        <v>-8.5222354615117225E-3</v>
       </c>
       <c r="K98" s="10">
         <f t="shared" si="21"/>
-        <v>-5.0201113630658135E-2</v>
+        <v>4.502704109026742E-4</v>
       </c>
       <c r="L98" s="8">
         <f t="shared" si="22"/>
-        <v>-3.9154639931975634E-3</v>
+        <v>-3.9431238702516925E-3</v>
       </c>
       <c r="M98" s="8">
         <f t="shared" si="23"/>
-        <v>-8.4737847060068466E-3</v>
+        <v>1.8447014599580324E-3</v>
       </c>
       <c r="N98" s="8">
         <f t="shared" si="24"/>
-        <v>-5.9363486348479192E-3</v>
+        <v>-5.9782845774783728E-3</v>
       </c>
       <c r="O98" s="8">
         <f t="shared" si="25"/>
-        <v>0.55660746986697851</v>
+        <v>0.51801639300595348</v>
       </c>
       <c r="P98" s="8">
         <f t="shared" si="26"/>
-        <v>-1.894579351547208E-3</v>
+        <v>-1.9079631630250127E-3</v>
       </c>
       <c r="Q98" s="8">
         <f t="shared" si="27"/>
-        <v>0.58405754075314875</v>
+        <v>0.50182847596589542</v>
       </c>
       <c r="R98" s="8">
         <f t="shared" si="28"/>
-        <v>-1.2630529010314721E-3</v>
+        <v>-1.2719754420166751E-3</v>
       </c>
       <c r="S98" s="8">
         <f t="shared" si="29"/>
-        <v>0.52556553182716681</v>
-      </c>
-      <c r="T98" s="21">
+        <v>0.45534713897910917</v>
+      </c>
+      <c r="T98" s="14">
         <f t="shared" si="15"/>
-        <v>6.4802270445650837E-4</v>
+        <v>6.5266141821611475E-4</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -9009,11 +9009,11 @@
       </c>
       <c r="G99" s="10">
         <f t="shared" si="17"/>
-        <v>3.398156481524004</v>
+        <v>3.3940758039075596</v>
       </c>
       <c r="H99" s="10">
         <f t="shared" si="18"/>
-        <v>0.96764686998320137</v>
+        <v>0.96751887456031338</v>
       </c>
       <c r="I99" s="10">
         <f t="shared" si="19"/>
@@ -9021,47 +9021,47 @@
       </c>
       <c r="J99" s="10">
         <f t="shared" si="20"/>
-        <v>-1.2762038408603788E-2</v>
+        <v>-1.2861515001687588E-2</v>
       </c>
       <c r="K99" s="10">
         <f t="shared" si="21"/>
-        <v>-4.8924909789797758E-2</v>
+        <v>1.7364219110714333E-3</v>
       </c>
       <c r="L99" s="8">
         <f t="shared" si="22"/>
-        <v>-4.6591568793315418E-3</v>
+        <v>-4.6954737307748334E-3</v>
       </c>
       <c r="M99" s="8">
         <f t="shared" si="23"/>
-        <v>-8.0078690180736926E-3</v>
+        <v>2.3142488330355157E-3</v>
       </c>
       <c r="N99" s="8">
         <f t="shared" si="24"/>
-        <v>-8.9131696821994726E-3</v>
+        <v>-8.9826453980040317E-3</v>
       </c>
       <c r="O99" s="8">
         <f t="shared" si="25"/>
-        <v>0.55749878683519849</v>
+        <v>0.51891465754575383</v>
       </c>
       <c r="P99" s="8">
         <f t="shared" si="26"/>
-        <v>-2.6334364970134801E-3</v>
+        <v>-2.6539634130466456E-3</v>
       </c>
       <c r="Q99" s="8">
         <f t="shared" si="27"/>
-        <v>0.58432088440285013</v>
+        <v>0.50209387230720004</v>
       </c>
       <c r="R99" s="8">
         <f t="shared" si="28"/>
-        <v>-2.0257203823180617E-3</v>
+        <v>-2.0415103177281887E-3</v>
       </c>
       <c r="S99" s="8">
         <f t="shared" si="29"/>
-        <v>0.52576810386539863</v>
-      </c>
-      <c r="T99" s="21">
+        <v>0.45555129001088196</v>
+      </c>
+      <c r="T99" s="14">
         <f t="shared" si="15"/>
-        <v>1.0467250218838763E-3</v>
+        <v>1.0550235098286574E-3</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -9086,11 +9086,11 @@
       </c>
       <c r="G100" s="10">
         <f t="shared" si="17"/>
-        <v>3.2731271777363289</v>
+        <v>3.252490129148939</v>
       </c>
       <c r="H100" s="10">
         <f t="shared" si="18"/>
-        <v>0.96349531945356581</v>
+        <v>0.96276248769902939</v>
       </c>
       <c r="I100" s="10">
         <f t="shared" si="19"/>
@@ -9098,47 +9098,47 @@
       </c>
       <c r="J100" s="10">
         <f t="shared" si="20"/>
-        <v>-1.4380193715151869E-2</v>
+        <v>-1.4951972943084235E-2</v>
       </c>
       <c r="K100" s="10">
         <f t="shared" si="21"/>
-        <v>-4.7486890418282572E-2</v>
+        <v>3.231619205379857E-3</v>
       </c>
       <c r="L100" s="8">
         <f t="shared" si="22"/>
-        <v>-7.7036752045456453E-3</v>
+        <v>-8.0099855052236969E-3</v>
       </c>
       <c r="M100" s="8">
         <f t="shared" si="23"/>
-        <v>-7.2375014976191285E-3</v>
+        <v>3.1152473835578853E-3</v>
       </c>
       <c r="N100" s="8">
         <f t="shared" si="24"/>
-        <v>-1.0528356112879047E-2</v>
+        <v>-1.0946980190472386E-2</v>
       </c>
       <c r="O100" s="8">
         <f t="shared" si="25"/>
-        <v>0.55855162244648637</v>
+        <v>0.5200093555648011</v>
       </c>
       <c r="P100" s="8">
         <f t="shared" si="26"/>
-        <v>-3.338259255303113E-3</v>
+        <v>-3.470993718930269E-3</v>
       </c>
       <c r="Q100" s="8">
         <f t="shared" si="27"/>
-        <v>0.58465471032838046</v>
+        <v>0.50244097167909307</v>
       </c>
       <c r="R100" s="8">
         <f t="shared" si="28"/>
-        <v>-2.5678917348485484E-3</v>
+        <v>-2.6699951684078993E-3</v>
       </c>
       <c r="S100" s="8">
         <f t="shared" si="29"/>
-        <v>0.52602489303888345</v>
-      </c>
-      <c r="T100" s="21">
+        <v>0.45581828952772274</v>
+      </c>
+      <c r="T100" s="14">
         <f t="shared" si="15"/>
-        <v>1.3325917017972106E-3</v>
+        <v>1.3866323223649375E-3</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -9163,11 +9163,11 @@
       </c>
       <c r="G101" s="10">
         <f t="shared" si="17"/>
-        <v>3.2410108552071217</v>
+        <v>3.214590999058232</v>
       </c>
       <c r="H101" s="10">
         <f t="shared" si="18"/>
-        <v>0.9623487523386921</v>
+        <v>0.96137968404103913</v>
       </c>
       <c r="I101" s="10">
         <f t="shared" si="19"/>
@@ -9175,47 +9175,47 @@
       </c>
       <c r="J101" s="10">
         <f t="shared" si="20"/>
-        <v>-1.5006655646272267E-2</v>
+        <v>-1.577318040174646E-2</v>
       </c>
       <c r="K101" s="10">
         <f t="shared" si="21"/>
-        <v>-4.5986224853655347E-2</v>
+        <v>4.8089372455545031E-3</v>
       </c>
       <c r="L101" s="8">
         <f t="shared" si="22"/>
-        <v>-6.8212071119419394E-3</v>
+        <v>-7.1696274553393006E-3</v>
       </c>
       <c r="M101" s="8">
         <f t="shared" si="23"/>
-        <v>-6.5553807864249343E-3</v>
+        <v>3.8322101290918153E-3</v>
       </c>
       <c r="N101" s="8">
         <f t="shared" si="24"/>
-        <v>-1.0913931379107103E-2</v>
+        <v>-1.1471403928542881E-2</v>
       </c>
       <c r="O101" s="8">
         <f t="shared" si="25"/>
-        <v>0.55964301558439711</v>
+        <v>0.52115649595765534</v>
       </c>
       <c r="P101" s="8">
         <f t="shared" si="26"/>
-        <v>-3.5470276982098089E-3</v>
+        <v>-3.7282062767764364E-3</v>
       </c>
       <c r="Q101" s="8">
         <f t="shared" si="27"/>
-        <v>0.58500941309820143</v>
+        <v>0.5028137923067707</v>
       </c>
       <c r="R101" s="8">
         <f t="shared" si="28"/>
-        <v>-2.7284828447767758E-3</v>
+        <v>-2.8678509821357203E-3</v>
       </c>
       <c r="S101" s="8">
         <f t="shared" si="29"/>
-        <v>0.52629774132336116</v>
-      </c>
-      <c r="T101" s="21">
+        <v>0.4561050746259363</v>
+      </c>
+      <c r="T101" s="14">
         <f t="shared" si="15"/>
-        <v>1.4176164504531433E-3</v>
+        <v>1.4915288047699677E-3</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -9240,11 +9240,11 @@
       </c>
       <c r="G102" s="10">
         <f t="shared" si="17"/>
-        <v>3.4207700788727413</v>
+        <v>3.3889831087939335</v>
       </c>
       <c r="H102" s="10">
         <f t="shared" si="18"/>
-        <v>0.9683473825163339</v>
+        <v>0.96735844939170934</v>
       </c>
       <c r="I102" s="10">
         <f t="shared" si="19"/>
@@ -9252,47 +9252,47 @@
       </c>
       <c r="J102" s="10">
         <f t="shared" si="20"/>
-        <v>-1.0671933907963883E-2</v>
+        <v>-1.1337614268434914E-2</v>
       </c>
       <c r="K102" s="10">
         <f t="shared" si="21"/>
-        <v>-4.4919031462858958E-2</v>
+        <v>5.9426986723979947E-3</v>
       </c>
       <c r="L102" s="8">
         <f t="shared" si="22"/>
-        <v>-5.0449142110374715E-3</v>
+        <v>-5.3595994723510511E-3</v>
       </c>
       <c r="M102" s="8">
         <f t="shared" si="23"/>
-        <v>-6.0508893653211868E-3</v>
+        <v>4.3681700763269207E-3</v>
       </c>
       <c r="N102" s="8">
         <f t="shared" si="24"/>
-        <v>-8.5375471263711058E-3</v>
+        <v>-9.0700914147479328E-3</v>
       </c>
       <c r="O102" s="8">
         <f t="shared" si="25"/>
-        <v>0.56049677029703426</v>
+        <v>0.52206350509913013</v>
       </c>
       <c r="P102" s="8">
         <f t="shared" si="26"/>
-        <v>-2.3284219435557559E-3</v>
+        <v>-2.4736612949312542E-3</v>
       </c>
       <c r="Q102" s="8">
         <f t="shared" si="27"/>
-        <v>0.58524225529255702</v>
+        <v>0.50306115843626387</v>
       </c>
       <c r="R102" s="8">
         <f t="shared" si="28"/>
-        <v>-1.9403516196297968E-3</v>
+        <v>-2.0613844124427118E-3</v>
       </c>
       <c r="S102" s="8">
         <f t="shared" si="29"/>
-        <v>0.52649177648532408</v>
-      </c>
-      <c r="T102" s="21">
+        <v>0.45631121306718059</v>
+      </c>
+      <c r="T102" s="14">
         <f t="shared" si="15"/>
-        <v>1.0018881935672849E-3</v>
+        <v>1.0654708261136003E-3</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -9317,11 +9317,11 @@
       </c>
       <c r="G103" s="10">
         <f t="shared" si="17"/>
-        <v>3.6319573172418584</v>
+        <v>3.6114439304645569</v>
       </c>
       <c r="H103" s="10">
         <f t="shared" si="18"/>
-        <v>0.97421796873743249</v>
+        <v>0.97369768449612126</v>
       </c>
       <c r="I103" s="10">
         <f t="shared" si="19"/>
@@ -9329,47 +9329,47 @@
       </c>
       <c r="J103" s="10">
         <f t="shared" si="20"/>
-        <v>-7.9004208702788559E-3</v>
+        <v>-8.218109693040862E-3</v>
       </c>
       <c r="K103" s="10">
         <f t="shared" si="21"/>
-        <v>-4.4128989375831075E-2</v>
+        <v>6.7645096417020805E-3</v>
       </c>
       <c r="L103" s="8">
         <f t="shared" si="22"/>
-        <v>-3.8854528870223884E-3</v>
+        <v>-4.0416932916594404E-3</v>
       </c>
       <c r="M103" s="8">
         <f t="shared" si="23"/>
-        <v>-5.6623440766189479E-3</v>
+        <v>4.7723394054928646E-3</v>
       </c>
       <c r="N103" s="8">
         <f t="shared" si="24"/>
-        <v>-5.9576944267676615E-3</v>
+        <v>-6.1972630472111418E-3</v>
       </c>
       <c r="O103" s="8">
         <f t="shared" si="25"/>
-        <v>0.56109253973971107</v>
+        <v>0.5226832314038512</v>
       </c>
       <c r="P103" s="8">
         <f t="shared" si="26"/>
-        <v>-1.8132113472771145E-3</v>
+        <v>-1.8861235361077389E-3</v>
       </c>
       <c r="Q103" s="8">
         <f t="shared" si="27"/>
-        <v>0.58542357642728471</v>
+        <v>0.50324977078987465</v>
       </c>
       <c r="R103" s="8">
         <f t="shared" si="28"/>
-        <v>-1.2951509623407961E-3</v>
+        <v>-1.3472310972198135E-3</v>
       </c>
       <c r="S103" s="8">
         <f t="shared" si="29"/>
-        <v>0.52662129158155813</v>
-      </c>
-      <c r="T103" s="21">
+        <v>0.45644593617690254</v>
+      </c>
+      <c r="T103" s="14">
         <f t="shared" si="15"/>
-        <v>6.6471313602400829E-4</v>
+        <v>6.9181180086557977E-4</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -9394,11 +9394,11 @@
       </c>
       <c r="G104" s="10">
         <f t="shared" si="17"/>
-        <v>3.2028295092741144</v>
+        <v>3.2027208251163106</v>
       </c>
       <c r="H104" s="10">
         <f t="shared" si="18"/>
-        <v>0.96094061665160868</v>
+        <v>0.96093653712350158</v>
       </c>
       <c r="I104" s="10">
         <f t="shared" si="19"/>
@@ -9406,47 +9406,47 @@
       </c>
       <c r="J104" s="10">
         <f t="shared" si="20"/>
-        <v>-1.7006122563084525E-2</v>
+        <v>-1.7009602920120305E-2</v>
       </c>
       <c r="K104" s="10">
         <f t="shared" si="21"/>
-        <v>-4.2428377119522624E-2</v>
+        <v>8.465469933714111E-3</v>
       </c>
       <c r="L104" s="8">
         <f t="shared" si="22"/>
-        <v>-7.623434252417201E-3</v>
+        <v>-7.6249944124677236E-3</v>
       </c>
       <c r="M104" s="8">
         <f t="shared" si="23"/>
-        <v>-4.900000651377228E-3</v>
+        <v>5.534838846739637E-3</v>
       </c>
       <c r="N104" s="8">
         <f t="shared" si="24"/>
-        <v>-1.1728360388334155E-2</v>
+        <v>-1.1730760634565728E-2</v>
       </c>
       <c r="O104" s="8">
         <f t="shared" si="25"/>
-        <v>0.56226537577854452</v>
+        <v>0.52385630746730782</v>
       </c>
       <c r="P104" s="8">
         <f t="shared" si="26"/>
-        <v>-3.5185081165002461E-3</v>
+        <v>-3.5192281903697184E-3</v>
       </c>
       <c r="Q104" s="8">
         <f t="shared" si="27"/>
-        <v>0.58577542723893472</v>
+        <v>0.5036016936089116</v>
       </c>
       <c r="R104" s="8">
         <f t="shared" si="28"/>
-        <v>-2.9320900970835387E-3</v>
+        <v>-2.932690158641432E-3</v>
       </c>
       <c r="S104" s="8">
         <f t="shared" si="29"/>
-        <v>0.52691450059126643</v>
-      </c>
-      <c r="T104" s="21">
+        <v>0.45673920519276667</v>
+      </c>
+      <c r="T104" s="14">
         <f t="shared" si="15"/>
-        <v>1.5256354275565891E-3</v>
+        <v>1.5259541319035705E-3</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -9471,11 +9471,11 @@
       </c>
       <c r="G105" s="10">
         <f t="shared" si="17"/>
-        <v>2.7447537808036171</v>
+        <v>2.7441241924598661</v>
       </c>
       <c r="H105" s="10">
         <f t="shared" si="18"/>
-        <v>0.9396163767428739</v>
+        <v>0.93958064562316723</v>
       </c>
       <c r="I105" s="10">
         <f t="shared" si="19"/>
@@ -9483,47 +9483,47 @@
       </c>
       <c r="J105" s="10">
         <f t="shared" si="20"/>
-        <v>-3.426012280000356E-2</v>
+        <v>-3.4299376278398394E-2</v>
       </c>
       <c r="K105" s="10">
         <f t="shared" si="21"/>
-        <v>-3.9002364839522269E-2</v>
+        <v>1.1895407561553951E-2</v>
       </c>
       <c r="L105" s="8">
         <f t="shared" si="22"/>
-        <v>-1.5759656488001636E-2</v>
+        <v>-1.577771308806326E-2</v>
       </c>
       <c r="M105" s="8">
         <f t="shared" si="23"/>
-        <v>-3.3240350025770644E-3</v>
+        <v>7.1126101555459634E-3</v>
       </c>
       <c r="N105" s="8">
         <f t="shared" si="24"/>
-        <v>-2.2611681048002347E-2</v>
+        <v>-2.2637588343742941E-2</v>
       </c>
       <c r="O105" s="8">
         <f t="shared" si="25"/>
-        <v>0.56452654388334478</v>
+        <v>0.52612006630168207</v>
       </c>
       <c r="P105" s="8">
         <f t="shared" si="26"/>
-        <v>-6.8520245600007116E-3</v>
+        <v>-6.8598752556796793E-3</v>
       </c>
       <c r="Q105" s="8">
         <f t="shared" si="27"/>
-        <v>0.58646062969493484</v>
+        <v>0.50428768113447953</v>
       </c>
       <c r="R105" s="8">
         <f t="shared" si="28"/>
-        <v>-6.8520245600007116E-3</v>
+        <v>-6.8598752556796793E-3</v>
       </c>
       <c r="S105" s="8">
         <f t="shared" si="29"/>
-        <v>0.52759970304726655</v>
-      </c>
-      <c r="T105" s="21">
+        <v>0.45742519271833465</v>
+      </c>
+      <c r="T105" s="14">
         <f t="shared" si="15"/>
-        <v>3.6461819576585393E-3</v>
+        <v>3.6504983833133011E-3</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -9548,11 +9548,11 @@
       </c>
       <c r="G106" s="10">
         <f t="shared" si="17"/>
-        <v>3.4336218683524473</v>
+        <v>3.4085217864248993</v>
       </c>
       <c r="H106" s="10">
         <f t="shared" si="18"/>
-        <v>0.96873893703653136</v>
+        <v>0.96796980217167161</v>
       </c>
       <c r="I106" s="10">
         <f t="shared" si="19"/>
@@ -9560,47 +9560,47 @@
       </c>
       <c r="J106" s="10">
         <f t="shared" si="20"/>
-        <v>-1.0603085438174051E-2</v>
+        <v>-1.112241443737135E-2</v>
       </c>
       <c r="K106" s="10">
         <f t="shared" si="21"/>
-        <v>-3.7942056295704865E-2</v>
+        <v>1.3007649005291087E-2</v>
       </c>
       <c r="L106" s="8">
         <f t="shared" si="22"/>
-        <v>-5.1122019076910614E-3</v>
+        <v>-5.3625926751611867E-3</v>
       </c>
       <c r="M106" s="8">
         <f t="shared" si="23"/>
-        <v>-2.8128148118079579E-3</v>
+        <v>7.6488694230620819E-3</v>
       </c>
       <c r="N106" s="8">
         <f t="shared" si="24"/>
-        <v>-7.9523140786305398E-3</v>
+        <v>-8.3418108280285119E-3</v>
       </c>
       <c r="O106" s="8">
         <f t="shared" si="25"/>
-        <v>0.56532177529120786</v>
+        <v>0.52695424738448493</v>
       </c>
       <c r="P106" s="8">
         <f t="shared" si="26"/>
-        <v>-2.4614305481475479E-3</v>
+        <v>-2.5819890658183493E-3</v>
       </c>
       <c r="Q106" s="8">
         <f t="shared" si="27"/>
-        <v>0.58670677274974958</v>
+        <v>0.50454588004106138</v>
       </c>
       <c r="R106" s="8">
         <f t="shared" si="28"/>
-        <v>-1.8934081139596521E-3</v>
+        <v>-1.9861454352448839E-3</v>
       </c>
       <c r="S106" s="8">
         <f t="shared" si="29"/>
-        <v>0.52778904385866254</v>
-      </c>
-      <c r="T106" s="21">
+        <v>0.45762380726185914</v>
+      </c>
+      <c r="T106" s="14">
         <f t="shared" si="15"/>
-        <v>9.7725405760595093E-4</v>
+        <v>1.0259335729218527E-3</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -9625,11 +9625,11 @@
       </c>
       <c r="G107" s="10">
         <f t="shared" si="17"/>
-        <v>3.3814804620604937</v>
+        <v>3.373376909925315</v>
       </c>
       <c r="H107" s="10">
         <f t="shared" si="18"/>
-        <v>0.96712071273169209</v>
+        <v>0.96686205635476041</v>
       </c>
       <c r="I107" s="10">
         <f t="shared" si="19"/>
@@ -9637,47 +9637,47 @@
       </c>
       <c r="J107" s="10">
         <f t="shared" si="20"/>
-        <v>-1.1918739431922046E-2</v>
+        <v>-1.2103764872034109E-2</v>
       </c>
       <c r="K107" s="10">
         <f t="shared" si="21"/>
-        <v>-3.6750182352512657E-2</v>
+        <v>1.4218025492494497E-2</v>
       </c>
       <c r="L107" s="8">
         <f t="shared" si="22"/>
-        <v>-6.2730207536431815E-3</v>
+        <v>-6.3704025642284789E-3</v>
       </c>
       <c r="M107" s="8">
         <f t="shared" si="23"/>
-        <v>-2.1855127364436397E-3</v>
+        <v>8.2859096794849294E-3</v>
       </c>
       <c r="N107" s="8">
         <f t="shared" si="24"/>
-        <v>-8.7822290551004545E-3</v>
+        <v>-8.9185635899198708E-3</v>
       </c>
       <c r="O107" s="8">
         <f t="shared" si="25"/>
-        <v>0.56619999819671796</v>
+        <v>0.52784610374347696</v>
       </c>
       <c r="P107" s="8">
         <f t="shared" si="26"/>
-        <v>-2.5092083014572725E-3</v>
+        <v>-2.5481610256913915E-3</v>
       </c>
       <c r="Q107" s="8">
         <f t="shared" si="27"/>
-        <v>0.58695769357989536</v>
+        <v>0.50480069614363055</v>
       </c>
       <c r="R107" s="8">
         <f t="shared" si="28"/>
-        <v>-2.0910069178810605E-3</v>
+        <v>-2.1234675214094928E-3</v>
       </c>
       <c r="S107" s="8">
         <f t="shared" si="29"/>
-        <v>0.52799814455045069</v>
-      </c>
-      <c r="T107" s="21">
+        <v>0.45783615401400007</v>
+      </c>
+      <c r="T107" s="14">
         <f t="shared" si="15"/>
-        <v>1.0810475312719146E-3</v>
+        <v>1.0981233090350748E-3</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -9702,11 +9702,11 @@
       </c>
       <c r="G108" s="10">
         <f t="shared" si="17"/>
-        <v>3.4532691122855219</v>
+        <v>3.4361025781010479</v>
       </c>
       <c r="H108" s="10">
         <f t="shared" si="18"/>
-        <v>0.96932848207416489</v>
+        <v>0.96881397508260769</v>
       </c>
       <c r="I108" s="10">
         <f t="shared" si="19"/>
@@ -9714,47 +9714,47 @@
       </c>
       <c r="J108" s="10">
         <f t="shared" si="20"/>
-        <v>-1.0395523500891827E-2</v>
+        <v>-1.0741508817655657E-2</v>
       </c>
       <c r="K108" s="10">
         <f t="shared" si="21"/>
-        <v>-3.5710630002423471E-2</v>
+        <v>1.5292176374260063E-2</v>
       </c>
       <c r="L108" s="8">
         <f t="shared" si="22"/>
-        <v>-5.2889505530853151E-3</v>
+        <v>-5.4649781703862109E-3</v>
       </c>
       <c r="M108" s="8">
         <f t="shared" si="23"/>
-        <v>-1.6566176811351082E-3</v>
+        <v>8.8324074965235502E-3</v>
       </c>
       <c r="N108" s="8">
         <f t="shared" si="24"/>
-        <v>-7.6598594217097667E-3</v>
+        <v>-7.9147959709041683E-3</v>
       </c>
       <c r="O108" s="8">
         <f t="shared" si="25"/>
-        <v>0.56696598413888888</v>
+        <v>0.52863758334056743</v>
       </c>
       <c r="P108" s="8">
         <f t="shared" si="26"/>
-        <v>-2.3709088686244516E-3</v>
+        <v>-2.449817800517957E-3</v>
       </c>
       <c r="Q108" s="8">
         <f t="shared" si="27"/>
-        <v>0.58719478446675777</v>
+        <v>0.50504567792368238</v>
       </c>
       <c r="R108" s="8">
         <f t="shared" si="28"/>
-        <v>-1.8237760527880396E-3</v>
+        <v>-1.8844752311676591E-3</v>
       </c>
       <c r="S108" s="8">
         <f t="shared" si="29"/>
-        <v>0.52818052215572953</v>
-      </c>
-      <c r="T108" s="21">
+        <v>0.45802460153711683</v>
+      </c>
+      <c r="T108" s="14">
         <f t="shared" si="15"/>
-        <v>9.4074201187482464E-4</v>
+        <v>9.7256815014821389E-4</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -9779,11 +9779,11 @@
       </c>
       <c r="G109" s="10">
         <f t="shared" si="17"/>
-        <v>3.5032773764694198</v>
+        <v>3.5081510664626747</v>
       </c>
       <c r="H109" s="10">
         <f t="shared" si="18"/>
-        <v>0.9707808757662022</v>
+        <v>0.97091880303126976</v>
       </c>
       <c r="I109" s="10">
         <f t="shared" si="19"/>
@@ -9791,47 +9791,47 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" si="20"/>
-        <v>-1.0277258665287772E-2</v>
+        <v>-1.018190762994646E-2</v>
       </c>
       <c r="K109" s="10">
         <f t="shared" si="21"/>
-        <v>-3.4682904135894692E-2</v>
+        <v>1.631036713725471E-2</v>
       </c>
       <c r="L109" s="8">
         <f t="shared" si="22"/>
-        <v>-4.8071048595700874E-3</v>
+        <v>-4.7625051817491507E-3</v>
       </c>
       <c r="M109" s="8">
         <f t="shared" si="23"/>
-        <v>-1.1759071951780993E-3</v>
+        <v>9.3086580146984656E-3</v>
       </c>
       <c r="N109" s="8">
         <f t="shared" si="24"/>
-        <v>-7.127776171086681E-3</v>
+        <v>-7.0616456143177062E-3</v>
       </c>
       <c r="O109" s="8">
         <f t="shared" si="25"/>
-        <v>0.56767876175599752</v>
+        <v>0.52934374790199923</v>
       </c>
       <c r="P109" s="8">
         <f t="shared" si="26"/>
-        <v>-2.1549090749796943E-3</v>
+        <v>-2.1349161159565158E-3</v>
       </c>
       <c r="Q109" s="8">
         <f t="shared" si="27"/>
-        <v>0.58741027537425572</v>
+        <v>0.50525916953527805</v>
       </c>
       <c r="R109" s="8">
         <f t="shared" si="28"/>
-        <v>-1.6576223653689956E-3</v>
+        <v>-1.6422431661203968E-3</v>
       </c>
       <c r="S109" s="8">
         <f t="shared" si="29"/>
-        <v>0.52834628439226639</v>
-      </c>
-      <c r="T109" s="21">
+        <v>0.45818882585372889</v>
+      </c>
+      <c r="T109" s="14">
         <f t="shared" si="15"/>
-        <v>8.537572209901098E-4</v>
+        <v>8.4571601713408478E-4</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -9856,11 +9856,11 @@
       </c>
       <c r="G110" s="10">
         <f t="shared" si="17"/>
-        <v>2.697711293490932</v>
+        <v>2.7084596734852773</v>
       </c>
       <c r="H110" s="10">
         <f t="shared" si="18"/>
-        <v>0.93689145577942678</v>
+        <v>0.93752398656385794</v>
       </c>
       <c r="I110" s="10">
         <f t="shared" si="19"/>
@@ -9868,47 +9868,47 @@
       </c>
       <c r="J110" s="10">
         <f t="shared" si="20"/>
-        <v>-3.8059736233487421E-2</v>
+        <v>-3.7325804668439641E-2</v>
       </c>
       <c r="K110" s="10">
         <f t="shared" si="21"/>
-        <v>-3.087693051254595E-2</v>
+        <v>2.0042947604098676E-2</v>
       </c>
       <c r="L110" s="8">
         <f t="shared" si="22"/>
-        <v>-1.8656733447787951E-2</v>
+        <v>-1.829696307276453E-2</v>
       </c>
       <c r="M110" s="8">
         <f t="shared" si="23"/>
-        <v>6.8976614960069584E-4</v>
+        <v>1.1138354321974919E-2</v>
       </c>
       <c r="N110" s="8">
         <f t="shared" si="24"/>
-        <v>-2.2388080137345542E-2</v>
+        <v>-2.1956355687317436E-2</v>
       </c>
       <c r="O110" s="8">
         <f t="shared" si="25"/>
-        <v>0.56991756976973207</v>
+        <v>0.53153938347073093</v>
       </c>
       <c r="P110" s="8">
         <f t="shared" si="26"/>
-        <v>-8.2089627170266986E-3</v>
+        <v>-8.0506637520163932E-3</v>
       </c>
       <c r="Q110" s="8">
         <f t="shared" si="27"/>
-        <v>0.5882311716459584</v>
+        <v>0.50606423591047967</v>
       </c>
       <c r="R110" s="8">
         <f t="shared" si="28"/>
-        <v>-7.4626933791151805E-3</v>
+        <v>-7.318785229105812E-3</v>
       </c>
       <c r="S110" s="8">
         <f t="shared" si="29"/>
-        <v>0.52909255373017794</v>
-      </c>
-      <c r="T110" s="21">
+        <v>0.45892070437663945</v>
+      </c>
+      <c r="T110" s="14">
         <f t="shared" si="15"/>
-        <v>3.9826883536400451E-3</v>
+        <v>3.9032522548730036E-3</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -9933,11 +9933,11 @@
       </c>
       <c r="G111" s="10">
         <f t="shared" si="17"/>
-        <v>3.4563879542231954</v>
+        <v>3.4415478767351519</v>
       </c>
       <c r="H111" s="10">
         <f t="shared" si="18"/>
-        <v>0.96942107205926042</v>
+        <v>0.96897807704551187</v>
       </c>
       <c r="I111" s="10">
         <f>IF(H111 &gt; 0.5,1,0)</f>
@@ -9945,47 +9945,47 @@
       </c>
       <c r="J111" s="10">
         <f t="shared" si="20"/>
-        <v>-1.0333842022017578E-2</v>
+        <v>-1.0630562189377928E-2</v>
       </c>
       <c r="K111" s="10">
         <f t="shared" si="21"/>
-        <v>-2.9843546310344193E-2</v>
+        <v>2.1106003823036467E-2</v>
       </c>
       <c r="L111" s="8">
         <f t="shared" si="22"/>
-        <v>-5.076273273973547E-3</v>
+        <v>-5.2220305491681041E-3</v>
       </c>
       <c r="M111" s="8">
         <f t="shared" si="23"/>
-        <v>1.1973934769980506E-3</v>
+        <v>1.1660557376891728E-2</v>
       </c>
       <c r="N111" s="8">
         <f t="shared" si="24"/>
-        <v>-7.4331144368898362E-3</v>
+        <v>-7.6465447327104382E-3</v>
       </c>
       <c r="O111" s="8">
         <f t="shared" si="25"/>
-        <v>0.57066088121342107</v>
+        <v>0.53230403794400194</v>
       </c>
       <c r="P111" s="8">
         <f t="shared" si="26"/>
-        <v>-2.35684116291629E-3</v>
+        <v>-2.4245141835423346E-3</v>
       </c>
       <c r="Q111" s="8">
         <f t="shared" si="27"/>
-        <v>0.58846685576225</v>
+        <v>0.50630668732883388</v>
       </c>
       <c r="R111" s="8">
         <f t="shared" si="28"/>
-        <v>-1.8129547407048383E-3</v>
+        <v>-1.8650109104171803E-3</v>
       </c>
       <c r="S111" s="8">
         <f t="shared" si="29"/>
-        <v>0.52927384920424847</v>
-      </c>
-      <c r="T111" s="21">
+        <v>0.45910720546768119</v>
+      </c>
+      <c r="T111" s="14">
         <f t="shared" si="15"/>
-        <v>9.3507083400494353E-4</v>
+        <v>9.6235970379419781E-4</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -10036,7 +10036,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="13">
         <v>1.1941331319840574E-3</v>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="13">
         <v>8.8676E-4</v>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="13">
         <v>8.4066000000000002E-4</v>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="13">
         <v>8.0721000000000005E-4</v>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="13">
         <v>7.5091999999999997E-4</v>
       </c>
     </row>
@@ -10076,7 +10076,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="13">
         <v>7.1586999999999996E-4</v>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="13">
         <v>6.9631000000000001E-4</v>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>6.7588000000000001E-4</v>
       </c>
     </row>
@@ -10100,7 +10100,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="13">
         <v>6.5258999999999998E-4</v>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="13">
         <v>6.2779999999999997E-4</v>
       </c>
     </row>
@@ -10116,7 +10116,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="13">
         <v>6.0238000000000002E-4</v>
       </c>
     </row>
@@ -10124,7 +10124,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="13">
         <v>5.7684000000000001E-4</v>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="13">
         <v>5.5148000000000003E-4</v>
       </c>
     </row>
@@ -10140,7 +10140,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="13">
         <v>5.2658999999999996E-4</v>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <v>5.0237000000000003E-4</v>
       </c>
     </row>
@@ -10156,7 +10156,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="13">
         <v>4.7901999999999998E-4</v>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <v>4.5665000000000001E-4</v>
       </c>
     </row>
@@ -10172,7 +10172,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <v>4.3534999999999998E-4</v>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="13">
         <v>4.1515999999999998E-4</v>
       </c>
     </row>
@@ -10188,7 +10188,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="13">
         <v>3.9607999999999999E-4</v>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="13">
         <v>3.7811000000000002E-4</v>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <v>3.6120999999999999E-4</v>
       </c>
     </row>
@@ -10212,7 +10212,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
         <v>3.4532999999999998E-4</v>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="13">
         <v>3.3042E-4</v>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="13">
         <v>3.1641999999999998E-4</v>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="13">
         <v>3.0328000000000001E-4</v>
       </c>
     </row>
@@ -10244,7 +10244,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="13">
         <v>2.9095E-4</v>
       </c>
     </row>
@@ -10252,7 +10252,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="13">
         <v>2.7934999999999999E-4</v>
       </c>
     </row>
@@ -10260,7 +10260,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="13">
         <v>2.6845999999999999E-4</v>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="13">
         <v>2.5820999999999998E-4</v>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="13">
         <v>2.4855E-4</v>
       </c>
     </row>
@@ -10284,7 +10284,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="13">
         <v>2.3945999999999999E-4</v>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="13">
         <v>2.3088000000000001E-4</v>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="13">
         <v>2.2277000000000001E-4</v>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="13">
         <v>2.1511999999999999E-4</v>
       </c>
     </row>
@@ -10316,7 +10316,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="13">
         <v>2.0787E-4</v>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="13">
         <v>2.0102E-4</v>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="13">
         <v>1.9452E-4</v>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="13">
         <v>1.8835E-4</v>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="13">
         <v>1.8249E-4</v>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="13">
         <v>1.7693E-4</v>
       </c>
     </row>
@@ -10364,7 +10364,7 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="13">
         <v>1.7164E-4</v>
       </c>
     </row>
@@ -10372,7 +10372,7 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="13">
         <v>1.6660000000000001E-4</v>
       </c>
     </row>
@@ -10380,7 +10380,7 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="13">
         <v>1.6179000000000001E-4</v>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="13">
         <v>1.5720999999999999E-4</v>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="13">
         <v>1.5284000000000001E-4</v>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="13">
         <v>1.4867E-4</v>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="13">
         <v>1.4467000000000001E-4</v>
       </c>
     </row>
@@ -10420,7 +10420,7 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="13">
         <v>1.4086E-4</v>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="13">
         <v>1.372E-4</v>
       </c>
     </row>
@@ -10436,7 +10436,7 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="13">
         <v>1.337E-4</v>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="13">
         <v>1.3034E-4</v>
       </c>
     </row>
@@ -10452,7 +10452,7 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="13">
         <v>1.2711999999999999E-4</v>
       </c>
     </row>
@@ -10460,7 +10460,7 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="13">
         <v>1.2402999999999999E-4</v>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="13">
         <v>1.2106E-4</v>
       </c>
     </row>
@@ -10476,7 +10476,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="13">
         <v>1.182E-4</v>
       </c>
     </row>
@@ -10484,7 +10484,7 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="13">
         <v>1.1546E-4</v>
       </c>
     </row>
@@ -10492,7 +10492,7 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="13">
         <v>1.1281999999999999E-4</v>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="13">
         <v>1.1027E-4</v>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="13">
         <v>1.0781999999999999E-4</v>
       </c>
     </row>
